--- a/ha-asset/01_design/01_dashboard/設計書_1.2.健康情報照会機能.xlsx
+++ b/ha-asset/01_design/01_dashboard/設計書_1.2.健康情報照会機能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\01_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78AD4D8-F336-4A64-8A35-11AB42A702ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ECAA66-B3F2-42F2-8398-27E26191A204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="21600" windowHeight="14415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1755" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -1554,44 +1554,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1599,128 +1575,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1734,22 +1596,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1758,23 +1614,185 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1788,29 +1806,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2200,14 +2200,16 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:Z10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="27" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2238,7 +2240,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="16.5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2267,21 +2269,21 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="3"/>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="65"/>
       <c r="D3" s="65"/>
       <c r="E3" s="66"/>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="73" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="65"/>
       <c r="H3" s="65"/>
       <c r="I3" s="66"/>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="73" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="65"/>
@@ -2302,15 +2304,15 @@
       <c r="Z3" s="66"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="3"/>
-      <c r="B4" s="71">
+      <c r="B4" s="70">
         <v>43778</v>
       </c>
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
       <c r="E4" s="66"/>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="74" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="65"/>
@@ -2339,7 +2341,7 @@
     </row>
     <row r="5" spans="1:27" ht="32.25" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="71">
+      <c r="B5" s="70">
         <v>43869</v>
       </c>
       <c r="C5" s="65"/>
@@ -2352,7 +2354,7 @@
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
       <c r="I5" s="69"/>
-      <c r="J5" s="155" t="s">
+      <c r="J5" s="72" t="s">
         <v>171</v>
       </c>
       <c r="K5" s="65"/>
@@ -2373,9 +2375,9 @@
       <c r="Z5" s="66"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="3"/>
-      <c r="B6" s="71">
+      <c r="B6" s="70">
         <v>43960</v>
       </c>
       <c r="C6" s="65"/>
@@ -2409,9 +2411,9 @@
       <c r="Z6" s="66"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" ht="16.5">
       <c r="A7" s="3"/>
-      <c r="B7" s="73">
+      <c r="B7" s="71">
         <v>44158</v>
       </c>
       <c r="C7" s="65"/>
@@ -2445,9 +2447,9 @@
       <c r="Z7" s="66"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" ht="16.5">
       <c r="A8" s="3"/>
-      <c r="B8" s="73">
+      <c r="B8" s="71">
         <v>44177</v>
       </c>
       <c r="C8" s="65"/>
@@ -2481,7 +2483,7 @@
       <c r="Z8" s="66"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" ht="16.5">
       <c r="A9" s="3"/>
       <c r="B9" s="64"/>
       <c r="C9" s="65"/>
@@ -2510,7 +2512,7 @@
       <c r="Z9" s="66"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" ht="16.5">
       <c r="A10" s="3"/>
       <c r="B10" s="64"/>
       <c r="C10" s="65"/>
@@ -2539,7 +2541,7 @@
       <c r="Z10" s="66"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" ht="16.5">
       <c r="A11" s="3"/>
       <c r="B11" s="64"/>
       <c r="C11" s="65"/>
@@ -2568,7 +2570,7 @@
       <c r="Z11" s="66"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" ht="16.5">
       <c r="A12" s="3"/>
       <c r="B12" s="64"/>
       <c r="C12" s="65"/>
@@ -2597,7 +2599,7 @@
       <c r="Z12" s="66"/>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" ht="16.5">
       <c r="A13" s="3"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
@@ -2626,7 +2628,7 @@
       <c r="Z13" s="66"/>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" ht="16.5">
       <c r="A14" s="3"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -2655,7 +2657,7 @@
       <c r="Z14" s="66"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" ht="16.5">
       <c r="A15" s="3"/>
       <c r="B15" s="64"/>
       <c r="C15" s="65"/>
@@ -2684,7 +2686,7 @@
       <c r="Z15" s="66"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" ht="16.5">
       <c r="A16" s="3"/>
       <c r="B16" s="64"/>
       <c r="C16" s="65"/>
@@ -2713,7 +2715,7 @@
       <c r="Z16" s="66"/>
       <c r="AA16" s="3"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" ht="16.5">
       <c r="A17" s="3"/>
       <c r="B17" s="64"/>
       <c r="C17" s="65"/>
@@ -2742,7 +2744,7 @@
       <c r="Z17" s="66"/>
       <c r="AA17" s="3"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" ht="16.5">
       <c r="A18" s="3"/>
       <c r="B18" s="64"/>
       <c r="C18" s="65"/>
@@ -2771,7 +2773,7 @@
       <c r="Z18" s="66"/>
       <c r="AA18" s="3"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" ht="16.5">
       <c r="A19" s="3"/>
       <c r="B19" s="64"/>
       <c r="C19" s="65"/>
@@ -2800,7 +2802,7 @@
       <c r="Z19" s="66"/>
       <c r="AA19" s="3"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" ht="16.5">
       <c r="A20" s="3"/>
       <c r="B20" s="64"/>
       <c r="C20" s="65"/>
@@ -2829,7 +2831,7 @@
       <c r="Z20" s="66"/>
       <c r="AA20" s="3"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" ht="16.5">
       <c r="A21" s="3"/>
       <c r="B21" s="64"/>
       <c r="C21" s="65"/>
@@ -2858,7 +2860,7 @@
       <c r="Z21" s="66"/>
       <c r="AA21" s="3"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" ht="16.5">
       <c r="A22" s="3"/>
       <c r="B22" s="64"/>
       <c r="C22" s="65"/>
@@ -2887,7 +2889,7 @@
       <c r="Z22" s="66"/>
       <c r="AA22" s="3"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" ht="16.5">
       <c r="A23" s="3"/>
       <c r="B23" s="64"/>
       <c r="C23" s="65"/>
@@ -2916,7 +2918,7 @@
       <c r="Z23" s="66"/>
       <c r="AA23" s="3"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" ht="16.5">
       <c r="A24" s="3"/>
       <c r="B24" s="64"/>
       <c r="C24" s="65"/>
@@ -2945,7 +2947,7 @@
       <c r="Z24" s="66"/>
       <c r="AA24" s="3"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" ht="16.5">
       <c r="A25" s="3"/>
       <c r="B25" s="64"/>
       <c r="C25" s="65"/>
@@ -2974,7 +2976,7 @@
       <c r="Z25" s="66"/>
       <c r="AA25" s="3"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" ht="16.5">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3003,7 +3005,7 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" ht="16.5">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3034,12 +3036,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -3049,60 +3099,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4831,9 +4833,7 @@
   </sheetPr>
   <dimension ref="A1:BP171"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A70" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ16" sqref="AQ16"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -10413,36 +10413,36 @@
       <c r="I80" s="33"/>
       <c r="J80" s="33"/>
       <c r="K80" s="37"/>
-      <c r="L80" s="126" t="s">
+      <c r="L80" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="M80" s="127"/>
-      <c r="N80" s="127"/>
-      <c r="O80" s="127"/>
-      <c r="P80" s="127"/>
-      <c r="Q80" s="128"/>
-      <c r="R80" s="126" t="s">
+      <c r="M80" s="81"/>
+      <c r="N80" s="81"/>
+      <c r="O80" s="81"/>
+      <c r="P80" s="81"/>
+      <c r="Q80" s="82"/>
+      <c r="R80" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="S80" s="127"/>
-      <c r="T80" s="127"/>
-      <c r="U80" s="127"/>
-      <c r="V80" s="127"/>
-      <c r="W80" s="128"/>
+      <c r="S80" s="81"/>
+      <c r="T80" s="81"/>
+      <c r="U80" s="81"/>
+      <c r="V80" s="81"/>
+      <c r="W80" s="82"/>
       <c r="X80" s="33"/>
       <c r="Y80" s="33"/>
       <c r="Z80" s="33"/>
       <c r="AA80" s="33"/>
       <c r="AB80" s="33"/>
       <c r="AC80" s="37"/>
-      <c r="AD80" s="110" t="s">
+      <c r="AD80" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="AE80" s="127"/>
-      <c r="AF80" s="127"/>
-      <c r="AG80" s="127"/>
-      <c r="AH80" s="127"/>
-      <c r="AI80" s="128"/>
+      <c r="AE80" s="81"/>
+      <c r="AF80" s="81"/>
+      <c r="AG80" s="81"/>
+      <c r="AH80" s="81"/>
+      <c r="AI80" s="82"/>
       <c r="AJ80" s="38"/>
       <c r="AK80" s="38"/>
       <c r="AL80" s="38"/>
@@ -10494,20 +10494,20 @@
       <c r="I81" s="40"/>
       <c r="J81" s="40"/>
       <c r="K81" s="37"/>
-      <c r="L81" s="129" t="s">
+      <c r="L81" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="M81" s="81"/>
-      <c r="N81" s="81"/>
-      <c r="O81" s="81"/>
-      <c r="P81" s="81"/>
-      <c r="Q81" s="82"/>
-      <c r="R81" s="129"/>
-      <c r="S81" s="81"/>
-      <c r="T81" s="81"/>
-      <c r="U81" s="81"/>
-      <c r="V81" s="81"/>
-      <c r="W81" s="82"/>
+      <c r="M81" s="84"/>
+      <c r="N81" s="84"/>
+      <c r="O81" s="84"/>
+      <c r="P81" s="84"/>
+      <c r="Q81" s="85"/>
+      <c r="R81" s="83"/>
+      <c r="S81" s="84"/>
+      <c r="T81" s="84"/>
+      <c r="U81" s="84"/>
+      <c r="V81" s="84"/>
+      <c r="W81" s="85"/>
       <c r="X81" s="40" t="s">
         <v>45</v>
       </c>
@@ -10516,14 +10516,14 @@
       <c r="AA81" s="40"/>
       <c r="AB81" s="40"/>
       <c r="AC81" s="37"/>
-      <c r="AD81" s="130" t="s">
+      <c r="AD81" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="AE81" s="131"/>
-      <c r="AF81" s="131"/>
-      <c r="AG81" s="131"/>
-      <c r="AH81" s="131"/>
-      <c r="AI81" s="128"/>
+      <c r="AE81" s="87"/>
+      <c r="AF81" s="87"/>
+      <c r="AG81" s="87"/>
+      <c r="AH81" s="87"/>
+      <c r="AI81" s="82"/>
       <c r="AJ81" s="41"/>
       <c r="AK81" s="41"/>
       <c r="AL81" s="41"/>
@@ -10575,36 +10575,36 @@
       <c r="I82" s="40"/>
       <c r="J82" s="40"/>
       <c r="K82" s="37"/>
-      <c r="L82" s="129" t="s">
+      <c r="L82" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="M82" s="81"/>
-      <c r="N82" s="81"/>
-      <c r="O82" s="81"/>
-      <c r="P82" s="81"/>
-      <c r="Q82" s="82"/>
-      <c r="R82" s="129" t="s">
+      <c r="M82" s="84"/>
+      <c r="N82" s="84"/>
+      <c r="O82" s="84"/>
+      <c r="P82" s="84"/>
+      <c r="Q82" s="85"/>
+      <c r="R82" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="S82" s="81"/>
-      <c r="T82" s="81"/>
-      <c r="U82" s="81"/>
-      <c r="V82" s="81"/>
-      <c r="W82" s="82"/>
+      <c r="S82" s="84"/>
+      <c r="T82" s="84"/>
+      <c r="U82" s="84"/>
+      <c r="V82" s="84"/>
+      <c r="W82" s="85"/>
       <c r="X82" s="40"/>
       <c r="Y82" s="40"/>
       <c r="Z82" s="40"/>
       <c r="AA82" s="40"/>
       <c r="AB82" s="40"/>
       <c r="AC82" s="37"/>
-      <c r="AD82" s="130" t="s">
+      <c r="AD82" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="AE82" s="131"/>
-      <c r="AF82" s="131"/>
-      <c r="AG82" s="131"/>
-      <c r="AH82" s="131"/>
-      <c r="AI82" s="128"/>
+      <c r="AE82" s="87"/>
+      <c r="AF82" s="87"/>
+      <c r="AG82" s="87"/>
+      <c r="AH82" s="87"/>
+      <c r="AI82" s="82"/>
       <c r="AJ82" s="41"/>
       <c r="AK82" s="41"/>
       <c r="AL82" s="41"/>
@@ -10656,36 +10656,36 @@
       <c r="I83" s="40"/>
       <c r="J83" s="40"/>
       <c r="K83" s="37"/>
-      <c r="L83" s="129" t="s">
+      <c r="L83" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="M83" s="81"/>
-      <c r="N83" s="81"/>
-      <c r="O83" s="81"/>
-      <c r="P83" s="81"/>
-      <c r="Q83" s="82"/>
-      <c r="R83" s="129" t="s">
+      <c r="M83" s="84"/>
+      <c r="N83" s="84"/>
+      <c r="O83" s="84"/>
+      <c r="P83" s="84"/>
+      <c r="Q83" s="85"/>
+      <c r="R83" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="S83" s="81"/>
-      <c r="T83" s="81"/>
-      <c r="U83" s="81"/>
-      <c r="V83" s="81"/>
-      <c r="W83" s="82"/>
+      <c r="S83" s="84"/>
+      <c r="T83" s="84"/>
+      <c r="U83" s="84"/>
+      <c r="V83" s="84"/>
+      <c r="W83" s="85"/>
       <c r="X83" s="40"/>
       <c r="Y83" s="40"/>
       <c r="Z83" s="40"/>
       <c r="AA83" s="40"/>
       <c r="AB83" s="40"/>
       <c r="AC83" s="37"/>
-      <c r="AD83" s="130" t="s">
+      <c r="AD83" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="AE83" s="131"/>
-      <c r="AF83" s="131"/>
-      <c r="AG83" s="131"/>
-      <c r="AH83" s="131"/>
-      <c r="AI83" s="128"/>
+      <c r="AE83" s="87"/>
+      <c r="AF83" s="87"/>
+      <c r="AG83" s="87"/>
+      <c r="AH83" s="87"/>
+      <c r="AI83" s="82"/>
       <c r="AJ83" s="41"/>
       <c r="AK83" s="41"/>
       <c r="AL83" s="41"/>
@@ -10737,32 +10737,32 @@
       <c r="I84" s="40"/>
       <c r="J84" s="40"/>
       <c r="K84" s="37"/>
-      <c r="L84" s="129" t="s">
+      <c r="L84" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="M84" s="81"/>
-      <c r="N84" s="81"/>
-      <c r="O84" s="81"/>
-      <c r="P84" s="81"/>
-      <c r="Q84" s="82"/>
-      <c r="R84" s="129"/>
-      <c r="S84" s="81"/>
-      <c r="T84" s="81"/>
-      <c r="U84" s="81"/>
-      <c r="V84" s="81"/>
-      <c r="W84" s="82"/>
+      <c r="M84" s="84"/>
+      <c r="N84" s="84"/>
+      <c r="O84" s="84"/>
+      <c r="P84" s="84"/>
+      <c r="Q84" s="85"/>
+      <c r="R84" s="83"/>
+      <c r="S84" s="84"/>
+      <c r="T84" s="84"/>
+      <c r="U84" s="84"/>
+      <c r="V84" s="84"/>
+      <c r="W84" s="85"/>
       <c r="X84" s="40"/>
       <c r="Y84" s="40"/>
       <c r="Z84" s="40"/>
       <c r="AA84" s="40"/>
       <c r="AB84" s="40"/>
       <c r="AC84" s="37"/>
-      <c r="AD84" s="130"/>
-      <c r="AE84" s="131"/>
-      <c r="AF84" s="131"/>
-      <c r="AG84" s="131"/>
-      <c r="AH84" s="131"/>
-      <c r="AI84" s="128"/>
+      <c r="AD84" s="86"/>
+      <c r="AE84" s="87"/>
+      <c r="AF84" s="87"/>
+      <c r="AG84" s="87"/>
+      <c r="AH84" s="87"/>
+      <c r="AI84" s="82"/>
       <c r="AJ84" s="41"/>
       <c r="AK84" s="41"/>
       <c r="AL84" s="41"/>
@@ -10814,32 +10814,32 @@
       <c r="I85" s="38"/>
       <c r="J85" s="38"/>
       <c r="K85" s="39"/>
-      <c r="L85" s="103" t="s">
+      <c r="L85" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="M85" s="134"/>
-      <c r="N85" s="134"/>
-      <c r="O85" s="134"/>
-      <c r="P85" s="134"/>
-      <c r="Q85" s="135"/>
-      <c r="R85" s="103"/>
-      <c r="S85" s="134"/>
-      <c r="T85" s="134"/>
-      <c r="U85" s="134"/>
-      <c r="V85" s="134"/>
-      <c r="W85" s="135"/>
+      <c r="M85" s="78"/>
+      <c r="N85" s="78"/>
+      <c r="O85" s="78"/>
+      <c r="P85" s="78"/>
+      <c r="Q85" s="79"/>
+      <c r="R85" s="77"/>
+      <c r="S85" s="78"/>
+      <c r="T85" s="78"/>
+      <c r="U85" s="78"/>
+      <c r="V85" s="78"/>
+      <c r="W85" s="79"/>
       <c r="X85" s="38"/>
       <c r="Y85" s="38"/>
       <c r="Z85" s="38"/>
       <c r="AA85" s="38"/>
       <c r="AB85" s="38"/>
       <c r="AC85" s="39"/>
-      <c r="AD85" s="117"/>
-      <c r="AE85" s="132"/>
-      <c r="AF85" s="132"/>
-      <c r="AG85" s="132"/>
-      <c r="AH85" s="132"/>
-      <c r="AI85" s="133"/>
+      <c r="AD85" s="90"/>
+      <c r="AE85" s="91"/>
+      <c r="AF85" s="91"/>
+      <c r="AG85" s="91"/>
+      <c r="AH85" s="91"/>
+      <c r="AI85" s="92"/>
       <c r="AJ85" s="38"/>
       <c r="AK85" s="38"/>
       <c r="AL85" s="38"/>
@@ -10963,32 +10963,32 @@
       <c r="I87" s="33"/>
       <c r="J87" s="33"/>
       <c r="K87" s="37"/>
-      <c r="L87" s="126" t="s">
+      <c r="L87" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="M87" s="127"/>
-      <c r="N87" s="127"/>
-      <c r="O87" s="127"/>
-      <c r="P87" s="127"/>
-      <c r="Q87" s="128"/>
-      <c r="R87" s="126"/>
-      <c r="S87" s="127"/>
-      <c r="T87" s="127"/>
-      <c r="U87" s="127"/>
-      <c r="V87" s="127"/>
-      <c r="W87" s="128"/>
+      <c r="M87" s="81"/>
+      <c r="N87" s="81"/>
+      <c r="O87" s="81"/>
+      <c r="P87" s="81"/>
+      <c r="Q87" s="82"/>
+      <c r="R87" s="80"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="81"/>
+      <c r="V87" s="81"/>
+      <c r="W87" s="82"/>
       <c r="X87" s="33"/>
       <c r="Y87" s="33"/>
       <c r="Z87" s="33"/>
       <c r="AA87" s="33"/>
       <c r="AB87" s="33"/>
       <c r="AC87" s="37"/>
-      <c r="AD87" s="110"/>
-      <c r="AE87" s="127"/>
-      <c r="AF87" s="127"/>
-      <c r="AG87" s="127"/>
-      <c r="AH87" s="127"/>
-      <c r="AI87" s="128"/>
+      <c r="AD87" s="93"/>
+      <c r="AE87" s="81"/>
+      <c r="AF87" s="81"/>
+      <c r="AG87" s="81"/>
+      <c r="AH87" s="81"/>
+      <c r="AI87" s="82"/>
       <c r="AJ87" s="38"/>
       <c r="AK87" s="38"/>
       <c r="AL87" s="38"/>
@@ -11040,34 +11040,34 @@
       <c r="I88" s="40"/>
       <c r="J88" s="40"/>
       <c r="K88" s="37"/>
-      <c r="L88" s="129" t="s">
+      <c r="L88" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="M88" s="81"/>
-      <c r="N88" s="81"/>
-      <c r="O88" s="81"/>
-      <c r="P88" s="81"/>
-      <c r="Q88" s="82"/>
-      <c r="R88" s="129" t="s">
+      <c r="M88" s="84"/>
+      <c r="N88" s="84"/>
+      <c r="O88" s="84"/>
+      <c r="P88" s="84"/>
+      <c r="Q88" s="85"/>
+      <c r="R88" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="S88" s="81"/>
-      <c r="T88" s="81"/>
-      <c r="U88" s="81"/>
-      <c r="V88" s="81"/>
-      <c r="W88" s="82"/>
+      <c r="S88" s="84"/>
+      <c r="T88" s="84"/>
+      <c r="U88" s="84"/>
+      <c r="V88" s="84"/>
+      <c r="W88" s="85"/>
       <c r="X88" s="40"/>
       <c r="Y88" s="40"/>
       <c r="Z88" s="40"/>
       <c r="AA88" s="40"/>
       <c r="AB88" s="40"/>
       <c r="AC88" s="37"/>
-      <c r="AD88" s="130"/>
-      <c r="AE88" s="131"/>
-      <c r="AF88" s="131"/>
-      <c r="AG88" s="131"/>
-      <c r="AH88" s="131"/>
-      <c r="AI88" s="128"/>
+      <c r="AD88" s="86"/>
+      <c r="AE88" s="87"/>
+      <c r="AF88" s="87"/>
+      <c r="AG88" s="87"/>
+      <c r="AH88" s="87"/>
+      <c r="AI88" s="82"/>
       <c r="AJ88" s="41"/>
       <c r="AK88" s="41"/>
       <c r="AL88" s="41"/>
@@ -11119,34 +11119,34 @@
       <c r="I89" s="40"/>
       <c r="J89" s="40"/>
       <c r="K89" s="37"/>
-      <c r="L89" s="129" t="s">
+      <c r="L89" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="M89" s="81"/>
-      <c r="N89" s="81"/>
-      <c r="O89" s="81"/>
-      <c r="P89" s="81"/>
-      <c r="Q89" s="82"/>
-      <c r="R89" s="129" t="s">
+      <c r="M89" s="84"/>
+      <c r="N89" s="84"/>
+      <c r="O89" s="84"/>
+      <c r="P89" s="84"/>
+      <c r="Q89" s="85"/>
+      <c r="R89" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="S89" s="81"/>
-      <c r="T89" s="81"/>
-      <c r="U89" s="81"/>
-      <c r="V89" s="81"/>
-      <c r="W89" s="82"/>
+      <c r="S89" s="84"/>
+      <c r="T89" s="84"/>
+      <c r="U89" s="84"/>
+      <c r="V89" s="84"/>
+      <c r="W89" s="85"/>
       <c r="X89" s="40"/>
       <c r="Y89" s="40"/>
       <c r="Z89" s="40"/>
       <c r="AA89" s="40"/>
       <c r="AB89" s="40"/>
       <c r="AC89" s="37"/>
-      <c r="AD89" s="130"/>
-      <c r="AE89" s="131"/>
-      <c r="AF89" s="131"/>
-      <c r="AG89" s="131"/>
-      <c r="AH89" s="131"/>
-      <c r="AI89" s="128"/>
+      <c r="AD89" s="86"/>
+      <c r="AE89" s="87"/>
+      <c r="AF89" s="87"/>
+      <c r="AG89" s="87"/>
+      <c r="AH89" s="87"/>
+      <c r="AI89" s="82"/>
       <c r="AJ89" s="41"/>
       <c r="AK89" s="41"/>
       <c r="AL89" s="41"/>
@@ -11198,34 +11198,34 @@
       <c r="I90" s="40"/>
       <c r="J90" s="40"/>
       <c r="K90" s="37"/>
-      <c r="L90" s="129" t="s">
+      <c r="L90" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="M90" s="81"/>
-      <c r="N90" s="81"/>
-      <c r="O90" s="81"/>
-      <c r="P90" s="81"/>
-      <c r="Q90" s="82"/>
-      <c r="R90" s="129" t="s">
+      <c r="M90" s="84"/>
+      <c r="N90" s="84"/>
+      <c r="O90" s="84"/>
+      <c r="P90" s="84"/>
+      <c r="Q90" s="85"/>
+      <c r="R90" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="S90" s="81"/>
-      <c r="T90" s="81"/>
-      <c r="U90" s="81"/>
-      <c r="V90" s="81"/>
-      <c r="W90" s="82"/>
+      <c r="S90" s="84"/>
+      <c r="T90" s="84"/>
+      <c r="U90" s="84"/>
+      <c r="V90" s="84"/>
+      <c r="W90" s="85"/>
       <c r="X90" s="40"/>
       <c r="Y90" s="40"/>
       <c r="Z90" s="40"/>
       <c r="AA90" s="40"/>
       <c r="AB90" s="40"/>
       <c r="AC90" s="37"/>
-      <c r="AD90" s="130"/>
-      <c r="AE90" s="131"/>
-      <c r="AF90" s="131"/>
-      <c r="AG90" s="131"/>
-      <c r="AH90" s="131"/>
-      <c r="AI90" s="128"/>
+      <c r="AD90" s="86"/>
+      <c r="AE90" s="87"/>
+      <c r="AF90" s="87"/>
+      <c r="AG90" s="87"/>
+      <c r="AH90" s="87"/>
+      <c r="AI90" s="82"/>
       <c r="AJ90" s="41"/>
       <c r="AK90" s="41"/>
       <c r="AL90" s="41"/>
@@ -11277,34 +11277,34 @@
       <c r="I91" s="40"/>
       <c r="J91" s="40"/>
       <c r="K91" s="37"/>
-      <c r="L91" s="129" t="s">
+      <c r="L91" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="M91" s="81"/>
-      <c r="N91" s="81"/>
-      <c r="O91" s="81"/>
-      <c r="P91" s="81"/>
-      <c r="Q91" s="82"/>
-      <c r="R91" s="129" t="s">
+      <c r="M91" s="84"/>
+      <c r="N91" s="84"/>
+      <c r="O91" s="84"/>
+      <c r="P91" s="84"/>
+      <c r="Q91" s="85"/>
+      <c r="R91" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="S91" s="81"/>
-      <c r="T91" s="81"/>
-      <c r="U91" s="81"/>
-      <c r="V91" s="81"/>
-      <c r="W91" s="82"/>
+      <c r="S91" s="84"/>
+      <c r="T91" s="84"/>
+      <c r="U91" s="84"/>
+      <c r="V91" s="84"/>
+      <c r="W91" s="85"/>
       <c r="X91" s="40"/>
       <c r="Y91" s="40"/>
       <c r="Z91" s="40"/>
       <c r="AA91" s="40"/>
       <c r="AB91" s="40"/>
       <c r="AC91" s="37"/>
-      <c r="AD91" s="130"/>
-      <c r="AE91" s="131"/>
-      <c r="AF91" s="131"/>
-      <c r="AG91" s="131"/>
-      <c r="AH91" s="131"/>
-      <c r="AI91" s="128"/>
+      <c r="AD91" s="86"/>
+      <c r="AE91" s="87"/>
+      <c r="AF91" s="87"/>
+      <c r="AG91" s="87"/>
+      <c r="AH91" s="87"/>
+      <c r="AI91" s="82"/>
       <c r="AJ91" s="41"/>
       <c r="AK91" s="41"/>
       <c r="AL91" s="41"/>
@@ -11356,34 +11356,34 @@
       <c r="I92" s="40"/>
       <c r="J92" s="40"/>
       <c r="K92" s="37"/>
-      <c r="L92" s="129" t="s">
+      <c r="L92" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="M92" s="81"/>
-      <c r="N92" s="81"/>
-      <c r="O92" s="81"/>
-      <c r="P92" s="81"/>
-      <c r="Q92" s="82"/>
-      <c r="R92" s="136" t="s">
+      <c r="M92" s="84"/>
+      <c r="N92" s="84"/>
+      <c r="O92" s="84"/>
+      <c r="P92" s="84"/>
+      <c r="Q92" s="85"/>
+      <c r="R92" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="S92" s="81"/>
-      <c r="T92" s="81"/>
-      <c r="U92" s="81"/>
-      <c r="V92" s="81"/>
-      <c r="W92" s="82"/>
+      <c r="S92" s="84"/>
+      <c r="T92" s="84"/>
+      <c r="U92" s="84"/>
+      <c r="V92" s="84"/>
+      <c r="W92" s="85"/>
       <c r="X92" s="40"/>
       <c r="Y92" s="40"/>
       <c r="Z92" s="40"/>
       <c r="AA92" s="40"/>
       <c r="AB92" s="40"/>
       <c r="AC92" s="37"/>
-      <c r="AD92" s="130"/>
-      <c r="AE92" s="131"/>
-      <c r="AF92" s="131"/>
-      <c r="AG92" s="131"/>
-      <c r="AH92" s="131"/>
-      <c r="AI92" s="128"/>
+      <c r="AD92" s="86"/>
+      <c r="AE92" s="87"/>
+      <c r="AF92" s="87"/>
+      <c r="AG92" s="87"/>
+      <c r="AH92" s="87"/>
+      <c r="AI92" s="82"/>
       <c r="AJ92" s="41"/>
       <c r="AK92" s="41"/>
       <c r="AL92" s="41"/>
@@ -11435,32 +11435,32 @@
       <c r="I93" s="40"/>
       <c r="J93" s="40"/>
       <c r="K93" s="37"/>
-      <c r="L93" s="129" t="s">
+      <c r="L93" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="M93" s="81"/>
-      <c r="N93" s="81"/>
-      <c r="O93" s="81"/>
-      <c r="P93" s="81"/>
-      <c r="Q93" s="82"/>
-      <c r="R93" s="136"/>
-      <c r="S93" s="81"/>
-      <c r="T93" s="81"/>
-      <c r="U93" s="81"/>
-      <c r="V93" s="81"/>
-      <c r="W93" s="82"/>
+      <c r="M93" s="84"/>
+      <c r="N93" s="84"/>
+      <c r="O93" s="84"/>
+      <c r="P93" s="84"/>
+      <c r="Q93" s="85"/>
+      <c r="R93" s="88"/>
+      <c r="S93" s="84"/>
+      <c r="T93" s="84"/>
+      <c r="U93" s="84"/>
+      <c r="V93" s="84"/>
+      <c r="W93" s="85"/>
       <c r="X93" s="40"/>
       <c r="Y93" s="40"/>
       <c r="Z93" s="40"/>
       <c r="AA93" s="40"/>
       <c r="AB93" s="40"/>
       <c r="AC93" s="37"/>
-      <c r="AD93" s="130"/>
-      <c r="AE93" s="131"/>
-      <c r="AF93" s="131"/>
-      <c r="AG93" s="131"/>
-      <c r="AH93" s="131"/>
-      <c r="AI93" s="128"/>
+      <c r="AD93" s="86"/>
+      <c r="AE93" s="87"/>
+      <c r="AF93" s="87"/>
+      <c r="AG93" s="87"/>
+      <c r="AH93" s="87"/>
+      <c r="AI93" s="82"/>
       <c r="AJ93" s="41"/>
       <c r="AK93" s="41"/>
       <c r="AL93" s="41"/>
@@ -11512,32 +11512,32 @@
       <c r="I94" s="38"/>
       <c r="J94" s="38"/>
       <c r="K94" s="39"/>
-      <c r="L94" s="103" t="s">
+      <c r="L94" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="M94" s="134"/>
-      <c r="N94" s="134"/>
-      <c r="O94" s="134"/>
-      <c r="P94" s="134"/>
-      <c r="Q94" s="135"/>
-      <c r="R94" s="137"/>
-      <c r="S94" s="134"/>
-      <c r="T94" s="134"/>
-      <c r="U94" s="134"/>
-      <c r="V94" s="134"/>
-      <c r="W94" s="135"/>
+      <c r="M94" s="78"/>
+      <c r="N94" s="78"/>
+      <c r="O94" s="78"/>
+      <c r="P94" s="78"/>
+      <c r="Q94" s="79"/>
+      <c r="R94" s="89"/>
+      <c r="S94" s="78"/>
+      <c r="T94" s="78"/>
+      <c r="U94" s="78"/>
+      <c r="V94" s="78"/>
+      <c r="W94" s="79"/>
       <c r="X94" s="38"/>
       <c r="Y94" s="38"/>
       <c r="Z94" s="38"/>
       <c r="AA94" s="38"/>
       <c r="AB94" s="38"/>
       <c r="AC94" s="39"/>
-      <c r="AD94" s="117"/>
-      <c r="AE94" s="132"/>
-      <c r="AF94" s="132"/>
-      <c r="AG94" s="132"/>
-      <c r="AH94" s="132"/>
-      <c r="AI94" s="133"/>
+      <c r="AD94" s="90"/>
+      <c r="AE94" s="91"/>
+      <c r="AF94" s="91"/>
+      <c r="AG94" s="91"/>
+      <c r="AH94" s="91"/>
+      <c r="AI94" s="92"/>
       <c r="AJ94" s="38"/>
       <c r="AK94" s="38"/>
       <c r="AL94" s="38"/>
@@ -11661,32 +11661,32 @@
       <c r="I96" s="33"/>
       <c r="J96" s="33"/>
       <c r="K96" s="37"/>
-      <c r="L96" s="126" t="s">
+      <c r="L96" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="M96" s="127"/>
-      <c r="N96" s="127"/>
-      <c r="O96" s="127"/>
-      <c r="P96" s="127"/>
-      <c r="Q96" s="128"/>
-      <c r="R96" s="126"/>
-      <c r="S96" s="127"/>
-      <c r="T96" s="127"/>
-      <c r="U96" s="127"/>
-      <c r="V96" s="127"/>
-      <c r="W96" s="128"/>
+      <c r="M96" s="81"/>
+      <c r="N96" s="81"/>
+      <c r="O96" s="81"/>
+      <c r="P96" s="81"/>
+      <c r="Q96" s="82"/>
+      <c r="R96" s="80"/>
+      <c r="S96" s="81"/>
+      <c r="T96" s="81"/>
+      <c r="U96" s="81"/>
+      <c r="V96" s="81"/>
+      <c r="W96" s="82"/>
       <c r="X96" s="33"/>
       <c r="Y96" s="33"/>
       <c r="Z96" s="33"/>
       <c r="AA96" s="33"/>
       <c r="AB96" s="33"/>
       <c r="AC96" s="37"/>
-      <c r="AD96" s="110"/>
-      <c r="AE96" s="127"/>
-      <c r="AF96" s="127"/>
-      <c r="AG96" s="127"/>
-      <c r="AH96" s="127"/>
-      <c r="AI96" s="128"/>
+      <c r="AD96" s="93"/>
+      <c r="AE96" s="81"/>
+      <c r="AF96" s="81"/>
+      <c r="AG96" s="81"/>
+      <c r="AH96" s="81"/>
+      <c r="AI96" s="82"/>
       <c r="AJ96" s="33"/>
       <c r="AK96" s="33"/>
       <c r="AL96" s="33"/>
@@ -11935,160 +11935,160 @@
     </row>
     <row r="100" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A100" s="19"/>
-      <c r="B100" s="123" t="s">
+      <c r="B100" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C100" s="124" t="s">
+      <c r="C100" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="124"/>
-      <c r="E100" s="124"/>
-      <c r="F100" s="124"/>
-      <c r="G100" s="124"/>
-      <c r="H100" s="124"/>
-      <c r="I100" s="124"/>
-      <c r="J100" s="124" t="s">
+      <c r="D100" s="104"/>
+      <c r="E100" s="104"/>
+      <c r="F100" s="104"/>
+      <c r="G100" s="104"/>
+      <c r="H100" s="104"/>
+      <c r="I100" s="104"/>
+      <c r="J100" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="K100" s="124"/>
-      <c r="L100" s="124"/>
-      <c r="M100" s="124"/>
-      <c r="N100" s="124"/>
-      <c r="O100" s="124"/>
-      <c r="P100" s="124"/>
-      <c r="Q100" s="124"/>
-      <c r="R100" s="124" t="s">
+      <c r="K100" s="104"/>
+      <c r="L100" s="104"/>
+      <c r="M100" s="104"/>
+      <c r="N100" s="104"/>
+      <c r="O100" s="104"/>
+      <c r="P100" s="104"/>
+      <c r="Q100" s="104"/>
+      <c r="R100" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="S100" s="124"/>
-      <c r="T100" s="124"/>
-      <c r="U100" s="124"/>
-      <c r="V100" s="124"/>
-      <c r="W100" s="124"/>
-      <c r="X100" s="124"/>
-      <c r="Y100" s="124"/>
-      <c r="Z100" s="124"/>
-      <c r="AA100" s="124"/>
-      <c r="AB100" s="124"/>
-      <c r="AC100" s="124"/>
-      <c r="AD100" s="124"/>
-      <c r="AE100" s="124"/>
-      <c r="AF100" s="124"/>
-      <c r="AG100" s="124"/>
-      <c r="AH100" s="124"/>
-      <c r="AI100" s="124" t="s">
+      <c r="S100" s="104"/>
+      <c r="T100" s="104"/>
+      <c r="U100" s="104"/>
+      <c r="V100" s="104"/>
+      <c r="W100" s="104"/>
+      <c r="X100" s="104"/>
+      <c r="Y100" s="104"/>
+      <c r="Z100" s="104"/>
+      <c r="AA100" s="104"/>
+      <c r="AB100" s="104"/>
+      <c r="AC100" s="104"/>
+      <c r="AD100" s="104"/>
+      <c r="AE100" s="104"/>
+      <c r="AF100" s="104"/>
+      <c r="AG100" s="104"/>
+      <c r="AH100" s="104"/>
+      <c r="AI100" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="AJ100" s="124"/>
-      <c r="AK100" s="124"/>
-      <c r="AL100" s="124"/>
-      <c r="AM100" s="124"/>
-      <c r="AN100" s="124"/>
-      <c r="AO100" s="124"/>
-      <c r="AP100" s="124"/>
-      <c r="AQ100" s="124" t="s">
+      <c r="AJ100" s="104"/>
+      <c r="AK100" s="104"/>
+      <c r="AL100" s="104"/>
+      <c r="AM100" s="104"/>
+      <c r="AN100" s="104"/>
+      <c r="AO100" s="104"/>
+      <c r="AP100" s="104"/>
+      <c r="AQ100" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="AR100" s="124"/>
-      <c r="AS100" s="124"/>
-      <c r="AT100" s="124"/>
-      <c r="AU100" s="124"/>
-      <c r="AV100" s="124"/>
-      <c r="AW100" s="124"/>
-      <c r="AX100" s="124"/>
-      <c r="AY100" s="124"/>
-      <c r="AZ100" s="124"/>
-      <c r="BA100" s="124"/>
-      <c r="BB100" s="124"/>
-      <c r="BC100" s="124"/>
-      <c r="BD100" s="124"/>
-      <c r="BE100" s="124"/>
-      <c r="BF100" s="124"/>
-      <c r="BG100" s="124"/>
-      <c r="BH100" s="124"/>
-      <c r="BI100" s="124"/>
-      <c r="BJ100" s="124"/>
-      <c r="BK100" s="124"/>
-      <c r="BL100" s="124"/>
-      <c r="BM100" s="124"/>
-      <c r="BN100" s="124"/>
-      <c r="BO100" s="124"/>
+      <c r="AR100" s="104"/>
+      <c r="AS100" s="104"/>
+      <c r="AT100" s="104"/>
+      <c r="AU100" s="104"/>
+      <c r="AV100" s="104"/>
+      <c r="AW100" s="104"/>
+      <c r="AX100" s="104"/>
+      <c r="AY100" s="104"/>
+      <c r="AZ100" s="104"/>
+      <c r="BA100" s="104"/>
+      <c r="BB100" s="104"/>
+      <c r="BC100" s="104"/>
+      <c r="BD100" s="104"/>
+      <c r="BE100" s="104"/>
+      <c r="BF100" s="104"/>
+      <c r="BG100" s="104"/>
+      <c r="BH100" s="104"/>
+      <c r="BI100" s="104"/>
+      <c r="BJ100" s="104"/>
+      <c r="BK100" s="104"/>
+      <c r="BL100" s="104"/>
+      <c r="BM100" s="104"/>
+      <c r="BN100" s="104"/>
+      <c r="BO100" s="104"/>
       <c r="BP100" s="4"/>
     </row>
     <row r="101" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A101" s="19"/>
-      <c r="B101" s="123"/>
-      <c r="C101" s="125"/>
-      <c r="D101" s="125"/>
-      <c r="E101" s="125"/>
-      <c r="F101" s="125"/>
-      <c r="G101" s="125"/>
-      <c r="H101" s="125"/>
-      <c r="I101" s="125"/>
-      <c r="J101" s="125"/>
-      <c r="K101" s="125"/>
-      <c r="L101" s="125"/>
-      <c r="M101" s="125"/>
-      <c r="N101" s="125"/>
-      <c r="O101" s="125"/>
-      <c r="P101" s="125"/>
-      <c r="Q101" s="125"/>
-      <c r="R101" s="124"/>
-      <c r="S101" s="124"/>
-      <c r="T101" s="124"/>
-      <c r="U101" s="124"/>
-      <c r="V101" s="124"/>
-      <c r="W101" s="124"/>
-      <c r="X101" s="124"/>
-      <c r="Y101" s="124"/>
-      <c r="Z101" s="124"/>
-      <c r="AA101" s="124"/>
-      <c r="AB101" s="124"/>
-      <c r="AC101" s="124"/>
-      <c r="AD101" s="124"/>
-      <c r="AE101" s="124"/>
-      <c r="AF101" s="124"/>
-      <c r="AG101" s="124"/>
-      <c r="AH101" s="124"/>
-      <c r="AI101" s="124"/>
-      <c r="AJ101" s="124"/>
-      <c r="AK101" s="124"/>
-      <c r="AL101" s="124"/>
-      <c r="AM101" s="124"/>
-      <c r="AN101" s="124"/>
-      <c r="AO101" s="124"/>
-      <c r="AP101" s="124"/>
-      <c r="AQ101" s="124" t="s">
+      <c r="B101" s="103"/>
+      <c r="C101" s="105"/>
+      <c r="D101" s="105"/>
+      <c r="E101" s="105"/>
+      <c r="F101" s="105"/>
+      <c r="G101" s="105"/>
+      <c r="H101" s="105"/>
+      <c r="I101" s="105"/>
+      <c r="J101" s="105"/>
+      <c r="K101" s="105"/>
+      <c r="L101" s="105"/>
+      <c r="M101" s="105"/>
+      <c r="N101" s="105"/>
+      <c r="O101" s="105"/>
+      <c r="P101" s="105"/>
+      <c r="Q101" s="105"/>
+      <c r="R101" s="104"/>
+      <c r="S101" s="104"/>
+      <c r="T101" s="104"/>
+      <c r="U101" s="104"/>
+      <c r="V101" s="104"/>
+      <c r="W101" s="104"/>
+      <c r="X101" s="104"/>
+      <c r="Y101" s="104"/>
+      <c r="Z101" s="104"/>
+      <c r="AA101" s="104"/>
+      <c r="AB101" s="104"/>
+      <c r="AC101" s="104"/>
+      <c r="AD101" s="104"/>
+      <c r="AE101" s="104"/>
+      <c r="AF101" s="104"/>
+      <c r="AG101" s="104"/>
+      <c r="AH101" s="104"/>
+      <c r="AI101" s="104"/>
+      <c r="AJ101" s="104"/>
+      <c r="AK101" s="104"/>
+      <c r="AL101" s="104"/>
+      <c r="AM101" s="104"/>
+      <c r="AN101" s="104"/>
+      <c r="AO101" s="104"/>
+      <c r="AP101" s="104"/>
+      <c r="AQ101" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="AR101" s="124"/>
-      <c r="AS101" s="124"/>
-      <c r="AT101" s="124"/>
-      <c r="AU101" s="124"/>
-      <c r="AV101" s="124"/>
-      <c r="AW101" s="124"/>
-      <c r="AX101" s="124" t="s">
+      <c r="AR101" s="104"/>
+      <c r="AS101" s="104"/>
+      <c r="AT101" s="104"/>
+      <c r="AU101" s="104"/>
+      <c r="AV101" s="104"/>
+      <c r="AW101" s="104"/>
+      <c r="AX101" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="AY101" s="124"/>
-      <c r="AZ101" s="124"/>
-      <c r="BA101" s="124"/>
-      <c r="BB101" s="124"/>
-      <c r="BC101" s="124" t="s">
+      <c r="AY101" s="104"/>
+      <c r="AZ101" s="104"/>
+      <c r="BA101" s="104"/>
+      <c r="BB101" s="104"/>
+      <c r="BC101" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="BD101" s="124"/>
-      <c r="BE101" s="124"/>
-      <c r="BF101" s="124"/>
-      <c r="BG101" s="124"/>
-      <c r="BH101" s="124"/>
-      <c r="BI101" s="124"/>
-      <c r="BJ101" s="124"/>
-      <c r="BK101" s="124"/>
-      <c r="BL101" s="124"/>
-      <c r="BM101" s="124"/>
-      <c r="BN101" s="124"/>
-      <c r="BO101" s="124"/>
+      <c r="BD101" s="104"/>
+      <c r="BE101" s="104"/>
+      <c r="BF101" s="104"/>
+      <c r="BG101" s="104"/>
+      <c r="BH101" s="104"/>
+      <c r="BI101" s="104"/>
+      <c r="BJ101" s="104"/>
+      <c r="BK101" s="104"/>
+      <c r="BL101" s="104"/>
+      <c r="BM101" s="104"/>
+      <c r="BN101" s="104"/>
+      <c r="BO101" s="104"/>
       <c r="BP101" s="4"/>
     </row>
     <row r="102" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
@@ -12097,85 +12097,85 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C102" s="99" t="s">
+      <c r="C102" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="D102" s="100"/>
-      <c r="E102" s="100"/>
-      <c r="F102" s="100"/>
-      <c r="G102" s="100"/>
-      <c r="H102" s="100"/>
-      <c r="I102" s="122"/>
-      <c r="J102" s="106" t="s">
+      <c r="D102" s="95"/>
+      <c r="E102" s="95"/>
+      <c r="F102" s="95"/>
+      <c r="G102" s="95"/>
+      <c r="H102" s="95"/>
+      <c r="I102" s="96"/>
+      <c r="J102" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="K102" s="100"/>
-      <c r="L102" s="100"/>
-      <c r="M102" s="100"/>
-      <c r="N102" s="100"/>
-      <c r="O102" s="100"/>
-      <c r="P102" s="100"/>
-      <c r="Q102" s="101"/>
-      <c r="R102" s="79" t="s">
+      <c r="K102" s="95"/>
+      <c r="L102" s="95"/>
+      <c r="M102" s="95"/>
+      <c r="N102" s="95"/>
+      <c r="O102" s="95"/>
+      <c r="P102" s="95"/>
+      <c r="Q102" s="98"/>
+      <c r="R102" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="S102" s="79"/>
-      <c r="T102" s="79"/>
-      <c r="U102" s="79"/>
-      <c r="V102" s="79"/>
-      <c r="W102" s="79"/>
-      <c r="X102" s="79"/>
-      <c r="Y102" s="79"/>
-      <c r="Z102" s="79"/>
-      <c r="AA102" s="79"/>
-      <c r="AB102" s="79"/>
-      <c r="AC102" s="79"/>
-      <c r="AD102" s="79"/>
-      <c r="AE102" s="79"/>
-      <c r="AF102" s="79"/>
-      <c r="AG102" s="79"/>
-      <c r="AH102" s="79"/>
-      <c r="AI102" s="88" t="s">
+      <c r="S102" s="99"/>
+      <c r="T102" s="99"/>
+      <c r="U102" s="99"/>
+      <c r="V102" s="99"/>
+      <c r="W102" s="99"/>
+      <c r="X102" s="99"/>
+      <c r="Y102" s="99"/>
+      <c r="Z102" s="99"/>
+      <c r="AA102" s="99"/>
+      <c r="AB102" s="99"/>
+      <c r="AC102" s="99"/>
+      <c r="AD102" s="99"/>
+      <c r="AE102" s="99"/>
+      <c r="AF102" s="99"/>
+      <c r="AG102" s="99"/>
+      <c r="AH102" s="99"/>
+      <c r="AI102" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="AJ102" s="89"/>
-      <c r="AK102" s="89"/>
-      <c r="AL102" s="89"/>
-      <c r="AM102" s="89"/>
-      <c r="AN102" s="89"/>
-      <c r="AO102" s="89"/>
-      <c r="AP102" s="90"/>
-      <c r="AQ102" s="83" t="s">
+      <c r="AJ102" s="101"/>
+      <c r="AK102" s="101"/>
+      <c r="AL102" s="101"/>
+      <c r="AM102" s="101"/>
+      <c r="AN102" s="101"/>
+      <c r="AO102" s="101"/>
+      <c r="AP102" s="102"/>
+      <c r="AQ102" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="AR102" s="83"/>
-      <c r="AS102" s="83"/>
-      <c r="AT102" s="83"/>
-      <c r="AU102" s="83"/>
-      <c r="AV102" s="83"/>
-      <c r="AW102" s="83"/>
-      <c r="AX102" s="83" t="s">
+      <c r="AR102" s="75"/>
+      <c r="AS102" s="75"/>
+      <c r="AT102" s="75"/>
+      <c r="AU102" s="75"/>
+      <c r="AV102" s="75"/>
+      <c r="AW102" s="75"/>
+      <c r="AX102" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AY102" s="83"/>
-      <c r="AZ102" s="83"/>
-      <c r="BA102" s="83"/>
-      <c r="BB102" s="83"/>
-      <c r="BC102" s="84" t="s">
+      <c r="AY102" s="75"/>
+      <c r="AZ102" s="75"/>
+      <c r="BA102" s="75"/>
+      <c r="BB102" s="75"/>
+      <c r="BC102" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="BD102" s="84"/>
-      <c r="BE102" s="84"/>
-      <c r="BF102" s="84"/>
-      <c r="BG102" s="84"/>
-      <c r="BH102" s="84"/>
-      <c r="BI102" s="84"/>
-      <c r="BJ102" s="84"/>
-      <c r="BK102" s="84"/>
-      <c r="BL102" s="84"/>
-      <c r="BM102" s="84"/>
-      <c r="BN102" s="84"/>
-      <c r="BO102" s="84"/>
+      <c r="BD102" s="76"/>
+      <c r="BE102" s="76"/>
+      <c r="BF102" s="76"/>
+      <c r="BG102" s="76"/>
+      <c r="BH102" s="76"/>
+      <c r="BI102" s="76"/>
+      <c r="BJ102" s="76"/>
+      <c r="BK102" s="76"/>
+      <c r="BL102" s="76"/>
+      <c r="BM102" s="76"/>
+      <c r="BN102" s="76"/>
+      <c r="BO102" s="76"/>
       <c r="BP102" s="4"/>
     </row>
     <row r="103" spans="1:68" s="59" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
@@ -12184,85 +12184,85 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C103" s="99" t="s">
+      <c r="C103" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="D103" s="100"/>
-      <c r="E103" s="100"/>
-      <c r="F103" s="100"/>
-      <c r="G103" s="100"/>
-      <c r="H103" s="100"/>
-      <c r="I103" s="101"/>
-      <c r="J103" s="120" t="s">
+      <c r="D103" s="95"/>
+      <c r="E103" s="95"/>
+      <c r="F103" s="95"/>
+      <c r="G103" s="95"/>
+      <c r="H103" s="95"/>
+      <c r="I103" s="98"/>
+      <c r="J103" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="K103" s="120"/>
-      <c r="L103" s="120"/>
-      <c r="M103" s="120"/>
-      <c r="N103" s="120"/>
-      <c r="O103" s="120"/>
-      <c r="P103" s="120"/>
-      <c r="Q103" s="121"/>
-      <c r="R103" s="100" t="s">
+      <c r="K103" s="106"/>
+      <c r="L103" s="106"/>
+      <c r="M103" s="106"/>
+      <c r="N103" s="106"/>
+      <c r="O103" s="106"/>
+      <c r="P103" s="106"/>
+      <c r="Q103" s="107"/>
+      <c r="R103" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="S103" s="100"/>
-      <c r="T103" s="100"/>
-      <c r="U103" s="100"/>
-      <c r="V103" s="100"/>
-      <c r="W103" s="100"/>
-      <c r="X103" s="100"/>
-      <c r="Y103" s="100"/>
-      <c r="Z103" s="100"/>
-      <c r="AA103" s="100"/>
-      <c r="AB103" s="100"/>
-      <c r="AC103" s="100"/>
-      <c r="AD103" s="100"/>
-      <c r="AE103" s="100"/>
-      <c r="AF103" s="100"/>
-      <c r="AG103" s="100"/>
-      <c r="AH103" s="101"/>
-      <c r="AI103" s="121" t="s">
+      <c r="S103" s="95"/>
+      <c r="T103" s="95"/>
+      <c r="U103" s="95"/>
+      <c r="V103" s="95"/>
+      <c r="W103" s="95"/>
+      <c r="X103" s="95"/>
+      <c r="Y103" s="95"/>
+      <c r="Z103" s="95"/>
+      <c r="AA103" s="95"/>
+      <c r="AB103" s="95"/>
+      <c r="AC103" s="95"/>
+      <c r="AD103" s="95"/>
+      <c r="AE103" s="95"/>
+      <c r="AF103" s="95"/>
+      <c r="AG103" s="95"/>
+      <c r="AH103" s="98"/>
+      <c r="AI103" s="107" t="s">
         <v>146</v>
       </c>
-      <c r="AJ103" s="94"/>
-      <c r="AK103" s="94"/>
-      <c r="AL103" s="94"/>
-      <c r="AM103" s="94"/>
-      <c r="AN103" s="94"/>
-      <c r="AO103" s="94"/>
-      <c r="AP103" s="94"/>
-      <c r="AQ103" s="83" t="s">
+      <c r="AJ103" s="108"/>
+      <c r="AK103" s="108"/>
+      <c r="AL103" s="108"/>
+      <c r="AM103" s="108"/>
+      <c r="AN103" s="108"/>
+      <c r="AO103" s="108"/>
+      <c r="AP103" s="108"/>
+      <c r="AQ103" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="AR103" s="83"/>
-      <c r="AS103" s="83"/>
-      <c r="AT103" s="83"/>
-      <c r="AU103" s="83"/>
-      <c r="AV103" s="83"/>
-      <c r="AW103" s="83"/>
-      <c r="AX103" s="83" t="s">
+      <c r="AR103" s="75"/>
+      <c r="AS103" s="75"/>
+      <c r="AT103" s="75"/>
+      <c r="AU103" s="75"/>
+      <c r="AV103" s="75"/>
+      <c r="AW103" s="75"/>
+      <c r="AX103" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AY103" s="83"/>
-      <c r="AZ103" s="83"/>
-      <c r="BA103" s="83"/>
-      <c r="BB103" s="83"/>
-      <c r="BC103" s="84" t="s">
+      <c r="AY103" s="75"/>
+      <c r="AZ103" s="75"/>
+      <c r="BA103" s="75"/>
+      <c r="BB103" s="75"/>
+      <c r="BC103" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="BD103" s="84"/>
-      <c r="BE103" s="84"/>
-      <c r="BF103" s="84"/>
-      <c r="BG103" s="84"/>
-      <c r="BH103" s="84"/>
-      <c r="BI103" s="84"/>
-      <c r="BJ103" s="84"/>
-      <c r="BK103" s="84"/>
-      <c r="BL103" s="84"/>
-      <c r="BM103" s="84"/>
-      <c r="BN103" s="84"/>
-      <c r="BO103" s="84"/>
+      <c r="BD103" s="76"/>
+      <c r="BE103" s="76"/>
+      <c r="BF103" s="76"/>
+      <c r="BG103" s="76"/>
+      <c r="BH103" s="76"/>
+      <c r="BI103" s="76"/>
+      <c r="BJ103" s="76"/>
+      <c r="BK103" s="76"/>
+      <c r="BL103" s="76"/>
+      <c r="BM103" s="76"/>
+      <c r="BN103" s="76"/>
+      <c r="BO103" s="76"/>
       <c r="BP103" s="4"/>
     </row>
     <row r="104" spans="1:68" s="59" customFormat="1" ht="51" customHeight="1" outlineLevel="1">
@@ -12271,79 +12271,79 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C104" s="85"/>
-      <c r="D104" s="86"/>
-      <c r="E104" s="86"/>
-      <c r="F104" s="86"/>
-      <c r="G104" s="86"/>
-      <c r="H104" s="86"/>
-      <c r="I104" s="87"/>
-      <c r="J104" s="117"/>
-      <c r="K104" s="117"/>
-      <c r="L104" s="117"/>
-      <c r="M104" s="117"/>
-      <c r="N104" s="117"/>
-      <c r="O104" s="117"/>
-      <c r="P104" s="117"/>
-      <c r="Q104" s="118"/>
-      <c r="R104" s="86"/>
-      <c r="S104" s="86"/>
-      <c r="T104" s="86"/>
-      <c r="U104" s="86"/>
-      <c r="V104" s="86"/>
-      <c r="W104" s="86"/>
-      <c r="X104" s="86"/>
-      <c r="Y104" s="86"/>
-      <c r="Z104" s="86"/>
-      <c r="AA104" s="86"/>
-      <c r="AB104" s="86"/>
-      <c r="AC104" s="86"/>
-      <c r="AD104" s="86"/>
-      <c r="AE104" s="86"/>
-      <c r="AF104" s="86"/>
-      <c r="AG104" s="86"/>
-      <c r="AH104" s="87"/>
-      <c r="AI104" s="120" t="s">
+      <c r="C104" s="109"/>
+      <c r="D104" s="110"/>
+      <c r="E104" s="110"/>
+      <c r="F104" s="110"/>
+      <c r="G104" s="110"/>
+      <c r="H104" s="110"/>
+      <c r="I104" s="111"/>
+      <c r="J104" s="90"/>
+      <c r="K104" s="90"/>
+      <c r="L104" s="90"/>
+      <c r="M104" s="90"/>
+      <c r="N104" s="90"/>
+      <c r="O104" s="90"/>
+      <c r="P104" s="90"/>
+      <c r="Q104" s="112"/>
+      <c r="R104" s="110"/>
+      <c r="S104" s="110"/>
+      <c r="T104" s="110"/>
+      <c r="U104" s="110"/>
+      <c r="V104" s="110"/>
+      <c r="W104" s="110"/>
+      <c r="X104" s="110"/>
+      <c r="Y104" s="110"/>
+      <c r="Z104" s="110"/>
+      <c r="AA104" s="110"/>
+      <c r="AB104" s="110"/>
+      <c r="AC104" s="110"/>
+      <c r="AD104" s="110"/>
+      <c r="AE104" s="110"/>
+      <c r="AF104" s="110"/>
+      <c r="AG104" s="110"/>
+      <c r="AH104" s="111"/>
+      <c r="AI104" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="AJ104" s="120"/>
-      <c r="AK104" s="120"/>
-      <c r="AL104" s="120"/>
-      <c r="AM104" s="120"/>
-      <c r="AN104" s="120"/>
-      <c r="AO104" s="120"/>
-      <c r="AP104" s="121"/>
-      <c r="AQ104" s="119" t="s">
+      <c r="AJ104" s="106"/>
+      <c r="AK104" s="106"/>
+      <c r="AL104" s="106"/>
+      <c r="AM104" s="106"/>
+      <c r="AN104" s="106"/>
+      <c r="AO104" s="106"/>
+      <c r="AP104" s="107"/>
+      <c r="AQ104" s="113" t="s">
         <v>151</v>
       </c>
-      <c r="AR104" s="83"/>
-      <c r="AS104" s="83"/>
-      <c r="AT104" s="83"/>
-      <c r="AU104" s="83"/>
-      <c r="AV104" s="83"/>
-      <c r="AW104" s="83"/>
-      <c r="AX104" s="83" t="s">
+      <c r="AR104" s="75"/>
+      <c r="AS104" s="75"/>
+      <c r="AT104" s="75"/>
+      <c r="AU104" s="75"/>
+      <c r="AV104" s="75"/>
+      <c r="AW104" s="75"/>
+      <c r="AX104" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AY104" s="83"/>
-      <c r="AZ104" s="83"/>
-      <c r="BA104" s="83"/>
-      <c r="BB104" s="83"/>
-      <c r="BC104" s="84" t="s">
+      <c r="AY104" s="75"/>
+      <c r="AZ104" s="75"/>
+      <c r="BA104" s="75"/>
+      <c r="BB104" s="75"/>
+      <c r="BC104" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="BD104" s="84"/>
-      <c r="BE104" s="84"/>
-      <c r="BF104" s="84"/>
-      <c r="BG104" s="84"/>
-      <c r="BH104" s="84"/>
-      <c r="BI104" s="84"/>
-      <c r="BJ104" s="84"/>
-      <c r="BK104" s="84"/>
-      <c r="BL104" s="84"/>
-      <c r="BM104" s="84"/>
-      <c r="BN104" s="84"/>
-      <c r="BO104" s="84"/>
+      <c r="BD104" s="76"/>
+      <c r="BE104" s="76"/>
+      <c r="BF104" s="76"/>
+      <c r="BG104" s="76"/>
+      <c r="BH104" s="76"/>
+      <c r="BI104" s="76"/>
+      <c r="BJ104" s="76"/>
+      <c r="BK104" s="76"/>
+      <c r="BL104" s="76"/>
+      <c r="BM104" s="76"/>
+      <c r="BN104" s="76"/>
+      <c r="BO104" s="76"/>
       <c r="BP104" s="4"/>
     </row>
     <row r="105" spans="1:68" s="59" customFormat="1" ht="51" customHeight="1" outlineLevel="1">
@@ -12352,77 +12352,77 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C105" s="85"/>
-      <c r="D105" s="86"/>
-      <c r="E105" s="86"/>
-      <c r="F105" s="86"/>
-      <c r="G105" s="86"/>
-      <c r="H105" s="86"/>
-      <c r="I105" s="87"/>
-      <c r="J105" s="117"/>
-      <c r="K105" s="117"/>
-      <c r="L105" s="117"/>
-      <c r="M105" s="117"/>
-      <c r="N105" s="117"/>
-      <c r="O105" s="117"/>
-      <c r="P105" s="117"/>
-      <c r="Q105" s="118"/>
-      <c r="R105" s="86"/>
-      <c r="S105" s="86"/>
-      <c r="T105" s="86"/>
-      <c r="U105" s="86"/>
-      <c r="V105" s="86"/>
-      <c r="W105" s="86"/>
-      <c r="X105" s="86"/>
-      <c r="Y105" s="86"/>
-      <c r="Z105" s="86"/>
-      <c r="AA105" s="86"/>
-      <c r="AB105" s="86"/>
-      <c r="AC105" s="86"/>
-      <c r="AD105" s="86"/>
-      <c r="AE105" s="86"/>
-      <c r="AF105" s="86"/>
-      <c r="AG105" s="86"/>
-      <c r="AH105" s="87"/>
-      <c r="AI105" s="117"/>
-      <c r="AJ105" s="117"/>
-      <c r="AK105" s="117"/>
-      <c r="AL105" s="117"/>
-      <c r="AM105" s="117"/>
-      <c r="AN105" s="117"/>
-      <c r="AO105" s="117"/>
-      <c r="AP105" s="118"/>
-      <c r="AQ105" s="119" t="s">
+      <c r="C105" s="109"/>
+      <c r="D105" s="110"/>
+      <c r="E105" s="110"/>
+      <c r="F105" s="110"/>
+      <c r="G105" s="110"/>
+      <c r="H105" s="110"/>
+      <c r="I105" s="111"/>
+      <c r="J105" s="90"/>
+      <c r="K105" s="90"/>
+      <c r="L105" s="90"/>
+      <c r="M105" s="90"/>
+      <c r="N105" s="90"/>
+      <c r="O105" s="90"/>
+      <c r="P105" s="90"/>
+      <c r="Q105" s="112"/>
+      <c r="R105" s="110"/>
+      <c r="S105" s="110"/>
+      <c r="T105" s="110"/>
+      <c r="U105" s="110"/>
+      <c r="V105" s="110"/>
+      <c r="W105" s="110"/>
+      <c r="X105" s="110"/>
+      <c r="Y105" s="110"/>
+      <c r="Z105" s="110"/>
+      <c r="AA105" s="110"/>
+      <c r="AB105" s="110"/>
+      <c r="AC105" s="110"/>
+      <c r="AD105" s="110"/>
+      <c r="AE105" s="110"/>
+      <c r="AF105" s="110"/>
+      <c r="AG105" s="110"/>
+      <c r="AH105" s="111"/>
+      <c r="AI105" s="90"/>
+      <c r="AJ105" s="90"/>
+      <c r="AK105" s="90"/>
+      <c r="AL105" s="90"/>
+      <c r="AM105" s="90"/>
+      <c r="AN105" s="90"/>
+      <c r="AO105" s="90"/>
+      <c r="AP105" s="112"/>
+      <c r="AQ105" s="113" t="s">
         <v>154</v>
       </c>
-      <c r="AR105" s="83"/>
-      <c r="AS105" s="83"/>
-      <c r="AT105" s="83"/>
-      <c r="AU105" s="83"/>
-      <c r="AV105" s="83"/>
-      <c r="AW105" s="83"/>
-      <c r="AX105" s="83" t="s">
+      <c r="AR105" s="75"/>
+      <c r="AS105" s="75"/>
+      <c r="AT105" s="75"/>
+      <c r="AU105" s="75"/>
+      <c r="AV105" s="75"/>
+      <c r="AW105" s="75"/>
+      <c r="AX105" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AY105" s="83"/>
-      <c r="AZ105" s="83"/>
-      <c r="BA105" s="83"/>
-      <c r="BB105" s="83"/>
-      <c r="BC105" s="84" t="s">
+      <c r="AY105" s="75"/>
+      <c r="AZ105" s="75"/>
+      <c r="BA105" s="75"/>
+      <c r="BB105" s="75"/>
+      <c r="BC105" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="BD105" s="84"/>
-      <c r="BE105" s="84"/>
-      <c r="BF105" s="84"/>
-      <c r="BG105" s="84"/>
-      <c r="BH105" s="84"/>
-      <c r="BI105" s="84"/>
-      <c r="BJ105" s="84"/>
-      <c r="BK105" s="84"/>
-      <c r="BL105" s="84"/>
-      <c r="BM105" s="84"/>
-      <c r="BN105" s="84"/>
-      <c r="BO105" s="84"/>
+      <c r="BD105" s="76"/>
+      <c r="BE105" s="76"/>
+      <c r="BF105" s="76"/>
+      <c r="BG105" s="76"/>
+      <c r="BH105" s="76"/>
+      <c r="BI105" s="76"/>
+      <c r="BJ105" s="76"/>
+      <c r="BK105" s="76"/>
+      <c r="BL105" s="76"/>
+      <c r="BM105" s="76"/>
+      <c r="BN105" s="76"/>
+      <c r="BO105" s="76"/>
       <c r="BP105" s="4"/>
     </row>
     <row r="106" spans="1:68" s="59" customFormat="1" ht="51" customHeight="1" outlineLevel="1">
@@ -12431,77 +12431,77 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C106" s="85"/>
-      <c r="D106" s="86"/>
-      <c r="E106" s="86"/>
-      <c r="F106" s="86"/>
-      <c r="G106" s="86"/>
-      <c r="H106" s="86"/>
-      <c r="I106" s="87"/>
-      <c r="J106" s="117"/>
-      <c r="K106" s="117"/>
-      <c r="L106" s="117"/>
-      <c r="M106" s="117"/>
-      <c r="N106" s="117"/>
-      <c r="O106" s="117"/>
-      <c r="P106" s="117"/>
-      <c r="Q106" s="118"/>
-      <c r="R106" s="86"/>
-      <c r="S106" s="86"/>
-      <c r="T106" s="86"/>
-      <c r="U106" s="86"/>
-      <c r="V106" s="86"/>
-      <c r="W106" s="86"/>
-      <c r="X106" s="86"/>
-      <c r="Y106" s="86"/>
-      <c r="Z106" s="86"/>
-      <c r="AA106" s="86"/>
-      <c r="AB106" s="86"/>
-      <c r="AC106" s="86"/>
-      <c r="AD106" s="86"/>
-      <c r="AE106" s="86"/>
-      <c r="AF106" s="86"/>
-      <c r="AG106" s="86"/>
-      <c r="AH106" s="87"/>
-      <c r="AI106" s="113"/>
-      <c r="AJ106" s="113"/>
-      <c r="AK106" s="113"/>
-      <c r="AL106" s="113"/>
-      <c r="AM106" s="113"/>
-      <c r="AN106" s="113"/>
-      <c r="AO106" s="113"/>
-      <c r="AP106" s="114"/>
-      <c r="AQ106" s="119" t="s">
+      <c r="C106" s="109"/>
+      <c r="D106" s="110"/>
+      <c r="E106" s="110"/>
+      <c r="F106" s="110"/>
+      <c r="G106" s="110"/>
+      <c r="H106" s="110"/>
+      <c r="I106" s="111"/>
+      <c r="J106" s="90"/>
+      <c r="K106" s="90"/>
+      <c r="L106" s="90"/>
+      <c r="M106" s="90"/>
+      <c r="N106" s="90"/>
+      <c r="O106" s="90"/>
+      <c r="P106" s="90"/>
+      <c r="Q106" s="112"/>
+      <c r="R106" s="110"/>
+      <c r="S106" s="110"/>
+      <c r="T106" s="110"/>
+      <c r="U106" s="110"/>
+      <c r="V106" s="110"/>
+      <c r="W106" s="110"/>
+      <c r="X106" s="110"/>
+      <c r="Y106" s="110"/>
+      <c r="Z106" s="110"/>
+      <c r="AA106" s="110"/>
+      <c r="AB106" s="110"/>
+      <c r="AC106" s="110"/>
+      <c r="AD106" s="110"/>
+      <c r="AE106" s="110"/>
+      <c r="AF106" s="110"/>
+      <c r="AG106" s="110"/>
+      <c r="AH106" s="111"/>
+      <c r="AI106" s="114"/>
+      <c r="AJ106" s="114"/>
+      <c r="AK106" s="114"/>
+      <c r="AL106" s="114"/>
+      <c r="AM106" s="114"/>
+      <c r="AN106" s="114"/>
+      <c r="AO106" s="114"/>
+      <c r="AP106" s="115"/>
+      <c r="AQ106" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="AR106" s="83"/>
-      <c r="AS106" s="83"/>
-      <c r="AT106" s="83"/>
-      <c r="AU106" s="83"/>
-      <c r="AV106" s="83"/>
-      <c r="AW106" s="83"/>
-      <c r="AX106" s="83" t="s">
+      <c r="AR106" s="75"/>
+      <c r="AS106" s="75"/>
+      <c r="AT106" s="75"/>
+      <c r="AU106" s="75"/>
+      <c r="AV106" s="75"/>
+      <c r="AW106" s="75"/>
+      <c r="AX106" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AY106" s="83"/>
-      <c r="AZ106" s="83"/>
-      <c r="BA106" s="83"/>
-      <c r="BB106" s="83"/>
-      <c r="BC106" s="84" t="s">
+      <c r="AY106" s="75"/>
+      <c r="AZ106" s="75"/>
+      <c r="BA106" s="75"/>
+      <c r="BB106" s="75"/>
+      <c r="BC106" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="BD106" s="84"/>
-      <c r="BE106" s="84"/>
-      <c r="BF106" s="84"/>
-      <c r="BG106" s="84"/>
-      <c r="BH106" s="84"/>
-      <c r="BI106" s="84"/>
-      <c r="BJ106" s="84"/>
-      <c r="BK106" s="84"/>
-      <c r="BL106" s="84"/>
-      <c r="BM106" s="84"/>
-      <c r="BN106" s="84"/>
-      <c r="BO106" s="84"/>
+      <c r="BD106" s="76"/>
+      <c r="BE106" s="76"/>
+      <c r="BF106" s="76"/>
+      <c r="BG106" s="76"/>
+      <c r="BH106" s="76"/>
+      <c r="BI106" s="76"/>
+      <c r="BJ106" s="76"/>
+      <c r="BK106" s="76"/>
+      <c r="BL106" s="76"/>
+      <c r="BM106" s="76"/>
+      <c r="BN106" s="76"/>
+      <c r="BO106" s="76"/>
       <c r="BP106" s="4"/>
     </row>
     <row r="107" spans="1:68" s="59" customFormat="1" ht="34.5" customHeight="1" outlineLevel="1">
@@ -12510,79 +12510,79 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>6</v>
       </c>
-      <c r="C107" s="85"/>
-      <c r="D107" s="86"/>
-      <c r="E107" s="86"/>
-      <c r="F107" s="86"/>
-      <c r="G107" s="86"/>
-      <c r="H107" s="86"/>
-      <c r="I107" s="87"/>
-      <c r="J107" s="113"/>
-      <c r="K107" s="113"/>
-      <c r="L107" s="113"/>
-      <c r="M107" s="113"/>
-      <c r="N107" s="113"/>
-      <c r="O107" s="113"/>
-      <c r="P107" s="113"/>
-      <c r="Q107" s="114"/>
-      <c r="R107" s="92"/>
-      <c r="S107" s="92"/>
-      <c r="T107" s="92"/>
-      <c r="U107" s="92"/>
-      <c r="V107" s="92"/>
-      <c r="W107" s="92"/>
-      <c r="X107" s="92"/>
-      <c r="Y107" s="92"/>
-      <c r="Z107" s="92"/>
-      <c r="AA107" s="92"/>
-      <c r="AB107" s="92"/>
-      <c r="AC107" s="92"/>
-      <c r="AD107" s="92"/>
-      <c r="AE107" s="92"/>
-      <c r="AF107" s="92"/>
-      <c r="AG107" s="92"/>
-      <c r="AH107" s="93"/>
-      <c r="AI107" s="114" t="s">
+      <c r="C107" s="109"/>
+      <c r="D107" s="110"/>
+      <c r="E107" s="110"/>
+      <c r="F107" s="110"/>
+      <c r="G107" s="110"/>
+      <c r="H107" s="110"/>
+      <c r="I107" s="111"/>
+      <c r="J107" s="114"/>
+      <c r="K107" s="114"/>
+      <c r="L107" s="114"/>
+      <c r="M107" s="114"/>
+      <c r="N107" s="114"/>
+      <c r="O107" s="114"/>
+      <c r="P107" s="114"/>
+      <c r="Q107" s="115"/>
+      <c r="R107" s="116"/>
+      <c r="S107" s="116"/>
+      <c r="T107" s="116"/>
+      <c r="U107" s="116"/>
+      <c r="V107" s="116"/>
+      <c r="W107" s="116"/>
+      <c r="X107" s="116"/>
+      <c r="Y107" s="116"/>
+      <c r="Z107" s="116"/>
+      <c r="AA107" s="116"/>
+      <c r="AB107" s="116"/>
+      <c r="AC107" s="116"/>
+      <c r="AD107" s="116"/>
+      <c r="AE107" s="116"/>
+      <c r="AF107" s="116"/>
+      <c r="AG107" s="116"/>
+      <c r="AH107" s="117"/>
+      <c r="AI107" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="AJ107" s="115"/>
-      <c r="AK107" s="115"/>
-      <c r="AL107" s="115"/>
-      <c r="AM107" s="115"/>
-      <c r="AN107" s="115"/>
-      <c r="AO107" s="115"/>
-      <c r="AP107" s="115"/>
-      <c r="AQ107" s="83" t="s">
+      <c r="AJ107" s="118"/>
+      <c r="AK107" s="118"/>
+      <c r="AL107" s="118"/>
+      <c r="AM107" s="118"/>
+      <c r="AN107" s="118"/>
+      <c r="AO107" s="118"/>
+      <c r="AP107" s="118"/>
+      <c r="AQ107" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="AR107" s="83"/>
-      <c r="AS107" s="83"/>
-      <c r="AT107" s="83"/>
-      <c r="AU107" s="83"/>
-      <c r="AV107" s="83"/>
-      <c r="AW107" s="83"/>
-      <c r="AX107" s="83" t="s">
+      <c r="AR107" s="75"/>
+      <c r="AS107" s="75"/>
+      <c r="AT107" s="75"/>
+      <c r="AU107" s="75"/>
+      <c r="AV107" s="75"/>
+      <c r="AW107" s="75"/>
+      <c r="AX107" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AY107" s="83"/>
-      <c r="AZ107" s="83"/>
-      <c r="BA107" s="83"/>
-      <c r="BB107" s="83"/>
-      <c r="BC107" s="84" t="s">
+      <c r="AY107" s="75"/>
+      <c r="AZ107" s="75"/>
+      <c r="BA107" s="75"/>
+      <c r="BB107" s="75"/>
+      <c r="BC107" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="BD107" s="84"/>
-      <c r="BE107" s="84"/>
-      <c r="BF107" s="84"/>
-      <c r="BG107" s="84"/>
-      <c r="BH107" s="84"/>
-      <c r="BI107" s="84"/>
-      <c r="BJ107" s="84"/>
-      <c r="BK107" s="84"/>
-      <c r="BL107" s="84"/>
-      <c r="BM107" s="84"/>
-      <c r="BN107" s="84"/>
-      <c r="BO107" s="84"/>
+      <c r="BD107" s="76"/>
+      <c r="BE107" s="76"/>
+      <c r="BF107" s="76"/>
+      <c r="BG107" s="76"/>
+      <c r="BH107" s="76"/>
+      <c r="BI107" s="76"/>
+      <c r="BJ107" s="76"/>
+      <c r="BK107" s="76"/>
+      <c r="BL107" s="76"/>
+      <c r="BM107" s="76"/>
+      <c r="BN107" s="76"/>
+      <c r="BO107" s="76"/>
       <c r="BP107" s="4"/>
     </row>
     <row r="108" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
@@ -12591,83 +12591,83 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>7</v>
       </c>
-      <c r="C108" s="85"/>
-      <c r="D108" s="86"/>
-      <c r="E108" s="86"/>
-      <c r="F108" s="86"/>
-      <c r="G108" s="86"/>
-      <c r="H108" s="86"/>
-      <c r="I108" s="87"/>
-      <c r="J108" s="77" t="s">
+      <c r="C108" s="109"/>
+      <c r="D108" s="110"/>
+      <c r="E108" s="110"/>
+      <c r="F108" s="110"/>
+      <c r="G108" s="110"/>
+      <c r="H108" s="110"/>
+      <c r="I108" s="111"/>
+      <c r="J108" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="K108" s="77"/>
-      <c r="L108" s="77"/>
-      <c r="M108" s="77"/>
-      <c r="N108" s="77"/>
-      <c r="O108" s="77"/>
-      <c r="P108" s="77"/>
-      <c r="Q108" s="78"/>
-      <c r="R108" s="116" t="s">
+      <c r="K108" s="119"/>
+      <c r="L108" s="119"/>
+      <c r="M108" s="119"/>
+      <c r="N108" s="119"/>
+      <c r="O108" s="119"/>
+      <c r="P108" s="119"/>
+      <c r="Q108" s="120"/>
+      <c r="R108" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="S108" s="116"/>
-      <c r="T108" s="116"/>
-      <c r="U108" s="116"/>
-      <c r="V108" s="116"/>
-      <c r="W108" s="116"/>
-      <c r="X108" s="116"/>
-      <c r="Y108" s="116"/>
-      <c r="Z108" s="116"/>
-      <c r="AA108" s="116"/>
-      <c r="AB108" s="116"/>
-      <c r="AC108" s="116"/>
-      <c r="AD108" s="116"/>
-      <c r="AE108" s="116"/>
-      <c r="AF108" s="116"/>
-      <c r="AG108" s="116"/>
-      <c r="AH108" s="116"/>
-      <c r="AI108" s="88" t="s">
+      <c r="S108" s="121"/>
+      <c r="T108" s="121"/>
+      <c r="U108" s="121"/>
+      <c r="V108" s="121"/>
+      <c r="W108" s="121"/>
+      <c r="X108" s="121"/>
+      <c r="Y108" s="121"/>
+      <c r="Z108" s="121"/>
+      <c r="AA108" s="121"/>
+      <c r="AB108" s="121"/>
+      <c r="AC108" s="121"/>
+      <c r="AD108" s="121"/>
+      <c r="AE108" s="121"/>
+      <c r="AF108" s="121"/>
+      <c r="AG108" s="121"/>
+      <c r="AH108" s="121"/>
+      <c r="AI108" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="AJ108" s="89"/>
-      <c r="AK108" s="89"/>
-      <c r="AL108" s="89"/>
-      <c r="AM108" s="89"/>
-      <c r="AN108" s="89"/>
-      <c r="AO108" s="89"/>
-      <c r="AP108" s="90"/>
-      <c r="AQ108" s="83" t="s">
+      <c r="AJ108" s="101"/>
+      <c r="AK108" s="101"/>
+      <c r="AL108" s="101"/>
+      <c r="AM108" s="101"/>
+      <c r="AN108" s="101"/>
+      <c r="AO108" s="101"/>
+      <c r="AP108" s="102"/>
+      <c r="AQ108" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="AR108" s="83"/>
-      <c r="AS108" s="83"/>
-      <c r="AT108" s="83"/>
-      <c r="AU108" s="83"/>
-      <c r="AV108" s="83"/>
-      <c r="AW108" s="83"/>
-      <c r="AX108" s="83" t="s">
+      <c r="AR108" s="75"/>
+      <c r="AS108" s="75"/>
+      <c r="AT108" s="75"/>
+      <c r="AU108" s="75"/>
+      <c r="AV108" s="75"/>
+      <c r="AW108" s="75"/>
+      <c r="AX108" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AY108" s="83"/>
-      <c r="AZ108" s="83"/>
-      <c r="BA108" s="83"/>
-      <c r="BB108" s="83"/>
-      <c r="BC108" s="84" t="s">
+      <c r="AY108" s="75"/>
+      <c r="AZ108" s="75"/>
+      <c r="BA108" s="75"/>
+      <c r="BB108" s="75"/>
+      <c r="BC108" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="BD108" s="84"/>
-      <c r="BE108" s="84"/>
-      <c r="BF108" s="84"/>
-      <c r="BG108" s="84"/>
-      <c r="BH108" s="84"/>
-      <c r="BI108" s="84"/>
-      <c r="BJ108" s="84"/>
-      <c r="BK108" s="84"/>
-      <c r="BL108" s="84"/>
-      <c r="BM108" s="84"/>
-      <c r="BN108" s="84"/>
-      <c r="BO108" s="84"/>
+      <c r="BD108" s="76"/>
+      <c r="BE108" s="76"/>
+      <c r="BF108" s="76"/>
+      <c r="BG108" s="76"/>
+      <c r="BH108" s="76"/>
+      <c r="BI108" s="76"/>
+      <c r="BJ108" s="76"/>
+      <c r="BK108" s="76"/>
+      <c r="BL108" s="76"/>
+      <c r="BM108" s="76"/>
+      <c r="BN108" s="76"/>
+      <c r="BO108" s="76"/>
       <c r="BP108" s="4"/>
     </row>
     <row r="109" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
@@ -12676,83 +12676,83 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>8</v>
       </c>
-      <c r="C109" s="85"/>
-      <c r="D109" s="86"/>
-      <c r="E109" s="86"/>
-      <c r="F109" s="86"/>
-      <c r="G109" s="86"/>
-      <c r="H109" s="86"/>
-      <c r="I109" s="87"/>
-      <c r="J109" s="77" t="s">
+      <c r="C109" s="109"/>
+      <c r="D109" s="110"/>
+      <c r="E109" s="110"/>
+      <c r="F109" s="110"/>
+      <c r="G109" s="110"/>
+      <c r="H109" s="110"/>
+      <c r="I109" s="111"/>
+      <c r="J109" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="K109" s="77"/>
-      <c r="L109" s="77"/>
-      <c r="M109" s="77"/>
-      <c r="N109" s="77"/>
-      <c r="O109" s="77"/>
-      <c r="P109" s="77"/>
-      <c r="Q109" s="77"/>
-      <c r="R109" s="95" t="s">
+      <c r="K109" s="119"/>
+      <c r="L109" s="119"/>
+      <c r="M109" s="119"/>
+      <c r="N109" s="119"/>
+      <c r="O109" s="119"/>
+      <c r="P109" s="119"/>
+      <c r="Q109" s="119"/>
+      <c r="R109" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="S109" s="95"/>
-      <c r="T109" s="95"/>
-      <c r="U109" s="95"/>
-      <c r="V109" s="95"/>
-      <c r="W109" s="95"/>
-      <c r="X109" s="95"/>
-      <c r="Y109" s="95"/>
-      <c r="Z109" s="95"/>
-      <c r="AA109" s="95"/>
-      <c r="AB109" s="95"/>
-      <c r="AC109" s="95"/>
-      <c r="AD109" s="95"/>
-      <c r="AE109" s="95"/>
-      <c r="AF109" s="95"/>
-      <c r="AG109" s="95"/>
-      <c r="AH109" s="95"/>
-      <c r="AI109" s="88" t="s">
+      <c r="S109" s="122"/>
+      <c r="T109" s="122"/>
+      <c r="U109" s="122"/>
+      <c r="V109" s="122"/>
+      <c r="W109" s="122"/>
+      <c r="X109" s="122"/>
+      <c r="Y109" s="122"/>
+      <c r="Z109" s="122"/>
+      <c r="AA109" s="122"/>
+      <c r="AB109" s="122"/>
+      <c r="AC109" s="122"/>
+      <c r="AD109" s="122"/>
+      <c r="AE109" s="122"/>
+      <c r="AF109" s="122"/>
+      <c r="AG109" s="122"/>
+      <c r="AH109" s="122"/>
+      <c r="AI109" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="AJ109" s="89"/>
-      <c r="AK109" s="89"/>
-      <c r="AL109" s="89"/>
-      <c r="AM109" s="89"/>
-      <c r="AN109" s="89"/>
-      <c r="AO109" s="89"/>
-      <c r="AP109" s="90"/>
-      <c r="AQ109" s="83" t="s">
+      <c r="AJ109" s="101"/>
+      <c r="AK109" s="101"/>
+      <c r="AL109" s="101"/>
+      <c r="AM109" s="101"/>
+      <c r="AN109" s="101"/>
+      <c r="AO109" s="101"/>
+      <c r="AP109" s="102"/>
+      <c r="AQ109" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="AR109" s="83"/>
-      <c r="AS109" s="83"/>
-      <c r="AT109" s="83"/>
-      <c r="AU109" s="83"/>
-      <c r="AV109" s="83"/>
-      <c r="AW109" s="83"/>
-      <c r="AX109" s="83" t="s">
+      <c r="AR109" s="75"/>
+      <c r="AS109" s="75"/>
+      <c r="AT109" s="75"/>
+      <c r="AU109" s="75"/>
+      <c r="AV109" s="75"/>
+      <c r="AW109" s="75"/>
+      <c r="AX109" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AY109" s="83"/>
-      <c r="AZ109" s="83"/>
-      <c r="BA109" s="83"/>
-      <c r="BB109" s="83"/>
-      <c r="BC109" s="84" t="s">
+      <c r="AY109" s="75"/>
+      <c r="AZ109" s="75"/>
+      <c r="BA109" s="75"/>
+      <c r="BB109" s="75"/>
+      <c r="BC109" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="BD109" s="84"/>
-      <c r="BE109" s="84"/>
-      <c r="BF109" s="84"/>
-      <c r="BG109" s="84"/>
-      <c r="BH109" s="84"/>
-      <c r="BI109" s="84"/>
-      <c r="BJ109" s="84"/>
-      <c r="BK109" s="84"/>
-      <c r="BL109" s="84"/>
-      <c r="BM109" s="84"/>
-      <c r="BN109" s="84"/>
-      <c r="BO109" s="84"/>
+      <c r="BD109" s="76"/>
+      <c r="BE109" s="76"/>
+      <c r="BF109" s="76"/>
+      <c r="BG109" s="76"/>
+      <c r="BH109" s="76"/>
+      <c r="BI109" s="76"/>
+      <c r="BJ109" s="76"/>
+      <c r="BK109" s="76"/>
+      <c r="BL109" s="76"/>
+      <c r="BM109" s="76"/>
+      <c r="BN109" s="76"/>
+      <c r="BO109" s="76"/>
       <c r="BP109" s="4"/>
     </row>
     <row r="110" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
@@ -12761,83 +12761,83 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>9</v>
       </c>
-      <c r="C110" s="85"/>
-      <c r="D110" s="86"/>
-      <c r="E110" s="86"/>
-      <c r="F110" s="86"/>
-      <c r="G110" s="86"/>
-      <c r="H110" s="86"/>
-      <c r="I110" s="87"/>
-      <c r="J110" s="110" t="s">
+      <c r="C110" s="109"/>
+      <c r="D110" s="110"/>
+      <c r="E110" s="110"/>
+      <c r="F110" s="110"/>
+      <c r="G110" s="110"/>
+      <c r="H110" s="110"/>
+      <c r="I110" s="111"/>
+      <c r="J110" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="K110" s="111"/>
-      <c r="L110" s="111"/>
-      <c r="M110" s="111"/>
-      <c r="N110" s="111"/>
-      <c r="O110" s="111"/>
-      <c r="P110" s="111"/>
-      <c r="Q110" s="112"/>
-      <c r="R110" s="95" t="s">
+      <c r="K110" s="123"/>
+      <c r="L110" s="123"/>
+      <c r="M110" s="123"/>
+      <c r="N110" s="123"/>
+      <c r="O110" s="123"/>
+      <c r="P110" s="123"/>
+      <c r="Q110" s="124"/>
+      <c r="R110" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="S110" s="95"/>
-      <c r="T110" s="95"/>
-      <c r="U110" s="95"/>
-      <c r="V110" s="95"/>
-      <c r="W110" s="95"/>
-      <c r="X110" s="95"/>
-      <c r="Y110" s="95"/>
-      <c r="Z110" s="95"/>
-      <c r="AA110" s="95"/>
-      <c r="AB110" s="95"/>
-      <c r="AC110" s="95"/>
-      <c r="AD110" s="95"/>
-      <c r="AE110" s="95"/>
-      <c r="AF110" s="95"/>
-      <c r="AG110" s="95"/>
-      <c r="AH110" s="95"/>
-      <c r="AI110" s="88" t="s">
+      <c r="S110" s="122"/>
+      <c r="T110" s="122"/>
+      <c r="U110" s="122"/>
+      <c r="V110" s="122"/>
+      <c r="W110" s="122"/>
+      <c r="X110" s="122"/>
+      <c r="Y110" s="122"/>
+      <c r="Z110" s="122"/>
+      <c r="AA110" s="122"/>
+      <c r="AB110" s="122"/>
+      <c r="AC110" s="122"/>
+      <c r="AD110" s="122"/>
+      <c r="AE110" s="122"/>
+      <c r="AF110" s="122"/>
+      <c r="AG110" s="122"/>
+      <c r="AH110" s="122"/>
+      <c r="AI110" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="AJ110" s="89"/>
-      <c r="AK110" s="89"/>
-      <c r="AL110" s="89"/>
-      <c r="AM110" s="89"/>
-      <c r="AN110" s="89"/>
-      <c r="AO110" s="89"/>
-      <c r="AP110" s="90"/>
-      <c r="AQ110" s="83" t="s">
+      <c r="AJ110" s="101"/>
+      <c r="AK110" s="101"/>
+      <c r="AL110" s="101"/>
+      <c r="AM110" s="101"/>
+      <c r="AN110" s="101"/>
+      <c r="AO110" s="101"/>
+      <c r="AP110" s="102"/>
+      <c r="AQ110" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="AR110" s="83"/>
-      <c r="AS110" s="83"/>
-      <c r="AT110" s="83"/>
-      <c r="AU110" s="83"/>
-      <c r="AV110" s="83"/>
-      <c r="AW110" s="83"/>
-      <c r="AX110" s="83" t="s">
+      <c r="AR110" s="75"/>
+      <c r="AS110" s="75"/>
+      <c r="AT110" s="75"/>
+      <c r="AU110" s="75"/>
+      <c r="AV110" s="75"/>
+      <c r="AW110" s="75"/>
+      <c r="AX110" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AY110" s="83"/>
-      <c r="AZ110" s="83"/>
-      <c r="BA110" s="83"/>
-      <c r="BB110" s="83"/>
-      <c r="BC110" s="84" t="s">
+      <c r="AY110" s="75"/>
+      <c r="AZ110" s="75"/>
+      <c r="BA110" s="75"/>
+      <c r="BB110" s="75"/>
+      <c r="BC110" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="BD110" s="84"/>
-      <c r="BE110" s="84"/>
-      <c r="BF110" s="84"/>
-      <c r="BG110" s="84"/>
-      <c r="BH110" s="84"/>
-      <c r="BI110" s="84"/>
-      <c r="BJ110" s="84"/>
-      <c r="BK110" s="84"/>
-      <c r="BL110" s="84"/>
-      <c r="BM110" s="84"/>
-      <c r="BN110" s="84"/>
-      <c r="BO110" s="84"/>
+      <c r="BD110" s="76"/>
+      <c r="BE110" s="76"/>
+      <c r="BF110" s="76"/>
+      <c r="BG110" s="76"/>
+      <c r="BH110" s="76"/>
+      <c r="BI110" s="76"/>
+      <c r="BJ110" s="76"/>
+      <c r="BK110" s="76"/>
+      <c r="BL110" s="76"/>
+      <c r="BM110" s="76"/>
+      <c r="BN110" s="76"/>
+      <c r="BO110" s="76"/>
       <c r="BP110" s="4"/>
     </row>
     <row r="111" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
@@ -12846,83 +12846,83 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>10</v>
       </c>
-      <c r="C111" s="91"/>
-      <c r="D111" s="92"/>
-      <c r="E111" s="92"/>
-      <c r="F111" s="92"/>
-      <c r="G111" s="92"/>
-      <c r="H111" s="92"/>
-      <c r="I111" s="93"/>
-      <c r="J111" s="77" t="s">
+      <c r="C111" s="125"/>
+      <c r="D111" s="116"/>
+      <c r="E111" s="116"/>
+      <c r="F111" s="116"/>
+      <c r="G111" s="116"/>
+      <c r="H111" s="116"/>
+      <c r="I111" s="117"/>
+      <c r="J111" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="K111" s="77"/>
-      <c r="L111" s="77"/>
-      <c r="M111" s="77"/>
-      <c r="N111" s="77"/>
-      <c r="O111" s="77"/>
-      <c r="P111" s="77"/>
-      <c r="Q111" s="77"/>
-      <c r="R111" s="95" t="s">
+      <c r="K111" s="119"/>
+      <c r="L111" s="119"/>
+      <c r="M111" s="119"/>
+      <c r="N111" s="119"/>
+      <c r="O111" s="119"/>
+      <c r="P111" s="119"/>
+      <c r="Q111" s="119"/>
+      <c r="R111" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="S111" s="95"/>
-      <c r="T111" s="95"/>
-      <c r="U111" s="95"/>
-      <c r="V111" s="95"/>
-      <c r="W111" s="95"/>
-      <c r="X111" s="95"/>
-      <c r="Y111" s="95"/>
-      <c r="Z111" s="95"/>
-      <c r="AA111" s="95"/>
-      <c r="AB111" s="95"/>
-      <c r="AC111" s="95"/>
-      <c r="AD111" s="95"/>
-      <c r="AE111" s="95"/>
-      <c r="AF111" s="95"/>
-      <c r="AG111" s="95"/>
-      <c r="AH111" s="95"/>
-      <c r="AI111" s="88" t="s">
+      <c r="S111" s="122"/>
+      <c r="T111" s="122"/>
+      <c r="U111" s="122"/>
+      <c r="V111" s="122"/>
+      <c r="W111" s="122"/>
+      <c r="X111" s="122"/>
+      <c r="Y111" s="122"/>
+      <c r="Z111" s="122"/>
+      <c r="AA111" s="122"/>
+      <c r="AB111" s="122"/>
+      <c r="AC111" s="122"/>
+      <c r="AD111" s="122"/>
+      <c r="AE111" s="122"/>
+      <c r="AF111" s="122"/>
+      <c r="AG111" s="122"/>
+      <c r="AH111" s="122"/>
+      <c r="AI111" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="AJ111" s="89"/>
-      <c r="AK111" s="89"/>
-      <c r="AL111" s="89"/>
-      <c r="AM111" s="89"/>
-      <c r="AN111" s="89"/>
-      <c r="AO111" s="89"/>
-      <c r="AP111" s="90"/>
-      <c r="AQ111" s="83" t="s">
+      <c r="AJ111" s="101"/>
+      <c r="AK111" s="101"/>
+      <c r="AL111" s="101"/>
+      <c r="AM111" s="101"/>
+      <c r="AN111" s="101"/>
+      <c r="AO111" s="101"/>
+      <c r="AP111" s="102"/>
+      <c r="AQ111" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="AR111" s="83"/>
-      <c r="AS111" s="83"/>
-      <c r="AT111" s="83"/>
-      <c r="AU111" s="83"/>
-      <c r="AV111" s="83"/>
-      <c r="AW111" s="83"/>
-      <c r="AX111" s="83" t="s">
+      <c r="AR111" s="75"/>
+      <c r="AS111" s="75"/>
+      <c r="AT111" s="75"/>
+      <c r="AU111" s="75"/>
+      <c r="AV111" s="75"/>
+      <c r="AW111" s="75"/>
+      <c r="AX111" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AY111" s="83"/>
-      <c r="AZ111" s="83"/>
-      <c r="BA111" s="83"/>
-      <c r="BB111" s="83"/>
-      <c r="BC111" s="84" t="s">
+      <c r="AY111" s="75"/>
+      <c r="AZ111" s="75"/>
+      <c r="BA111" s="75"/>
+      <c r="BB111" s="75"/>
+      <c r="BC111" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="BD111" s="84"/>
-      <c r="BE111" s="84"/>
-      <c r="BF111" s="84"/>
-      <c r="BG111" s="84"/>
-      <c r="BH111" s="84"/>
-      <c r="BI111" s="84"/>
-      <c r="BJ111" s="84"/>
-      <c r="BK111" s="84"/>
-      <c r="BL111" s="84"/>
-      <c r="BM111" s="84"/>
-      <c r="BN111" s="84"/>
-      <c r="BO111" s="84"/>
+      <c r="BD111" s="76"/>
+      <c r="BE111" s="76"/>
+      <c r="BF111" s="76"/>
+      <c r="BG111" s="76"/>
+      <c r="BH111" s="76"/>
+      <c r="BI111" s="76"/>
+      <c r="BJ111" s="76"/>
+      <c r="BK111" s="76"/>
+      <c r="BL111" s="76"/>
+      <c r="BM111" s="76"/>
+      <c r="BN111" s="76"/>
+      <c r="BO111" s="76"/>
       <c r="BP111" s="4"/>
     </row>
     <row r="112" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
@@ -12931,85 +12931,85 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>11</v>
       </c>
-      <c r="C112" s="107" t="s">
+      <c r="C112" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="D112" s="89"/>
-      <c r="E112" s="89"/>
-      <c r="F112" s="89"/>
-      <c r="G112" s="89"/>
-      <c r="H112" s="89"/>
-      <c r="I112" s="90"/>
-      <c r="J112" s="108" t="s">
+      <c r="D112" s="101"/>
+      <c r="E112" s="101"/>
+      <c r="F112" s="101"/>
+      <c r="G112" s="101"/>
+      <c r="H112" s="101"/>
+      <c r="I112" s="102"/>
+      <c r="J112" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="K112" s="108"/>
-      <c r="L112" s="108"/>
-      <c r="M112" s="108"/>
-      <c r="N112" s="108"/>
-      <c r="O112" s="108"/>
-      <c r="P112" s="108"/>
-      <c r="Q112" s="109"/>
-      <c r="R112" s="95" t="s">
+      <c r="K112" s="127"/>
+      <c r="L112" s="127"/>
+      <c r="M112" s="127"/>
+      <c r="N112" s="127"/>
+      <c r="O112" s="127"/>
+      <c r="P112" s="127"/>
+      <c r="Q112" s="128"/>
+      <c r="R112" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="S112" s="95"/>
-      <c r="T112" s="95"/>
-      <c r="U112" s="95"/>
-      <c r="V112" s="95"/>
-      <c r="W112" s="95"/>
-      <c r="X112" s="95"/>
-      <c r="Y112" s="95"/>
-      <c r="Z112" s="95"/>
-      <c r="AA112" s="95"/>
-      <c r="AB112" s="95"/>
-      <c r="AC112" s="95"/>
-      <c r="AD112" s="95"/>
-      <c r="AE112" s="95"/>
-      <c r="AF112" s="95"/>
-      <c r="AG112" s="95"/>
-      <c r="AH112" s="95"/>
-      <c r="AI112" s="88" t="s">
+      <c r="S112" s="122"/>
+      <c r="T112" s="122"/>
+      <c r="U112" s="122"/>
+      <c r="V112" s="122"/>
+      <c r="W112" s="122"/>
+      <c r="X112" s="122"/>
+      <c r="Y112" s="122"/>
+      <c r="Z112" s="122"/>
+      <c r="AA112" s="122"/>
+      <c r="AB112" s="122"/>
+      <c r="AC112" s="122"/>
+      <c r="AD112" s="122"/>
+      <c r="AE112" s="122"/>
+      <c r="AF112" s="122"/>
+      <c r="AG112" s="122"/>
+      <c r="AH112" s="122"/>
+      <c r="AI112" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="AJ112" s="89"/>
-      <c r="AK112" s="89"/>
-      <c r="AL112" s="89"/>
-      <c r="AM112" s="89"/>
-      <c r="AN112" s="89"/>
-      <c r="AO112" s="89"/>
-      <c r="AP112" s="90"/>
-      <c r="AQ112" s="83" t="s">
+      <c r="AJ112" s="101"/>
+      <c r="AK112" s="101"/>
+      <c r="AL112" s="101"/>
+      <c r="AM112" s="101"/>
+      <c r="AN112" s="101"/>
+      <c r="AO112" s="101"/>
+      <c r="AP112" s="102"/>
+      <c r="AQ112" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="AR112" s="83"/>
-      <c r="AS112" s="83"/>
-      <c r="AT112" s="83"/>
-      <c r="AU112" s="83"/>
-      <c r="AV112" s="83"/>
-      <c r="AW112" s="83"/>
-      <c r="AX112" s="83" t="s">
+      <c r="AR112" s="75"/>
+      <c r="AS112" s="75"/>
+      <c r="AT112" s="75"/>
+      <c r="AU112" s="75"/>
+      <c r="AV112" s="75"/>
+      <c r="AW112" s="75"/>
+      <c r="AX112" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AY112" s="83"/>
-      <c r="AZ112" s="83"/>
-      <c r="BA112" s="83"/>
-      <c r="BB112" s="83"/>
-      <c r="BC112" s="84" t="s">
+      <c r="AY112" s="75"/>
+      <c r="AZ112" s="75"/>
+      <c r="BA112" s="75"/>
+      <c r="BB112" s="75"/>
+      <c r="BC112" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="BD112" s="84"/>
-      <c r="BE112" s="84"/>
-      <c r="BF112" s="84"/>
-      <c r="BG112" s="84"/>
-      <c r="BH112" s="84"/>
-      <c r="BI112" s="84"/>
-      <c r="BJ112" s="84"/>
-      <c r="BK112" s="84"/>
-      <c r="BL112" s="84"/>
-      <c r="BM112" s="84"/>
-      <c r="BN112" s="84"/>
-      <c r="BO112" s="84"/>
+      <c r="BD112" s="76"/>
+      <c r="BE112" s="76"/>
+      <c r="BF112" s="76"/>
+      <c r="BG112" s="76"/>
+      <c r="BH112" s="76"/>
+      <c r="BI112" s="76"/>
+      <c r="BJ112" s="76"/>
+      <c r="BK112" s="76"/>
+      <c r="BL112" s="76"/>
+      <c r="BM112" s="76"/>
+      <c r="BN112" s="76"/>
+      <c r="BO112" s="76"/>
       <c r="BP112" s="4"/>
     </row>
     <row r="113" spans="1:68" s="59" customFormat="1" ht="49.5" customHeight="1" outlineLevel="1">
@@ -13018,85 +13018,85 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>12</v>
       </c>
-      <c r="C113" s="99" t="s">
+      <c r="C113" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="D113" s="100"/>
-      <c r="E113" s="100"/>
-      <c r="F113" s="100"/>
-      <c r="G113" s="100"/>
-      <c r="H113" s="100"/>
-      <c r="I113" s="101"/>
-      <c r="J113" s="102" t="s">
+      <c r="D113" s="95"/>
+      <c r="E113" s="95"/>
+      <c r="F113" s="95"/>
+      <c r="G113" s="95"/>
+      <c r="H113" s="95"/>
+      <c r="I113" s="98"/>
+      <c r="J113" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="K113" s="77"/>
-      <c r="L113" s="77"/>
-      <c r="M113" s="77"/>
-      <c r="N113" s="77"/>
-      <c r="O113" s="77"/>
-      <c r="P113" s="77"/>
-      <c r="Q113" s="78"/>
-      <c r="R113" s="94" t="s">
+      <c r="K113" s="119"/>
+      <c r="L113" s="119"/>
+      <c r="M113" s="119"/>
+      <c r="N113" s="119"/>
+      <c r="O113" s="119"/>
+      <c r="P113" s="119"/>
+      <c r="Q113" s="120"/>
+      <c r="R113" s="108" t="s">
         <v>161</v>
       </c>
-      <c r="S113" s="94"/>
-      <c r="T113" s="94"/>
-      <c r="U113" s="94"/>
-      <c r="V113" s="94"/>
-      <c r="W113" s="94"/>
-      <c r="X113" s="94"/>
-      <c r="Y113" s="94"/>
-      <c r="Z113" s="94"/>
-      <c r="AA113" s="94"/>
-      <c r="AB113" s="94"/>
-      <c r="AC113" s="94"/>
-      <c r="AD113" s="94"/>
-      <c r="AE113" s="94"/>
-      <c r="AF113" s="94"/>
-      <c r="AG113" s="94"/>
-      <c r="AH113" s="94"/>
-      <c r="AI113" s="88" t="s">
+      <c r="S113" s="108"/>
+      <c r="T113" s="108"/>
+      <c r="U113" s="108"/>
+      <c r="V113" s="108"/>
+      <c r="W113" s="108"/>
+      <c r="X113" s="108"/>
+      <c r="Y113" s="108"/>
+      <c r="Z113" s="108"/>
+      <c r="AA113" s="108"/>
+      <c r="AB113" s="108"/>
+      <c r="AC113" s="108"/>
+      <c r="AD113" s="108"/>
+      <c r="AE113" s="108"/>
+      <c r="AF113" s="108"/>
+      <c r="AG113" s="108"/>
+      <c r="AH113" s="108"/>
+      <c r="AI113" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="AJ113" s="89"/>
-      <c r="AK113" s="89"/>
-      <c r="AL113" s="89"/>
-      <c r="AM113" s="89"/>
-      <c r="AN113" s="89"/>
-      <c r="AO113" s="89"/>
-      <c r="AP113" s="90"/>
-      <c r="AQ113" s="83" t="s">
+      <c r="AJ113" s="101"/>
+      <c r="AK113" s="101"/>
+      <c r="AL113" s="101"/>
+      <c r="AM113" s="101"/>
+      <c r="AN113" s="101"/>
+      <c r="AO113" s="101"/>
+      <c r="AP113" s="102"/>
+      <c r="AQ113" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="AR113" s="83"/>
-      <c r="AS113" s="83"/>
-      <c r="AT113" s="83"/>
-      <c r="AU113" s="83"/>
-      <c r="AV113" s="83"/>
-      <c r="AW113" s="83"/>
-      <c r="AX113" s="83" t="s">
+      <c r="AR113" s="75"/>
+      <c r="AS113" s="75"/>
+      <c r="AT113" s="75"/>
+      <c r="AU113" s="75"/>
+      <c r="AV113" s="75"/>
+      <c r="AW113" s="75"/>
+      <c r="AX113" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AY113" s="83"/>
-      <c r="AZ113" s="83"/>
-      <c r="BA113" s="83"/>
-      <c r="BB113" s="83"/>
-      <c r="BC113" s="84" t="s">
+      <c r="AY113" s="75"/>
+      <c r="AZ113" s="75"/>
+      <c r="BA113" s="75"/>
+      <c r="BB113" s="75"/>
+      <c r="BC113" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="BD113" s="84"/>
-      <c r="BE113" s="84"/>
-      <c r="BF113" s="84"/>
-      <c r="BG113" s="84"/>
-      <c r="BH113" s="84"/>
-      <c r="BI113" s="84"/>
-      <c r="BJ113" s="84"/>
-      <c r="BK113" s="84"/>
-      <c r="BL113" s="84"/>
-      <c r="BM113" s="84"/>
-      <c r="BN113" s="84"/>
-      <c r="BO113" s="84"/>
+      <c r="BD113" s="76"/>
+      <c r="BE113" s="76"/>
+      <c r="BF113" s="76"/>
+      <c r="BG113" s="76"/>
+      <c r="BH113" s="76"/>
+      <c r="BI113" s="76"/>
+      <c r="BJ113" s="76"/>
+      <c r="BK113" s="76"/>
+      <c r="BL113" s="76"/>
+      <c r="BM113" s="76"/>
+      <c r="BN113" s="76"/>
+      <c r="BO113" s="76"/>
       <c r="BP113" s="4"/>
     </row>
     <row r="114" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13105,85 +13105,85 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>13</v>
       </c>
-      <c r="C114" s="103" t="s">
+      <c r="C114" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="D114" s="104"/>
-      <c r="E114" s="104"/>
-      <c r="F114" s="104"/>
-      <c r="G114" s="104"/>
-      <c r="H114" s="104"/>
-      <c r="I114" s="105"/>
-      <c r="J114" s="106" t="s">
+      <c r="D114" s="130"/>
+      <c r="E114" s="130"/>
+      <c r="F114" s="130"/>
+      <c r="G114" s="130"/>
+      <c r="H114" s="130"/>
+      <c r="I114" s="131"/>
+      <c r="J114" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="K114" s="100"/>
-      <c r="L114" s="100"/>
-      <c r="M114" s="100"/>
-      <c r="N114" s="100"/>
-      <c r="O114" s="100"/>
-      <c r="P114" s="100"/>
-      <c r="Q114" s="101"/>
-      <c r="R114" s="79" t="s">
+      <c r="K114" s="95"/>
+      <c r="L114" s="95"/>
+      <c r="M114" s="95"/>
+      <c r="N114" s="95"/>
+      <c r="O114" s="95"/>
+      <c r="P114" s="95"/>
+      <c r="Q114" s="98"/>
+      <c r="R114" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="S114" s="79"/>
-      <c r="T114" s="79"/>
-      <c r="U114" s="79"/>
-      <c r="V114" s="79"/>
-      <c r="W114" s="79"/>
-      <c r="X114" s="79"/>
-      <c r="Y114" s="79"/>
-      <c r="Z114" s="79"/>
-      <c r="AA114" s="79"/>
-      <c r="AB114" s="79"/>
-      <c r="AC114" s="79"/>
-      <c r="AD114" s="79"/>
-      <c r="AE114" s="79"/>
-      <c r="AF114" s="79"/>
-      <c r="AG114" s="79"/>
-      <c r="AH114" s="79"/>
-      <c r="AI114" s="88" t="s">
+      <c r="S114" s="99"/>
+      <c r="T114" s="99"/>
+      <c r="U114" s="99"/>
+      <c r="V114" s="99"/>
+      <c r="W114" s="99"/>
+      <c r="X114" s="99"/>
+      <c r="Y114" s="99"/>
+      <c r="Z114" s="99"/>
+      <c r="AA114" s="99"/>
+      <c r="AB114" s="99"/>
+      <c r="AC114" s="99"/>
+      <c r="AD114" s="99"/>
+      <c r="AE114" s="99"/>
+      <c r="AF114" s="99"/>
+      <c r="AG114" s="99"/>
+      <c r="AH114" s="99"/>
+      <c r="AI114" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="AJ114" s="89"/>
-      <c r="AK114" s="89"/>
-      <c r="AL114" s="89"/>
-      <c r="AM114" s="89"/>
-      <c r="AN114" s="89"/>
-      <c r="AO114" s="89"/>
-      <c r="AP114" s="90"/>
-      <c r="AQ114" s="83" t="s">
+      <c r="AJ114" s="101"/>
+      <c r="AK114" s="101"/>
+      <c r="AL114" s="101"/>
+      <c r="AM114" s="101"/>
+      <c r="AN114" s="101"/>
+      <c r="AO114" s="101"/>
+      <c r="AP114" s="102"/>
+      <c r="AQ114" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="AR114" s="83"/>
-      <c r="AS114" s="83"/>
-      <c r="AT114" s="83"/>
-      <c r="AU114" s="83"/>
-      <c r="AV114" s="83"/>
-      <c r="AW114" s="83"/>
-      <c r="AX114" s="83" t="s">
+      <c r="AR114" s="75"/>
+      <c r="AS114" s="75"/>
+      <c r="AT114" s="75"/>
+      <c r="AU114" s="75"/>
+      <c r="AV114" s="75"/>
+      <c r="AW114" s="75"/>
+      <c r="AX114" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AY114" s="83"/>
-      <c r="AZ114" s="83"/>
-      <c r="BA114" s="83"/>
-      <c r="BB114" s="83"/>
-      <c r="BC114" s="84" t="s">
+      <c r="AY114" s="75"/>
+      <c r="AZ114" s="75"/>
+      <c r="BA114" s="75"/>
+      <c r="BB114" s="75"/>
+      <c r="BC114" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="BD114" s="84"/>
-      <c r="BE114" s="84"/>
-      <c r="BF114" s="84"/>
-      <c r="BG114" s="84"/>
-      <c r="BH114" s="84"/>
-      <c r="BI114" s="84"/>
-      <c r="BJ114" s="84"/>
-      <c r="BK114" s="84"/>
-      <c r="BL114" s="84"/>
-      <c r="BM114" s="84"/>
-      <c r="BN114" s="84"/>
-      <c r="BO114" s="84"/>
+      <c r="BD114" s="76"/>
+      <c r="BE114" s="76"/>
+      <c r="BF114" s="76"/>
+      <c r="BG114" s="76"/>
+      <c r="BH114" s="76"/>
+      <c r="BI114" s="76"/>
+      <c r="BJ114" s="76"/>
+      <c r="BK114" s="76"/>
+      <c r="BL114" s="76"/>
+      <c r="BM114" s="76"/>
+      <c r="BN114" s="76"/>
+      <c r="BO114" s="76"/>
       <c r="BP114" s="4"/>
     </row>
     <row r="115" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13192,85 +13192,85 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>14</v>
       </c>
-      <c r="C115" s="96" t="s">
+      <c r="C115" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D115" s="97"/>
-      <c r="E115" s="97"/>
-      <c r="F115" s="97"/>
-      <c r="G115" s="97"/>
-      <c r="H115" s="97"/>
-      <c r="I115" s="98"/>
-      <c r="J115" s="77" t="s">
+      <c r="D115" s="133"/>
+      <c r="E115" s="133"/>
+      <c r="F115" s="133"/>
+      <c r="G115" s="133"/>
+      <c r="H115" s="133"/>
+      <c r="I115" s="134"/>
+      <c r="J115" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="K115" s="77"/>
-      <c r="L115" s="77"/>
-      <c r="M115" s="77"/>
-      <c r="N115" s="77"/>
-      <c r="O115" s="77"/>
-      <c r="P115" s="77"/>
-      <c r="Q115" s="78"/>
-      <c r="R115" s="79" t="s">
+      <c r="K115" s="119"/>
+      <c r="L115" s="119"/>
+      <c r="M115" s="119"/>
+      <c r="N115" s="119"/>
+      <c r="O115" s="119"/>
+      <c r="P115" s="119"/>
+      <c r="Q115" s="120"/>
+      <c r="R115" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="S115" s="79"/>
-      <c r="T115" s="79"/>
-      <c r="U115" s="79"/>
-      <c r="V115" s="79"/>
-      <c r="W115" s="79"/>
-      <c r="X115" s="79"/>
-      <c r="Y115" s="79"/>
-      <c r="Z115" s="79"/>
-      <c r="AA115" s="79"/>
-      <c r="AB115" s="79"/>
-      <c r="AC115" s="79"/>
-      <c r="AD115" s="79"/>
-      <c r="AE115" s="79"/>
-      <c r="AF115" s="79"/>
-      <c r="AG115" s="79"/>
-      <c r="AH115" s="79"/>
-      <c r="AI115" s="80" t="s">
+      <c r="S115" s="99"/>
+      <c r="T115" s="99"/>
+      <c r="U115" s="99"/>
+      <c r="V115" s="99"/>
+      <c r="W115" s="99"/>
+      <c r="X115" s="99"/>
+      <c r="Y115" s="99"/>
+      <c r="Z115" s="99"/>
+      <c r="AA115" s="99"/>
+      <c r="AB115" s="99"/>
+      <c r="AC115" s="99"/>
+      <c r="AD115" s="99"/>
+      <c r="AE115" s="99"/>
+      <c r="AF115" s="99"/>
+      <c r="AG115" s="99"/>
+      <c r="AH115" s="99"/>
+      <c r="AI115" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="AJ115" s="81"/>
-      <c r="AK115" s="81"/>
-      <c r="AL115" s="81"/>
-      <c r="AM115" s="81"/>
-      <c r="AN115" s="81"/>
-      <c r="AO115" s="81"/>
-      <c r="AP115" s="82"/>
-      <c r="AQ115" s="83" t="s">
+      <c r="AJ115" s="84"/>
+      <c r="AK115" s="84"/>
+      <c r="AL115" s="84"/>
+      <c r="AM115" s="84"/>
+      <c r="AN115" s="84"/>
+      <c r="AO115" s="84"/>
+      <c r="AP115" s="85"/>
+      <c r="AQ115" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="AR115" s="83"/>
-      <c r="AS115" s="83"/>
-      <c r="AT115" s="83"/>
-      <c r="AU115" s="83"/>
-      <c r="AV115" s="83"/>
-      <c r="AW115" s="83"/>
-      <c r="AX115" s="83" t="s">
+      <c r="AR115" s="75"/>
+      <c r="AS115" s="75"/>
+      <c r="AT115" s="75"/>
+      <c r="AU115" s="75"/>
+      <c r="AV115" s="75"/>
+      <c r="AW115" s="75"/>
+      <c r="AX115" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="AY115" s="83"/>
-      <c r="AZ115" s="83"/>
-      <c r="BA115" s="83"/>
-      <c r="BB115" s="83"/>
-      <c r="BC115" s="84" t="s">
+      <c r="AY115" s="75"/>
+      <c r="AZ115" s="75"/>
+      <c r="BA115" s="75"/>
+      <c r="BB115" s="75"/>
+      <c r="BC115" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="BD115" s="84"/>
-      <c r="BE115" s="84"/>
-      <c r="BF115" s="84"/>
-      <c r="BG115" s="84"/>
-      <c r="BH115" s="84"/>
-      <c r="BI115" s="84"/>
-      <c r="BJ115" s="84"/>
-      <c r="BK115" s="84"/>
-      <c r="BL115" s="84"/>
-      <c r="BM115" s="84"/>
-      <c r="BN115" s="84"/>
-      <c r="BO115" s="84"/>
+      <c r="BD115" s="76"/>
+      <c r="BE115" s="76"/>
+      <c r="BF115" s="76"/>
+      <c r="BG115" s="76"/>
+      <c r="BH115" s="76"/>
+      <c r="BI115" s="76"/>
+      <c r="BJ115" s="76"/>
+      <c r="BK115" s="76"/>
+      <c r="BL115" s="76"/>
+      <c r="BM115" s="76"/>
+      <c r="BN115" s="76"/>
+      <c r="BO115" s="76"/>
       <c r="BP115" s="4"/>
     </row>
     <row r="116" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13279,42 +13279,42 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>15</v>
       </c>
-      <c r="C116" s="85"/>
-      <c r="D116" s="86"/>
-      <c r="E116" s="86"/>
-      <c r="F116" s="86"/>
-      <c r="G116" s="86"/>
-      <c r="H116" s="86"/>
-      <c r="I116" s="87"/>
-      <c r="J116" s="77" t="s">
+      <c r="C116" s="109"/>
+      <c r="D116" s="110"/>
+      <c r="E116" s="110"/>
+      <c r="F116" s="110"/>
+      <c r="G116" s="110"/>
+      <c r="H116" s="110"/>
+      <c r="I116" s="111"/>
+      <c r="J116" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="K116" s="77"/>
-      <c r="L116" s="77"/>
-      <c r="M116" s="77"/>
-      <c r="N116" s="77"/>
-      <c r="O116" s="77"/>
-      <c r="P116" s="77"/>
-      <c r="Q116" s="78"/>
-      <c r="R116" s="79" t="s">
+      <c r="K116" s="119"/>
+      <c r="L116" s="119"/>
+      <c r="M116" s="119"/>
+      <c r="N116" s="119"/>
+      <c r="O116" s="119"/>
+      <c r="P116" s="119"/>
+      <c r="Q116" s="120"/>
+      <c r="R116" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="S116" s="79"/>
-      <c r="T116" s="79"/>
-      <c r="U116" s="79"/>
-      <c r="V116" s="79"/>
-      <c r="W116" s="79"/>
-      <c r="X116" s="79"/>
-      <c r="Y116" s="79"/>
-      <c r="Z116" s="79"/>
-      <c r="AA116" s="79"/>
-      <c r="AB116" s="79"/>
-      <c r="AC116" s="79"/>
-      <c r="AD116" s="79"/>
-      <c r="AE116" s="79"/>
-      <c r="AF116" s="79"/>
-      <c r="AG116" s="79"/>
-      <c r="AH116" s="79"/>
+      <c r="S116" s="99"/>
+      <c r="T116" s="99"/>
+      <c r="U116" s="99"/>
+      <c r="V116" s="99"/>
+      <c r="W116" s="99"/>
+      <c r="X116" s="99"/>
+      <c r="Y116" s="99"/>
+      <c r="Z116" s="99"/>
+      <c r="AA116" s="99"/>
+      <c r="AB116" s="99"/>
+      <c r="AC116" s="99"/>
+      <c r="AD116" s="99"/>
+      <c r="AE116" s="99"/>
+      <c r="AF116" s="99"/>
+      <c r="AG116" s="99"/>
+      <c r="AH116" s="99"/>
       <c r="AI116" s="48" t="s">
         <v>78</v>
       </c>
@@ -13325,37 +13325,37 @@
       <c r="AN116" s="50"/>
       <c r="AO116" s="50"/>
       <c r="AP116" s="49"/>
-      <c r="AQ116" s="83" t="s">
+      <c r="AQ116" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="AR116" s="83"/>
-      <c r="AS116" s="83"/>
-      <c r="AT116" s="83"/>
-      <c r="AU116" s="83"/>
-      <c r="AV116" s="83"/>
-      <c r="AW116" s="83"/>
-      <c r="AX116" s="83" t="s">
+      <c r="AR116" s="75"/>
+      <c r="AS116" s="75"/>
+      <c r="AT116" s="75"/>
+      <c r="AU116" s="75"/>
+      <c r="AV116" s="75"/>
+      <c r="AW116" s="75"/>
+      <c r="AX116" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="AY116" s="83"/>
-      <c r="AZ116" s="83"/>
-      <c r="BA116" s="83"/>
-      <c r="BB116" s="83"/>
-      <c r="BC116" s="84" t="s">
+      <c r="AY116" s="75"/>
+      <c r="AZ116" s="75"/>
+      <c r="BA116" s="75"/>
+      <c r="BB116" s="75"/>
+      <c r="BC116" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="BD116" s="84"/>
-      <c r="BE116" s="84"/>
-      <c r="BF116" s="84"/>
-      <c r="BG116" s="84"/>
-      <c r="BH116" s="84"/>
-      <c r="BI116" s="84"/>
-      <c r="BJ116" s="84"/>
-      <c r="BK116" s="84"/>
-      <c r="BL116" s="84"/>
-      <c r="BM116" s="84"/>
-      <c r="BN116" s="84"/>
-      <c r="BO116" s="84"/>
+      <c r="BD116" s="76"/>
+      <c r="BE116" s="76"/>
+      <c r="BF116" s="76"/>
+      <c r="BG116" s="76"/>
+      <c r="BH116" s="76"/>
+      <c r="BI116" s="76"/>
+      <c r="BJ116" s="76"/>
+      <c r="BK116" s="76"/>
+      <c r="BL116" s="76"/>
+      <c r="BM116" s="76"/>
+      <c r="BN116" s="76"/>
+      <c r="BO116" s="76"/>
       <c r="BP116" s="4"/>
     </row>
     <row r="117" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13364,83 +13364,83 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>16</v>
       </c>
-      <c r="C117" s="85"/>
-      <c r="D117" s="86"/>
-      <c r="E117" s="86"/>
-      <c r="F117" s="86"/>
-      <c r="G117" s="86"/>
-      <c r="H117" s="86"/>
-      <c r="I117" s="87"/>
-      <c r="J117" s="77" t="s">
+      <c r="C117" s="109"/>
+      <c r="D117" s="110"/>
+      <c r="E117" s="110"/>
+      <c r="F117" s="110"/>
+      <c r="G117" s="110"/>
+      <c r="H117" s="110"/>
+      <c r="I117" s="111"/>
+      <c r="J117" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="K117" s="77"/>
-      <c r="L117" s="77"/>
-      <c r="M117" s="77"/>
-      <c r="N117" s="77"/>
-      <c r="O117" s="77"/>
-      <c r="P117" s="77"/>
-      <c r="Q117" s="78"/>
-      <c r="R117" s="79" t="s">
+      <c r="K117" s="119"/>
+      <c r="L117" s="119"/>
+      <c r="M117" s="119"/>
+      <c r="N117" s="119"/>
+      <c r="O117" s="119"/>
+      <c r="P117" s="119"/>
+      <c r="Q117" s="120"/>
+      <c r="R117" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="S117" s="79"/>
-      <c r="T117" s="79"/>
-      <c r="U117" s="79"/>
-      <c r="V117" s="79"/>
-      <c r="W117" s="79"/>
-      <c r="X117" s="79"/>
-      <c r="Y117" s="79"/>
-      <c r="Z117" s="79"/>
-      <c r="AA117" s="79"/>
-      <c r="AB117" s="79"/>
-      <c r="AC117" s="79"/>
-      <c r="AD117" s="79"/>
-      <c r="AE117" s="79"/>
-      <c r="AF117" s="79"/>
-      <c r="AG117" s="79"/>
-      <c r="AH117" s="79"/>
-      <c r="AI117" s="88" t="s">
+      <c r="S117" s="99"/>
+      <c r="T117" s="99"/>
+      <c r="U117" s="99"/>
+      <c r="V117" s="99"/>
+      <c r="W117" s="99"/>
+      <c r="X117" s="99"/>
+      <c r="Y117" s="99"/>
+      <c r="Z117" s="99"/>
+      <c r="AA117" s="99"/>
+      <c r="AB117" s="99"/>
+      <c r="AC117" s="99"/>
+      <c r="AD117" s="99"/>
+      <c r="AE117" s="99"/>
+      <c r="AF117" s="99"/>
+      <c r="AG117" s="99"/>
+      <c r="AH117" s="99"/>
+      <c r="AI117" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="AJ117" s="89"/>
-      <c r="AK117" s="89"/>
-      <c r="AL117" s="89"/>
-      <c r="AM117" s="89"/>
-      <c r="AN117" s="89"/>
-      <c r="AO117" s="89"/>
-      <c r="AP117" s="90"/>
-      <c r="AQ117" s="83" t="s">
+      <c r="AJ117" s="101"/>
+      <c r="AK117" s="101"/>
+      <c r="AL117" s="101"/>
+      <c r="AM117" s="101"/>
+      <c r="AN117" s="101"/>
+      <c r="AO117" s="101"/>
+      <c r="AP117" s="102"/>
+      <c r="AQ117" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="AR117" s="83"/>
-      <c r="AS117" s="83"/>
-      <c r="AT117" s="83"/>
-      <c r="AU117" s="83"/>
-      <c r="AV117" s="83"/>
-      <c r="AW117" s="83"/>
-      <c r="AX117" s="83" t="s">
+      <c r="AR117" s="75"/>
+      <c r="AS117" s="75"/>
+      <c r="AT117" s="75"/>
+      <c r="AU117" s="75"/>
+      <c r="AV117" s="75"/>
+      <c r="AW117" s="75"/>
+      <c r="AX117" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AY117" s="83"/>
-      <c r="AZ117" s="83"/>
-      <c r="BA117" s="83"/>
-      <c r="BB117" s="83"/>
-      <c r="BC117" s="84" t="s">
+      <c r="AY117" s="75"/>
+      <c r="AZ117" s="75"/>
+      <c r="BA117" s="75"/>
+      <c r="BB117" s="75"/>
+      <c r="BC117" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="BD117" s="84"/>
-      <c r="BE117" s="84"/>
-      <c r="BF117" s="84"/>
-      <c r="BG117" s="84"/>
-      <c r="BH117" s="84"/>
-      <c r="BI117" s="84"/>
-      <c r="BJ117" s="84"/>
-      <c r="BK117" s="84"/>
-      <c r="BL117" s="84"/>
-      <c r="BM117" s="84"/>
-      <c r="BN117" s="84"/>
-      <c r="BO117" s="84"/>
+      <c r="BD117" s="76"/>
+      <c r="BE117" s="76"/>
+      <c r="BF117" s="76"/>
+      <c r="BG117" s="76"/>
+      <c r="BH117" s="76"/>
+      <c r="BI117" s="76"/>
+      <c r="BJ117" s="76"/>
+      <c r="BK117" s="76"/>
+      <c r="BL117" s="76"/>
+      <c r="BM117" s="76"/>
+      <c r="BN117" s="76"/>
+      <c r="BO117" s="76"/>
       <c r="BP117" s="4"/>
     </row>
     <row r="118" spans="1:68" s="59" customFormat="1" ht="50.25" customHeight="1" outlineLevel="1">
@@ -13449,83 +13449,83 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>17</v>
       </c>
-      <c r="C118" s="91"/>
-      <c r="D118" s="92"/>
-      <c r="E118" s="92"/>
-      <c r="F118" s="92"/>
-      <c r="G118" s="92"/>
-      <c r="H118" s="92"/>
-      <c r="I118" s="93"/>
-      <c r="J118" s="77" t="s">
+      <c r="C118" s="125"/>
+      <c r="D118" s="116"/>
+      <c r="E118" s="116"/>
+      <c r="F118" s="116"/>
+      <c r="G118" s="116"/>
+      <c r="H118" s="116"/>
+      <c r="I118" s="117"/>
+      <c r="J118" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="K118" s="77"/>
-      <c r="L118" s="77"/>
-      <c r="M118" s="77"/>
-      <c r="N118" s="77"/>
-      <c r="O118" s="77"/>
-      <c r="P118" s="77"/>
-      <c r="Q118" s="78"/>
-      <c r="R118" s="94" t="s">
+      <c r="K118" s="119"/>
+      <c r="L118" s="119"/>
+      <c r="M118" s="119"/>
+      <c r="N118" s="119"/>
+      <c r="O118" s="119"/>
+      <c r="P118" s="119"/>
+      <c r="Q118" s="120"/>
+      <c r="R118" s="108" t="s">
         <v>162</v>
       </c>
-      <c r="S118" s="79"/>
-      <c r="T118" s="79"/>
-      <c r="U118" s="79"/>
-      <c r="V118" s="79"/>
-      <c r="W118" s="79"/>
-      <c r="X118" s="79"/>
-      <c r="Y118" s="79"/>
-      <c r="Z118" s="79"/>
-      <c r="AA118" s="79"/>
-      <c r="AB118" s="79"/>
-      <c r="AC118" s="79"/>
-      <c r="AD118" s="79"/>
-      <c r="AE118" s="79"/>
-      <c r="AF118" s="79"/>
-      <c r="AG118" s="79"/>
-      <c r="AH118" s="79"/>
-      <c r="AI118" s="88" t="s">
+      <c r="S118" s="99"/>
+      <c r="T118" s="99"/>
+      <c r="U118" s="99"/>
+      <c r="V118" s="99"/>
+      <c r="W118" s="99"/>
+      <c r="X118" s="99"/>
+      <c r="Y118" s="99"/>
+      <c r="Z118" s="99"/>
+      <c r="AA118" s="99"/>
+      <c r="AB118" s="99"/>
+      <c r="AC118" s="99"/>
+      <c r="AD118" s="99"/>
+      <c r="AE118" s="99"/>
+      <c r="AF118" s="99"/>
+      <c r="AG118" s="99"/>
+      <c r="AH118" s="99"/>
+      <c r="AI118" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="AJ118" s="89"/>
-      <c r="AK118" s="89"/>
-      <c r="AL118" s="89"/>
-      <c r="AM118" s="89"/>
-      <c r="AN118" s="89"/>
-      <c r="AO118" s="89"/>
-      <c r="AP118" s="90"/>
-      <c r="AQ118" s="83" t="s">
+      <c r="AJ118" s="101"/>
+      <c r="AK118" s="101"/>
+      <c r="AL118" s="101"/>
+      <c r="AM118" s="101"/>
+      <c r="AN118" s="101"/>
+      <c r="AO118" s="101"/>
+      <c r="AP118" s="102"/>
+      <c r="AQ118" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="AR118" s="83"/>
-      <c r="AS118" s="83"/>
-      <c r="AT118" s="83"/>
-      <c r="AU118" s="83"/>
-      <c r="AV118" s="83"/>
-      <c r="AW118" s="83"/>
-      <c r="AX118" s="83" t="s">
+      <c r="AR118" s="75"/>
+      <c r="AS118" s="75"/>
+      <c r="AT118" s="75"/>
+      <c r="AU118" s="75"/>
+      <c r="AV118" s="75"/>
+      <c r="AW118" s="75"/>
+      <c r="AX118" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AY118" s="83"/>
-      <c r="AZ118" s="83"/>
-      <c r="BA118" s="83"/>
-      <c r="BB118" s="83"/>
-      <c r="BC118" s="84" t="s">
+      <c r="AY118" s="75"/>
+      <c r="AZ118" s="75"/>
+      <c r="BA118" s="75"/>
+      <c r="BB118" s="75"/>
+      <c r="BC118" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="BD118" s="84"/>
-      <c r="BE118" s="84"/>
-      <c r="BF118" s="84"/>
-      <c r="BG118" s="84"/>
-      <c r="BH118" s="84"/>
-      <c r="BI118" s="84"/>
-      <c r="BJ118" s="84"/>
-      <c r="BK118" s="84"/>
-      <c r="BL118" s="84"/>
-      <c r="BM118" s="84"/>
-      <c r="BN118" s="84"/>
-      <c r="BO118" s="84"/>
+      <c r="BD118" s="76"/>
+      <c r="BE118" s="76"/>
+      <c r="BF118" s="76"/>
+      <c r="BG118" s="76"/>
+      <c r="BH118" s="76"/>
+      <c r="BI118" s="76"/>
+      <c r="BJ118" s="76"/>
+      <c r="BK118" s="76"/>
+      <c r="BL118" s="76"/>
+      <c r="BM118" s="76"/>
+      <c r="BN118" s="76"/>
+      <c r="BO118" s="76"/>
       <c r="BP118" s="4"/>
     </row>
     <row r="119" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13534,85 +13534,85 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>18</v>
       </c>
-      <c r="C119" s="74" t="s">
+      <c r="C119" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="D119" s="75"/>
-      <c r="E119" s="75"/>
-      <c r="F119" s="75"/>
-      <c r="G119" s="75"/>
-      <c r="H119" s="75"/>
-      <c r="I119" s="76"/>
-      <c r="J119" s="77" t="s">
+      <c r="D119" s="137"/>
+      <c r="E119" s="137"/>
+      <c r="F119" s="137"/>
+      <c r="G119" s="137"/>
+      <c r="H119" s="137"/>
+      <c r="I119" s="138"/>
+      <c r="J119" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="K119" s="77"/>
-      <c r="L119" s="77"/>
-      <c r="M119" s="77"/>
-      <c r="N119" s="77"/>
-      <c r="O119" s="77"/>
-      <c r="P119" s="77"/>
-      <c r="Q119" s="78"/>
-      <c r="R119" s="79" t="s">
+      <c r="K119" s="119"/>
+      <c r="L119" s="119"/>
+      <c r="M119" s="119"/>
+      <c r="N119" s="119"/>
+      <c r="O119" s="119"/>
+      <c r="P119" s="119"/>
+      <c r="Q119" s="120"/>
+      <c r="R119" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="S119" s="79"/>
-      <c r="T119" s="79"/>
-      <c r="U119" s="79"/>
-      <c r="V119" s="79"/>
-      <c r="W119" s="79"/>
-      <c r="X119" s="79"/>
-      <c r="Y119" s="79"/>
-      <c r="Z119" s="79"/>
-      <c r="AA119" s="79"/>
-      <c r="AB119" s="79"/>
-      <c r="AC119" s="79"/>
-      <c r="AD119" s="79"/>
-      <c r="AE119" s="79"/>
-      <c r="AF119" s="79"/>
-      <c r="AG119" s="79"/>
-      <c r="AH119" s="79"/>
-      <c r="AI119" s="80" t="s">
+      <c r="S119" s="99"/>
+      <c r="T119" s="99"/>
+      <c r="U119" s="99"/>
+      <c r="V119" s="99"/>
+      <c r="W119" s="99"/>
+      <c r="X119" s="99"/>
+      <c r="Y119" s="99"/>
+      <c r="Z119" s="99"/>
+      <c r="AA119" s="99"/>
+      <c r="AB119" s="99"/>
+      <c r="AC119" s="99"/>
+      <c r="AD119" s="99"/>
+      <c r="AE119" s="99"/>
+      <c r="AF119" s="99"/>
+      <c r="AG119" s="99"/>
+      <c r="AH119" s="99"/>
+      <c r="AI119" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="AJ119" s="81"/>
-      <c r="AK119" s="81"/>
-      <c r="AL119" s="81"/>
-      <c r="AM119" s="81"/>
-      <c r="AN119" s="81"/>
-      <c r="AO119" s="81"/>
-      <c r="AP119" s="82"/>
-      <c r="AQ119" s="83" t="s">
+      <c r="AJ119" s="84"/>
+      <c r="AK119" s="84"/>
+      <c r="AL119" s="84"/>
+      <c r="AM119" s="84"/>
+      <c r="AN119" s="84"/>
+      <c r="AO119" s="84"/>
+      <c r="AP119" s="85"/>
+      <c r="AQ119" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="AR119" s="83"/>
-      <c r="AS119" s="83"/>
-      <c r="AT119" s="83"/>
-      <c r="AU119" s="83"/>
-      <c r="AV119" s="83"/>
-      <c r="AW119" s="83"/>
-      <c r="AX119" s="83" t="s">
+      <c r="AR119" s="75"/>
+      <c r="AS119" s="75"/>
+      <c r="AT119" s="75"/>
+      <c r="AU119" s="75"/>
+      <c r="AV119" s="75"/>
+      <c r="AW119" s="75"/>
+      <c r="AX119" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="AY119" s="83"/>
-      <c r="AZ119" s="83"/>
-      <c r="BA119" s="83"/>
-      <c r="BB119" s="83"/>
-      <c r="BC119" s="84" t="s">
+      <c r="AY119" s="75"/>
+      <c r="AZ119" s="75"/>
+      <c r="BA119" s="75"/>
+      <c r="BB119" s="75"/>
+      <c r="BC119" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="BD119" s="84"/>
-      <c r="BE119" s="84"/>
-      <c r="BF119" s="84"/>
-      <c r="BG119" s="84"/>
-      <c r="BH119" s="84"/>
-      <c r="BI119" s="84"/>
-      <c r="BJ119" s="84"/>
-      <c r="BK119" s="84"/>
-      <c r="BL119" s="84"/>
-      <c r="BM119" s="84"/>
-      <c r="BN119" s="84"/>
-      <c r="BO119" s="84"/>
+      <c r="BD119" s="76"/>
+      <c r="BE119" s="76"/>
+      <c r="BF119" s="76"/>
+      <c r="BG119" s="76"/>
+      <c r="BH119" s="76"/>
+      <c r="BI119" s="76"/>
+      <c r="BJ119" s="76"/>
+      <c r="BK119" s="76"/>
+      <c r="BL119" s="76"/>
+      <c r="BM119" s="76"/>
+      <c r="BN119" s="76"/>
+      <c r="BO119" s="76"/>
       <c r="BP119" s="4"/>
     </row>
     <row r="120" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13621,42 +13621,42 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>19</v>
       </c>
-      <c r="C120" s="85"/>
-      <c r="D120" s="86"/>
-      <c r="E120" s="86"/>
-      <c r="F120" s="86"/>
-      <c r="G120" s="86"/>
-      <c r="H120" s="86"/>
-      <c r="I120" s="87"/>
-      <c r="J120" s="77" t="s">
+      <c r="C120" s="109"/>
+      <c r="D120" s="110"/>
+      <c r="E120" s="110"/>
+      <c r="F120" s="110"/>
+      <c r="G120" s="110"/>
+      <c r="H120" s="110"/>
+      <c r="I120" s="111"/>
+      <c r="J120" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="K120" s="77"/>
-      <c r="L120" s="77"/>
-      <c r="M120" s="77"/>
-      <c r="N120" s="77"/>
-      <c r="O120" s="77"/>
-      <c r="P120" s="77"/>
-      <c r="Q120" s="78"/>
-      <c r="R120" s="79" t="s">
+      <c r="K120" s="119"/>
+      <c r="L120" s="119"/>
+      <c r="M120" s="119"/>
+      <c r="N120" s="119"/>
+      <c r="O120" s="119"/>
+      <c r="P120" s="119"/>
+      <c r="Q120" s="120"/>
+      <c r="R120" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="S120" s="79"/>
-      <c r="T120" s="79"/>
-      <c r="U120" s="79"/>
-      <c r="V120" s="79"/>
-      <c r="W120" s="79"/>
-      <c r="X120" s="79"/>
-      <c r="Y120" s="79"/>
-      <c r="Z120" s="79"/>
-      <c r="AA120" s="79"/>
-      <c r="AB120" s="79"/>
-      <c r="AC120" s="79"/>
-      <c r="AD120" s="79"/>
-      <c r="AE120" s="79"/>
-      <c r="AF120" s="79"/>
-      <c r="AG120" s="79"/>
-      <c r="AH120" s="79"/>
+      <c r="S120" s="99"/>
+      <c r="T120" s="99"/>
+      <c r="U120" s="99"/>
+      <c r="V120" s="99"/>
+      <c r="W120" s="99"/>
+      <c r="X120" s="99"/>
+      <c r="Y120" s="99"/>
+      <c r="Z120" s="99"/>
+      <c r="AA120" s="99"/>
+      <c r="AB120" s="99"/>
+      <c r="AC120" s="99"/>
+      <c r="AD120" s="99"/>
+      <c r="AE120" s="99"/>
+      <c r="AF120" s="99"/>
+      <c r="AG120" s="99"/>
+      <c r="AH120" s="99"/>
       <c r="AI120" s="48" t="s">
         <v>78</v>
       </c>
@@ -13667,37 +13667,37 @@
       <c r="AN120" s="50"/>
       <c r="AO120" s="50"/>
       <c r="AP120" s="49"/>
-      <c r="AQ120" s="83" t="s">
+      <c r="AQ120" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="AR120" s="83"/>
-      <c r="AS120" s="83"/>
-      <c r="AT120" s="83"/>
-      <c r="AU120" s="83"/>
-      <c r="AV120" s="83"/>
-      <c r="AW120" s="83"/>
-      <c r="AX120" s="83" t="s">
+      <c r="AR120" s="75"/>
+      <c r="AS120" s="75"/>
+      <c r="AT120" s="75"/>
+      <c r="AU120" s="75"/>
+      <c r="AV120" s="75"/>
+      <c r="AW120" s="75"/>
+      <c r="AX120" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="AY120" s="83"/>
-      <c r="AZ120" s="83"/>
-      <c r="BA120" s="83"/>
-      <c r="BB120" s="83"/>
-      <c r="BC120" s="84" t="s">
+      <c r="AY120" s="75"/>
+      <c r="AZ120" s="75"/>
+      <c r="BA120" s="75"/>
+      <c r="BB120" s="75"/>
+      <c r="BC120" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="BD120" s="84"/>
-      <c r="BE120" s="84"/>
-      <c r="BF120" s="84"/>
-      <c r="BG120" s="84"/>
-      <c r="BH120" s="84"/>
-      <c r="BI120" s="84"/>
-      <c r="BJ120" s="84"/>
-      <c r="BK120" s="84"/>
-      <c r="BL120" s="84"/>
-      <c r="BM120" s="84"/>
-      <c r="BN120" s="84"/>
-      <c r="BO120" s="84"/>
+      <c r="BD120" s="76"/>
+      <c r="BE120" s="76"/>
+      <c r="BF120" s="76"/>
+      <c r="BG120" s="76"/>
+      <c r="BH120" s="76"/>
+      <c r="BI120" s="76"/>
+      <c r="BJ120" s="76"/>
+      <c r="BK120" s="76"/>
+      <c r="BL120" s="76"/>
+      <c r="BM120" s="76"/>
+      <c r="BN120" s="76"/>
+      <c r="BO120" s="76"/>
       <c r="BP120" s="4"/>
     </row>
     <row r="121" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13706,83 +13706,83 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>20</v>
       </c>
-      <c r="C121" s="85"/>
-      <c r="D121" s="86"/>
-      <c r="E121" s="86"/>
-      <c r="F121" s="86"/>
-      <c r="G121" s="86"/>
-      <c r="H121" s="86"/>
-      <c r="I121" s="87"/>
-      <c r="J121" s="77" t="s">
+      <c r="C121" s="109"/>
+      <c r="D121" s="110"/>
+      <c r="E121" s="110"/>
+      <c r="F121" s="110"/>
+      <c r="G121" s="110"/>
+      <c r="H121" s="110"/>
+      <c r="I121" s="111"/>
+      <c r="J121" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="K121" s="77"/>
-      <c r="L121" s="77"/>
-      <c r="M121" s="77"/>
-      <c r="N121" s="77"/>
-      <c r="O121" s="77"/>
-      <c r="P121" s="77"/>
-      <c r="Q121" s="78"/>
-      <c r="R121" s="79" t="s">
+      <c r="K121" s="119"/>
+      <c r="L121" s="119"/>
+      <c r="M121" s="119"/>
+      <c r="N121" s="119"/>
+      <c r="O121" s="119"/>
+      <c r="P121" s="119"/>
+      <c r="Q121" s="120"/>
+      <c r="R121" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="S121" s="79"/>
-      <c r="T121" s="79"/>
-      <c r="U121" s="79"/>
-      <c r="V121" s="79"/>
-      <c r="W121" s="79"/>
-      <c r="X121" s="79"/>
-      <c r="Y121" s="79"/>
-      <c r="Z121" s="79"/>
-      <c r="AA121" s="79"/>
-      <c r="AB121" s="79"/>
-      <c r="AC121" s="79"/>
-      <c r="AD121" s="79"/>
-      <c r="AE121" s="79"/>
-      <c r="AF121" s="79"/>
-      <c r="AG121" s="79"/>
-      <c r="AH121" s="79"/>
-      <c r="AI121" s="88" t="s">
+      <c r="S121" s="99"/>
+      <c r="T121" s="99"/>
+      <c r="U121" s="99"/>
+      <c r="V121" s="99"/>
+      <c r="W121" s="99"/>
+      <c r="X121" s="99"/>
+      <c r="Y121" s="99"/>
+      <c r="Z121" s="99"/>
+      <c r="AA121" s="99"/>
+      <c r="AB121" s="99"/>
+      <c r="AC121" s="99"/>
+      <c r="AD121" s="99"/>
+      <c r="AE121" s="99"/>
+      <c r="AF121" s="99"/>
+      <c r="AG121" s="99"/>
+      <c r="AH121" s="99"/>
+      <c r="AI121" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="AJ121" s="89"/>
-      <c r="AK121" s="89"/>
-      <c r="AL121" s="89"/>
-      <c r="AM121" s="89"/>
-      <c r="AN121" s="89"/>
-      <c r="AO121" s="89"/>
-      <c r="AP121" s="90"/>
-      <c r="AQ121" s="83" t="s">
+      <c r="AJ121" s="101"/>
+      <c r="AK121" s="101"/>
+      <c r="AL121" s="101"/>
+      <c r="AM121" s="101"/>
+      <c r="AN121" s="101"/>
+      <c r="AO121" s="101"/>
+      <c r="AP121" s="102"/>
+      <c r="AQ121" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="AR121" s="83"/>
-      <c r="AS121" s="83"/>
-      <c r="AT121" s="83"/>
-      <c r="AU121" s="83"/>
-      <c r="AV121" s="83"/>
-      <c r="AW121" s="83"/>
-      <c r="AX121" s="83" t="s">
+      <c r="AR121" s="75"/>
+      <c r="AS121" s="75"/>
+      <c r="AT121" s="75"/>
+      <c r="AU121" s="75"/>
+      <c r="AV121" s="75"/>
+      <c r="AW121" s="75"/>
+      <c r="AX121" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AY121" s="83"/>
-      <c r="AZ121" s="83"/>
-      <c r="BA121" s="83"/>
-      <c r="BB121" s="83"/>
-      <c r="BC121" s="84" t="s">
+      <c r="AY121" s="75"/>
+      <c r="AZ121" s="75"/>
+      <c r="BA121" s="75"/>
+      <c r="BB121" s="75"/>
+      <c r="BC121" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="BD121" s="84"/>
-      <c r="BE121" s="84"/>
-      <c r="BF121" s="84"/>
-      <c r="BG121" s="84"/>
-      <c r="BH121" s="84"/>
-      <c r="BI121" s="84"/>
-      <c r="BJ121" s="84"/>
-      <c r="BK121" s="84"/>
-      <c r="BL121" s="84"/>
-      <c r="BM121" s="84"/>
-      <c r="BN121" s="84"/>
-      <c r="BO121" s="84"/>
+      <c r="BD121" s="76"/>
+      <c r="BE121" s="76"/>
+      <c r="BF121" s="76"/>
+      <c r="BG121" s="76"/>
+      <c r="BH121" s="76"/>
+      <c r="BI121" s="76"/>
+      <c r="BJ121" s="76"/>
+      <c r="BK121" s="76"/>
+      <c r="BL121" s="76"/>
+      <c r="BM121" s="76"/>
+      <c r="BN121" s="76"/>
+      <c r="BO121" s="76"/>
       <c r="BP121" s="4"/>
     </row>
     <row r="122" spans="1:68" s="59" customFormat="1" ht="50.25" customHeight="1" outlineLevel="1">
@@ -13791,83 +13791,83 @@
         <f ca="1">MAX(B$100:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>21</v>
       </c>
-      <c r="C122" s="91"/>
-      <c r="D122" s="92"/>
-      <c r="E122" s="92"/>
-      <c r="F122" s="92"/>
-      <c r="G122" s="92"/>
-      <c r="H122" s="92"/>
-      <c r="I122" s="93"/>
-      <c r="J122" s="77" t="s">
+      <c r="C122" s="125"/>
+      <c r="D122" s="116"/>
+      <c r="E122" s="116"/>
+      <c r="F122" s="116"/>
+      <c r="G122" s="116"/>
+      <c r="H122" s="116"/>
+      <c r="I122" s="117"/>
+      <c r="J122" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="K122" s="77"/>
-      <c r="L122" s="77"/>
-      <c r="M122" s="77"/>
-      <c r="N122" s="77"/>
-      <c r="O122" s="77"/>
-      <c r="P122" s="77"/>
-      <c r="Q122" s="77"/>
-      <c r="R122" s="83" t="s">
+      <c r="K122" s="119"/>
+      <c r="L122" s="119"/>
+      <c r="M122" s="119"/>
+      <c r="N122" s="119"/>
+      <c r="O122" s="119"/>
+      <c r="P122" s="119"/>
+      <c r="Q122" s="119"/>
+      <c r="R122" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="S122" s="95"/>
-      <c r="T122" s="95"/>
-      <c r="U122" s="95"/>
-      <c r="V122" s="95"/>
-      <c r="W122" s="95"/>
-      <c r="X122" s="95"/>
-      <c r="Y122" s="95"/>
-      <c r="Z122" s="95"/>
-      <c r="AA122" s="95"/>
-      <c r="AB122" s="95"/>
-      <c r="AC122" s="95"/>
-      <c r="AD122" s="95"/>
-      <c r="AE122" s="95"/>
-      <c r="AF122" s="95"/>
-      <c r="AG122" s="95"/>
-      <c r="AH122" s="95"/>
-      <c r="AI122" s="89" t="s">
+      <c r="S122" s="122"/>
+      <c r="T122" s="122"/>
+      <c r="U122" s="122"/>
+      <c r="V122" s="122"/>
+      <c r="W122" s="122"/>
+      <c r="X122" s="122"/>
+      <c r="Y122" s="122"/>
+      <c r="Z122" s="122"/>
+      <c r="AA122" s="122"/>
+      <c r="AB122" s="122"/>
+      <c r="AC122" s="122"/>
+      <c r="AD122" s="122"/>
+      <c r="AE122" s="122"/>
+      <c r="AF122" s="122"/>
+      <c r="AG122" s="122"/>
+      <c r="AH122" s="122"/>
+      <c r="AI122" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="AJ122" s="89"/>
-      <c r="AK122" s="89"/>
-      <c r="AL122" s="89"/>
-      <c r="AM122" s="89"/>
-      <c r="AN122" s="89"/>
-      <c r="AO122" s="89"/>
-      <c r="AP122" s="90"/>
-      <c r="AQ122" s="83" t="s">
+      <c r="AJ122" s="101"/>
+      <c r="AK122" s="101"/>
+      <c r="AL122" s="101"/>
+      <c r="AM122" s="101"/>
+      <c r="AN122" s="101"/>
+      <c r="AO122" s="101"/>
+      <c r="AP122" s="102"/>
+      <c r="AQ122" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="AR122" s="83"/>
-      <c r="AS122" s="83"/>
-      <c r="AT122" s="83"/>
-      <c r="AU122" s="83"/>
-      <c r="AV122" s="83"/>
-      <c r="AW122" s="83"/>
-      <c r="AX122" s="83" t="s">
+      <c r="AR122" s="75"/>
+      <c r="AS122" s="75"/>
+      <c r="AT122" s="75"/>
+      <c r="AU122" s="75"/>
+      <c r="AV122" s="75"/>
+      <c r="AW122" s="75"/>
+      <c r="AX122" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AY122" s="83"/>
-      <c r="AZ122" s="83"/>
-      <c r="BA122" s="83"/>
-      <c r="BB122" s="83"/>
-      <c r="BC122" s="84" t="s">
+      <c r="AY122" s="75"/>
+      <c r="AZ122" s="75"/>
+      <c r="BA122" s="75"/>
+      <c r="BB122" s="75"/>
+      <c r="BC122" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="BD122" s="84"/>
-      <c r="BE122" s="84"/>
-      <c r="BF122" s="84"/>
-      <c r="BG122" s="84"/>
-      <c r="BH122" s="84"/>
-      <c r="BI122" s="84"/>
-      <c r="BJ122" s="84"/>
-      <c r="BK122" s="84"/>
-      <c r="BL122" s="84"/>
-      <c r="BM122" s="84"/>
-      <c r="BN122" s="84"/>
-      <c r="BO122" s="84"/>
+      <c r="BD122" s="76"/>
+      <c r="BE122" s="76"/>
+      <c r="BF122" s="76"/>
+      <c r="BG122" s="76"/>
+      <c r="BH122" s="76"/>
+      <c r="BI122" s="76"/>
+      <c r="BJ122" s="76"/>
+      <c r="BK122" s="76"/>
+      <c r="BL122" s="76"/>
+      <c r="BM122" s="76"/>
+      <c r="BN122" s="76"/>
+      <c r="BO122" s="76"/>
       <c r="BP122" s="4"/>
     </row>
     <row r="123" spans="1:68" ht="16.5">
@@ -17384,154 +17384,33 @@
     </row>
   </sheetData>
   <mergeCells count="199">
-    <mergeCell ref="AQ117:AW117"/>
-    <mergeCell ref="AX117:BB117"/>
-    <mergeCell ref="BC117:BO117"/>
-    <mergeCell ref="L94:Q94"/>
-    <mergeCell ref="L96:Q96"/>
-    <mergeCell ref="L92:Q92"/>
-    <mergeCell ref="L93:Q93"/>
-    <mergeCell ref="AD89:AI89"/>
-    <mergeCell ref="AD90:AI90"/>
-    <mergeCell ref="AD91:AI91"/>
-    <mergeCell ref="AD92:AI92"/>
-    <mergeCell ref="AD93:AI93"/>
-    <mergeCell ref="R89:W89"/>
-    <mergeCell ref="R90:W90"/>
-    <mergeCell ref="R91:W91"/>
-    <mergeCell ref="R92:W92"/>
-    <mergeCell ref="R93:W93"/>
-    <mergeCell ref="R94:W94"/>
-    <mergeCell ref="AD94:AI94"/>
-    <mergeCell ref="AD96:AI96"/>
-    <mergeCell ref="R96:W96"/>
-    <mergeCell ref="L87:Q87"/>
-    <mergeCell ref="L88:Q88"/>
-    <mergeCell ref="L89:Q89"/>
-    <mergeCell ref="L90:Q90"/>
-    <mergeCell ref="L91:Q91"/>
-    <mergeCell ref="R87:W87"/>
-    <mergeCell ref="AD81:AI81"/>
-    <mergeCell ref="AD82:AI82"/>
-    <mergeCell ref="AD83:AI83"/>
-    <mergeCell ref="AD84:AI84"/>
-    <mergeCell ref="AD85:AI85"/>
-    <mergeCell ref="AD87:AI87"/>
-    <mergeCell ref="L84:Q84"/>
-    <mergeCell ref="R84:W84"/>
-    <mergeCell ref="L85:Q85"/>
-    <mergeCell ref="R85:W85"/>
-    <mergeCell ref="R88:W88"/>
-    <mergeCell ref="AD88:AI88"/>
-    <mergeCell ref="L80:Q80"/>
-    <mergeCell ref="R80:W80"/>
-    <mergeCell ref="AD80:AI80"/>
-    <mergeCell ref="L81:Q81"/>
-    <mergeCell ref="R81:W81"/>
-    <mergeCell ref="L82:Q82"/>
-    <mergeCell ref="R82:W82"/>
-    <mergeCell ref="L83:Q83"/>
-    <mergeCell ref="R83:W83"/>
-    <mergeCell ref="C102:I102"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="R102:AH102"/>
-    <mergeCell ref="AI102:AP102"/>
-    <mergeCell ref="AQ102:AW102"/>
-    <mergeCell ref="AX102:BB102"/>
-    <mergeCell ref="BC102:BO102"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:I101"/>
-    <mergeCell ref="J100:Q101"/>
-    <mergeCell ref="R100:AH101"/>
-    <mergeCell ref="AI100:AP101"/>
-    <mergeCell ref="AQ100:BO100"/>
-    <mergeCell ref="AQ101:AW101"/>
-    <mergeCell ref="AX101:BB101"/>
-    <mergeCell ref="BC101:BO101"/>
-    <mergeCell ref="C103:I103"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="R103:AH103"/>
-    <mergeCell ref="AI103:AP103"/>
-    <mergeCell ref="AQ103:AW103"/>
-    <mergeCell ref="AX103:BB103"/>
-    <mergeCell ref="BC103:BO103"/>
-    <mergeCell ref="C104:I104"/>
-    <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="R104:AH104"/>
-    <mergeCell ref="AI104:AP104"/>
-    <mergeCell ref="AQ104:AW104"/>
-    <mergeCell ref="AX104:BB104"/>
-    <mergeCell ref="BC104:BO104"/>
-    <mergeCell ref="C105:I105"/>
-    <mergeCell ref="J105:Q105"/>
-    <mergeCell ref="R105:AH105"/>
-    <mergeCell ref="AI105:AP105"/>
-    <mergeCell ref="AQ105:AW105"/>
-    <mergeCell ref="AX105:BB105"/>
-    <mergeCell ref="BC105:BO105"/>
-    <mergeCell ref="C106:I106"/>
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="R106:AH106"/>
-    <mergeCell ref="AI106:AP106"/>
-    <mergeCell ref="AQ106:AW106"/>
-    <mergeCell ref="AX106:BB106"/>
-    <mergeCell ref="BC106:BO106"/>
-    <mergeCell ref="C107:I107"/>
-    <mergeCell ref="J107:Q107"/>
-    <mergeCell ref="R107:AH107"/>
-    <mergeCell ref="AI107:AP107"/>
-    <mergeCell ref="AQ107:AW107"/>
-    <mergeCell ref="AX107:BB107"/>
-    <mergeCell ref="BC107:BO107"/>
-    <mergeCell ref="C108:I108"/>
-    <mergeCell ref="J108:Q108"/>
-    <mergeCell ref="R108:AH108"/>
-    <mergeCell ref="AI108:AP108"/>
-    <mergeCell ref="AQ108:AW108"/>
-    <mergeCell ref="AX108:BB108"/>
-    <mergeCell ref="BC108:BO108"/>
-    <mergeCell ref="C109:I109"/>
-    <mergeCell ref="J109:Q109"/>
-    <mergeCell ref="R109:AH109"/>
-    <mergeCell ref="AI109:AP109"/>
-    <mergeCell ref="AQ109:AW109"/>
-    <mergeCell ref="AX109:BB109"/>
-    <mergeCell ref="BC109:BO109"/>
-    <mergeCell ref="C110:I110"/>
-    <mergeCell ref="J110:Q110"/>
-    <mergeCell ref="R110:AH110"/>
-    <mergeCell ref="AI110:AP110"/>
-    <mergeCell ref="AQ110:AW110"/>
-    <mergeCell ref="AX110:BB110"/>
-    <mergeCell ref="BC110:BO110"/>
-    <mergeCell ref="C111:I111"/>
-    <mergeCell ref="J111:Q111"/>
-    <mergeCell ref="R111:AH111"/>
-    <mergeCell ref="AI111:AP111"/>
-    <mergeCell ref="AQ111:AW111"/>
-    <mergeCell ref="AX111:BB111"/>
-    <mergeCell ref="BC111:BO111"/>
-    <mergeCell ref="C112:I112"/>
-    <mergeCell ref="J112:Q112"/>
-    <mergeCell ref="R112:AH112"/>
-    <mergeCell ref="AI112:AP112"/>
-    <mergeCell ref="AQ112:AW112"/>
-    <mergeCell ref="AX112:BB112"/>
-    <mergeCell ref="BC112:BO112"/>
-    <mergeCell ref="C113:I113"/>
-    <mergeCell ref="J113:Q113"/>
-    <mergeCell ref="R113:AH113"/>
-    <mergeCell ref="AI113:AP113"/>
-    <mergeCell ref="AQ113:AW113"/>
-    <mergeCell ref="AX113:BB113"/>
-    <mergeCell ref="BC113:BO113"/>
-    <mergeCell ref="C114:I114"/>
-    <mergeCell ref="J114:Q114"/>
-    <mergeCell ref="R114:AH114"/>
-    <mergeCell ref="AI114:AP114"/>
-    <mergeCell ref="AQ114:AW114"/>
-    <mergeCell ref="AX114:BB114"/>
-    <mergeCell ref="BC114:BO114"/>
+    <mergeCell ref="AQ120:AW120"/>
+    <mergeCell ref="AX120:BB120"/>
+    <mergeCell ref="BC120:BO120"/>
+    <mergeCell ref="C121:I121"/>
+    <mergeCell ref="J121:Q121"/>
+    <mergeCell ref="R121:AH121"/>
+    <mergeCell ref="AI121:AP121"/>
+    <mergeCell ref="AQ121:AW121"/>
+    <mergeCell ref="AX121:BB121"/>
+    <mergeCell ref="BC121:BO121"/>
+    <mergeCell ref="C118:I118"/>
+    <mergeCell ref="J118:Q118"/>
+    <mergeCell ref="R118:AH118"/>
+    <mergeCell ref="AI118:AP118"/>
+    <mergeCell ref="AQ118:AW118"/>
+    <mergeCell ref="AX118:BB118"/>
+    <mergeCell ref="BC118:BO118"/>
+    <mergeCell ref="C119:I119"/>
+    <mergeCell ref="J119:Q119"/>
+    <mergeCell ref="R119:AH119"/>
+    <mergeCell ref="AI119:AP119"/>
+    <mergeCell ref="AQ119:AW119"/>
+    <mergeCell ref="AX119:BB119"/>
+    <mergeCell ref="BC119:BO119"/>
+    <mergeCell ref="C120:I120"/>
+    <mergeCell ref="J120:Q120"/>
+    <mergeCell ref="R120:AH120"/>
     <mergeCell ref="C122:I122"/>
     <mergeCell ref="J122:Q122"/>
     <mergeCell ref="R122:AH122"/>
@@ -17556,33 +17435,154 @@
     <mergeCell ref="J117:Q117"/>
     <mergeCell ref="R117:AH117"/>
     <mergeCell ref="AI117:AP117"/>
-    <mergeCell ref="C121:I121"/>
-    <mergeCell ref="J121:Q121"/>
-    <mergeCell ref="R121:AH121"/>
-    <mergeCell ref="AI121:AP121"/>
-    <mergeCell ref="AQ121:AW121"/>
-    <mergeCell ref="AX121:BB121"/>
-    <mergeCell ref="BC121:BO121"/>
-    <mergeCell ref="C118:I118"/>
-    <mergeCell ref="J118:Q118"/>
-    <mergeCell ref="R118:AH118"/>
-    <mergeCell ref="AI118:AP118"/>
-    <mergeCell ref="AQ118:AW118"/>
-    <mergeCell ref="AX118:BB118"/>
-    <mergeCell ref="BC118:BO118"/>
-    <mergeCell ref="C119:I119"/>
-    <mergeCell ref="J119:Q119"/>
-    <mergeCell ref="R119:AH119"/>
-    <mergeCell ref="AI119:AP119"/>
-    <mergeCell ref="AQ119:AW119"/>
-    <mergeCell ref="AX119:BB119"/>
-    <mergeCell ref="BC119:BO119"/>
-    <mergeCell ref="C120:I120"/>
-    <mergeCell ref="J120:Q120"/>
-    <mergeCell ref="R120:AH120"/>
-    <mergeCell ref="AQ120:AW120"/>
-    <mergeCell ref="AX120:BB120"/>
-    <mergeCell ref="BC120:BO120"/>
+    <mergeCell ref="C113:I113"/>
+    <mergeCell ref="J113:Q113"/>
+    <mergeCell ref="R113:AH113"/>
+    <mergeCell ref="AI113:AP113"/>
+    <mergeCell ref="AQ113:AW113"/>
+    <mergeCell ref="AX113:BB113"/>
+    <mergeCell ref="BC113:BO113"/>
+    <mergeCell ref="C114:I114"/>
+    <mergeCell ref="J114:Q114"/>
+    <mergeCell ref="R114:AH114"/>
+    <mergeCell ref="AI114:AP114"/>
+    <mergeCell ref="AQ114:AW114"/>
+    <mergeCell ref="AX114:BB114"/>
+    <mergeCell ref="BC114:BO114"/>
+    <mergeCell ref="C111:I111"/>
+    <mergeCell ref="J111:Q111"/>
+    <mergeCell ref="R111:AH111"/>
+    <mergeCell ref="AI111:AP111"/>
+    <mergeCell ref="AQ111:AW111"/>
+    <mergeCell ref="AX111:BB111"/>
+    <mergeCell ref="BC111:BO111"/>
+    <mergeCell ref="C112:I112"/>
+    <mergeCell ref="J112:Q112"/>
+    <mergeCell ref="R112:AH112"/>
+    <mergeCell ref="AI112:AP112"/>
+    <mergeCell ref="AQ112:AW112"/>
+    <mergeCell ref="AX112:BB112"/>
+    <mergeCell ref="BC112:BO112"/>
+    <mergeCell ref="C109:I109"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="R109:AH109"/>
+    <mergeCell ref="AI109:AP109"/>
+    <mergeCell ref="AQ109:AW109"/>
+    <mergeCell ref="AX109:BB109"/>
+    <mergeCell ref="BC109:BO109"/>
+    <mergeCell ref="C110:I110"/>
+    <mergeCell ref="J110:Q110"/>
+    <mergeCell ref="R110:AH110"/>
+    <mergeCell ref="AI110:AP110"/>
+    <mergeCell ref="AQ110:AW110"/>
+    <mergeCell ref="AX110:BB110"/>
+    <mergeCell ref="BC110:BO110"/>
+    <mergeCell ref="C107:I107"/>
+    <mergeCell ref="J107:Q107"/>
+    <mergeCell ref="R107:AH107"/>
+    <mergeCell ref="AI107:AP107"/>
+    <mergeCell ref="AQ107:AW107"/>
+    <mergeCell ref="AX107:BB107"/>
+    <mergeCell ref="BC107:BO107"/>
+    <mergeCell ref="C108:I108"/>
+    <mergeCell ref="J108:Q108"/>
+    <mergeCell ref="R108:AH108"/>
+    <mergeCell ref="AI108:AP108"/>
+    <mergeCell ref="AQ108:AW108"/>
+    <mergeCell ref="AX108:BB108"/>
+    <mergeCell ref="BC108:BO108"/>
+    <mergeCell ref="C105:I105"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="R105:AH105"/>
+    <mergeCell ref="AI105:AP105"/>
+    <mergeCell ref="AQ105:AW105"/>
+    <mergeCell ref="AX105:BB105"/>
+    <mergeCell ref="BC105:BO105"/>
+    <mergeCell ref="C106:I106"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="R106:AH106"/>
+    <mergeCell ref="AI106:AP106"/>
+    <mergeCell ref="AQ106:AW106"/>
+    <mergeCell ref="AX106:BB106"/>
+    <mergeCell ref="BC106:BO106"/>
+    <mergeCell ref="C103:I103"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="R103:AH103"/>
+    <mergeCell ref="AI103:AP103"/>
+    <mergeCell ref="AQ103:AW103"/>
+    <mergeCell ref="AX103:BB103"/>
+    <mergeCell ref="BC103:BO103"/>
+    <mergeCell ref="C104:I104"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="R104:AH104"/>
+    <mergeCell ref="AI104:AP104"/>
+    <mergeCell ref="AQ104:AW104"/>
+    <mergeCell ref="AX104:BB104"/>
+    <mergeCell ref="BC104:BO104"/>
+    <mergeCell ref="C102:I102"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="R102:AH102"/>
+    <mergeCell ref="AI102:AP102"/>
+    <mergeCell ref="AQ102:AW102"/>
+    <mergeCell ref="AX102:BB102"/>
+    <mergeCell ref="BC102:BO102"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:I101"/>
+    <mergeCell ref="J100:Q101"/>
+    <mergeCell ref="R100:AH101"/>
+    <mergeCell ref="AI100:AP101"/>
+    <mergeCell ref="AQ100:BO100"/>
+    <mergeCell ref="AQ101:AW101"/>
+    <mergeCell ref="AX101:BB101"/>
+    <mergeCell ref="BC101:BO101"/>
+    <mergeCell ref="L80:Q80"/>
+    <mergeCell ref="R80:W80"/>
+    <mergeCell ref="AD80:AI80"/>
+    <mergeCell ref="L81:Q81"/>
+    <mergeCell ref="R81:W81"/>
+    <mergeCell ref="L82:Q82"/>
+    <mergeCell ref="R82:W82"/>
+    <mergeCell ref="L83:Q83"/>
+    <mergeCell ref="R83:W83"/>
+    <mergeCell ref="L87:Q87"/>
+    <mergeCell ref="L88:Q88"/>
+    <mergeCell ref="L89:Q89"/>
+    <mergeCell ref="L90:Q90"/>
+    <mergeCell ref="L91:Q91"/>
+    <mergeCell ref="R87:W87"/>
+    <mergeCell ref="AD81:AI81"/>
+    <mergeCell ref="AD82:AI82"/>
+    <mergeCell ref="AD83:AI83"/>
+    <mergeCell ref="AD84:AI84"/>
+    <mergeCell ref="AD85:AI85"/>
+    <mergeCell ref="AD87:AI87"/>
+    <mergeCell ref="L84:Q84"/>
+    <mergeCell ref="R84:W84"/>
+    <mergeCell ref="L85:Q85"/>
+    <mergeCell ref="R85:W85"/>
+    <mergeCell ref="R88:W88"/>
+    <mergeCell ref="AD88:AI88"/>
+    <mergeCell ref="AQ117:AW117"/>
+    <mergeCell ref="AX117:BB117"/>
+    <mergeCell ref="BC117:BO117"/>
+    <mergeCell ref="L94:Q94"/>
+    <mergeCell ref="L96:Q96"/>
+    <mergeCell ref="L92:Q92"/>
+    <mergeCell ref="L93:Q93"/>
+    <mergeCell ref="AD89:AI89"/>
+    <mergeCell ref="AD90:AI90"/>
+    <mergeCell ref="AD91:AI91"/>
+    <mergeCell ref="AD92:AI92"/>
+    <mergeCell ref="AD93:AI93"/>
+    <mergeCell ref="R89:W89"/>
+    <mergeCell ref="R90:W90"/>
+    <mergeCell ref="R91:W91"/>
+    <mergeCell ref="R92:W92"/>
+    <mergeCell ref="R93:W93"/>
+    <mergeCell ref="R94:W94"/>
+    <mergeCell ref="AD94:AI94"/>
+    <mergeCell ref="AD96:AI96"/>
+    <mergeCell ref="R96:W96"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17627,7 +17627,7 @@
   </sheetPr>
   <dimension ref="A1:BP83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -20023,73 +20023,73 @@
       <c r="B35" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="144" t="s">
+      <c r="C35" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="145"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="147" t="s">
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="M35" s="145"/>
-      <c r="N35" s="145"/>
-      <c r="O35" s="145"/>
-      <c r="P35" s="145"/>
-      <c r="Q35" s="146"/>
-      <c r="R35" s="147" t="s">
+      <c r="M35" s="151"/>
+      <c r="N35" s="151"/>
+      <c r="O35" s="151"/>
+      <c r="P35" s="151"/>
+      <c r="Q35" s="152"/>
+      <c r="R35" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="S35" s="145"/>
-      <c r="T35" s="145"/>
-      <c r="U35" s="145"/>
-      <c r="V35" s="145"/>
-      <c r="W35" s="146"/>
-      <c r="X35" s="147" t="s">
+      <c r="S35" s="151"/>
+      <c r="T35" s="151"/>
+      <c r="U35" s="151"/>
+      <c r="V35" s="151"/>
+      <c r="W35" s="152"/>
+      <c r="X35" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="Y35" s="145"/>
-      <c r="Z35" s="145"/>
-      <c r="AA35" s="145"/>
-      <c r="AB35" s="145"/>
-      <c r="AC35" s="146"/>
-      <c r="AD35" s="147" t="s">
+      <c r="Y35" s="151"/>
+      <c r="Z35" s="151"/>
+      <c r="AA35" s="151"/>
+      <c r="AB35" s="151"/>
+      <c r="AC35" s="152"/>
+      <c r="AD35" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="AE35" s="145"/>
-      <c r="AF35" s="145"/>
-      <c r="AG35" s="145"/>
-      <c r="AH35" s="145"/>
-      <c r="AI35" s="145"/>
-      <c r="AJ35" s="154" t="s">
+      <c r="AE35" s="151"/>
+      <c r="AF35" s="151"/>
+      <c r="AG35" s="151"/>
+      <c r="AH35" s="151"/>
+      <c r="AI35" s="151"/>
+      <c r="AJ35" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="AK35" s="154"/>
-      <c r="AL35" s="154"/>
-      <c r="AM35" s="154"/>
-      <c r="AN35" s="154"/>
-      <c r="AO35" s="154"/>
-      <c r="AP35" s="154"/>
-      <c r="AQ35" s="154"/>
-      <c r="AR35" s="154"/>
-      <c r="AS35" s="154"/>
-      <c r="AT35" s="154"/>
-      <c r="AU35" s="154"/>
-      <c r="AV35" s="154"/>
-      <c r="AW35" s="154"/>
-      <c r="AX35" s="154"/>
-      <c r="AY35" s="154"/>
-      <c r="AZ35" s="154"/>
-      <c r="BA35" s="154"/>
-      <c r="BB35" s="154"/>
-      <c r="BC35" s="154"/>
-      <c r="BD35" s="154"/>
-      <c r="BE35" s="154"/>
+      <c r="AK35" s="139"/>
+      <c r="AL35" s="139"/>
+      <c r="AM35" s="139"/>
+      <c r="AN35" s="139"/>
+      <c r="AO35" s="139"/>
+      <c r="AP35" s="139"/>
+      <c r="AQ35" s="139"/>
+      <c r="AR35" s="139"/>
+      <c r="AS35" s="139"/>
+      <c r="AT35" s="139"/>
+      <c r="AU35" s="139"/>
+      <c r="AV35" s="139"/>
+      <c r="AW35" s="139"/>
+      <c r="AX35" s="139"/>
+      <c r="AY35" s="139"/>
+      <c r="AZ35" s="139"/>
+      <c r="BA35" s="139"/>
+      <c r="BB35" s="139"/>
+      <c r="BC35" s="139"/>
+      <c r="BD35" s="139"/>
+      <c r="BE35" s="139"/>
       <c r="BF35" s="8"/>
       <c r="BG35" s="8"/>
       <c r="BH35" s="8"/>
@@ -20108,67 +20108,67 @@
         <f ca="1">MAX(B$35:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C36" s="148" t="s">
+      <c r="C36" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="142" t="s">
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="141"/>
+      <c r="I36" s="141"/>
+      <c r="J36" s="141"/>
+      <c r="K36" s="142"/>
+      <c r="L36" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="M36" s="141"/>
-      <c r="N36" s="141"/>
-      <c r="O36" s="141"/>
-      <c r="P36" s="141"/>
-      <c r="Q36" s="143"/>
-      <c r="R36" s="142" t="s">
+      <c r="M36" s="144"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="144"/>
+      <c r="P36" s="144"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="S36" s="141"/>
-      <c r="T36" s="141"/>
-      <c r="U36" s="141"/>
-      <c r="V36" s="141"/>
-      <c r="W36" s="143"/>
-      <c r="X36" s="148"/>
-      <c r="Y36" s="149"/>
-      <c r="Z36" s="149"/>
-      <c r="AA36" s="149"/>
-      <c r="AB36" s="149"/>
-      <c r="AC36" s="150"/>
-      <c r="AD36" s="140"/>
-      <c r="AE36" s="141"/>
-      <c r="AF36" s="141"/>
-      <c r="AG36" s="141"/>
-      <c r="AH36" s="141"/>
-      <c r="AI36" s="141"/>
-      <c r="AJ36" s="95"/>
-      <c r="AK36" s="95"/>
-      <c r="AL36" s="95"/>
-      <c r="AM36" s="95"/>
-      <c r="AN36" s="95"/>
-      <c r="AO36" s="95"/>
-      <c r="AP36" s="95"/>
-      <c r="AQ36" s="95"/>
-      <c r="AR36" s="95"/>
-      <c r="AS36" s="95"/>
-      <c r="AT36" s="95"/>
-      <c r="AU36" s="95"/>
-      <c r="AV36" s="95"/>
-      <c r="AW36" s="95"/>
-      <c r="AX36" s="95"/>
-      <c r="AY36" s="95"/>
-      <c r="AZ36" s="95"/>
-      <c r="BA36" s="95"/>
-      <c r="BB36" s="95"/>
-      <c r="BC36" s="95"/>
-      <c r="BD36" s="95"/>
-      <c r="BE36" s="95"/>
+      <c r="S36" s="144"/>
+      <c r="T36" s="144"/>
+      <c r="U36" s="144"/>
+      <c r="V36" s="144"/>
+      <c r="W36" s="145"/>
+      <c r="X36" s="140"/>
+      <c r="Y36" s="141"/>
+      <c r="Z36" s="141"/>
+      <c r="AA36" s="141"/>
+      <c r="AB36" s="141"/>
+      <c r="AC36" s="142"/>
+      <c r="AD36" s="146"/>
+      <c r="AE36" s="144"/>
+      <c r="AF36" s="144"/>
+      <c r="AG36" s="144"/>
+      <c r="AH36" s="144"/>
+      <c r="AI36" s="144"/>
+      <c r="AJ36" s="122"/>
+      <c r="AK36" s="122"/>
+      <c r="AL36" s="122"/>
+      <c r="AM36" s="122"/>
+      <c r="AN36" s="122"/>
+      <c r="AO36" s="122"/>
+      <c r="AP36" s="122"/>
+      <c r="AQ36" s="122"/>
+      <c r="AR36" s="122"/>
+      <c r="AS36" s="122"/>
+      <c r="AT36" s="122"/>
+      <c r="AU36" s="122"/>
+      <c r="AV36" s="122"/>
+      <c r="AW36" s="122"/>
+      <c r="AX36" s="122"/>
+      <c r="AY36" s="122"/>
+      <c r="AZ36" s="122"/>
+      <c r="BA36" s="122"/>
+      <c r="BB36" s="122"/>
+      <c r="BC36" s="122"/>
+      <c r="BD36" s="122"/>
+      <c r="BE36" s="122"/>
       <c r="BF36" s="8"/>
       <c r="BG36" s="8"/>
       <c r="BH36" s="8"/>
@@ -20187,67 +20187,67 @@
         <f ca="1">MAX(B$35:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C37" s="148" t="s">
+      <c r="C37" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="142" t="s">
+      <c r="D37" s="141"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="141"/>
+      <c r="K37" s="142"/>
+      <c r="L37" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="M37" s="141"/>
-      <c r="N37" s="141"/>
-      <c r="O37" s="141"/>
-      <c r="P37" s="141"/>
-      <c r="Q37" s="143"/>
-      <c r="R37" s="142" t="s">
+      <c r="M37" s="144"/>
+      <c r="N37" s="144"/>
+      <c r="O37" s="144"/>
+      <c r="P37" s="144"/>
+      <c r="Q37" s="145"/>
+      <c r="R37" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="S37" s="141"/>
-      <c r="T37" s="141"/>
-      <c r="U37" s="141"/>
-      <c r="V37" s="141"/>
-      <c r="W37" s="143"/>
-      <c r="X37" s="148"/>
-      <c r="Y37" s="149"/>
-      <c r="Z37" s="149"/>
-      <c r="AA37" s="149"/>
-      <c r="AB37" s="149"/>
-      <c r="AC37" s="150"/>
-      <c r="AD37" s="140"/>
-      <c r="AE37" s="141"/>
-      <c r="AF37" s="141"/>
-      <c r="AG37" s="141"/>
-      <c r="AH37" s="141"/>
-      <c r="AI37" s="141"/>
-      <c r="AJ37" s="95"/>
-      <c r="AK37" s="95"/>
-      <c r="AL37" s="95"/>
-      <c r="AM37" s="95"/>
-      <c r="AN37" s="95"/>
-      <c r="AO37" s="95"/>
-      <c r="AP37" s="95"/>
-      <c r="AQ37" s="95"/>
-      <c r="AR37" s="95"/>
-      <c r="AS37" s="95"/>
-      <c r="AT37" s="95"/>
-      <c r="AU37" s="95"/>
-      <c r="AV37" s="95"/>
-      <c r="AW37" s="95"/>
-      <c r="AX37" s="95"/>
-      <c r="AY37" s="95"/>
-      <c r="AZ37" s="95"/>
-      <c r="BA37" s="95"/>
-      <c r="BB37" s="95"/>
-      <c r="BC37" s="95"/>
-      <c r="BD37" s="95"/>
-      <c r="BE37" s="95"/>
+      <c r="S37" s="144"/>
+      <c r="T37" s="144"/>
+      <c r="U37" s="144"/>
+      <c r="V37" s="144"/>
+      <c r="W37" s="145"/>
+      <c r="X37" s="140"/>
+      <c r="Y37" s="141"/>
+      <c r="Z37" s="141"/>
+      <c r="AA37" s="141"/>
+      <c r="AB37" s="141"/>
+      <c r="AC37" s="142"/>
+      <c r="AD37" s="146"/>
+      <c r="AE37" s="144"/>
+      <c r="AF37" s="144"/>
+      <c r="AG37" s="144"/>
+      <c r="AH37" s="144"/>
+      <c r="AI37" s="144"/>
+      <c r="AJ37" s="122"/>
+      <c r="AK37" s="122"/>
+      <c r="AL37" s="122"/>
+      <c r="AM37" s="122"/>
+      <c r="AN37" s="122"/>
+      <c r="AO37" s="122"/>
+      <c r="AP37" s="122"/>
+      <c r="AQ37" s="122"/>
+      <c r="AR37" s="122"/>
+      <c r="AS37" s="122"/>
+      <c r="AT37" s="122"/>
+      <c r="AU37" s="122"/>
+      <c r="AV37" s="122"/>
+      <c r="AW37" s="122"/>
+      <c r="AX37" s="122"/>
+      <c r="AY37" s="122"/>
+      <c r="AZ37" s="122"/>
+      <c r="BA37" s="122"/>
+      <c r="BB37" s="122"/>
+      <c r="BC37" s="122"/>
+      <c r="BD37" s="122"/>
+      <c r="BE37" s="122"/>
       <c r="BF37" s="8"/>
       <c r="BG37" s="8"/>
       <c r="BH37" s="8"/>
@@ -20266,67 +20266,67 @@
         <f ca="1">MAX(B$35:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C38" s="148" t="s">
+      <c r="C38" s="140" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="142" t="s">
+      <c r="D38" s="141"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="141"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="141"/>
+      <c r="K38" s="142"/>
+      <c r="L38" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="M38" s="141"/>
-      <c r="N38" s="141"/>
-      <c r="O38" s="141"/>
-      <c r="P38" s="141"/>
-      <c r="Q38" s="143"/>
-      <c r="R38" s="142" t="s">
+      <c r="M38" s="144"/>
+      <c r="N38" s="144"/>
+      <c r="O38" s="144"/>
+      <c r="P38" s="144"/>
+      <c r="Q38" s="145"/>
+      <c r="R38" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="S38" s="141"/>
-      <c r="T38" s="141"/>
-      <c r="U38" s="141"/>
-      <c r="V38" s="141"/>
-      <c r="W38" s="143"/>
-      <c r="X38" s="148"/>
-      <c r="Y38" s="149"/>
-      <c r="Z38" s="149"/>
-      <c r="AA38" s="149"/>
-      <c r="AB38" s="149"/>
-      <c r="AC38" s="150"/>
-      <c r="AD38" s="140"/>
-      <c r="AE38" s="141"/>
-      <c r="AF38" s="141"/>
-      <c r="AG38" s="141"/>
-      <c r="AH38" s="141"/>
-      <c r="AI38" s="141"/>
-      <c r="AJ38" s="95"/>
-      <c r="AK38" s="95"/>
-      <c r="AL38" s="95"/>
-      <c r="AM38" s="95"/>
-      <c r="AN38" s="95"/>
-      <c r="AO38" s="95"/>
-      <c r="AP38" s="95"/>
-      <c r="AQ38" s="95"/>
-      <c r="AR38" s="95"/>
-      <c r="AS38" s="95"/>
-      <c r="AT38" s="95"/>
-      <c r="AU38" s="95"/>
-      <c r="AV38" s="95"/>
-      <c r="AW38" s="95"/>
-      <c r="AX38" s="95"/>
-      <c r="AY38" s="95"/>
-      <c r="AZ38" s="95"/>
-      <c r="BA38" s="95"/>
-      <c r="BB38" s="95"/>
-      <c r="BC38" s="95"/>
-      <c r="BD38" s="95"/>
-      <c r="BE38" s="95"/>
+      <c r="S38" s="144"/>
+      <c r="T38" s="144"/>
+      <c r="U38" s="144"/>
+      <c r="V38" s="144"/>
+      <c r="W38" s="145"/>
+      <c r="X38" s="140"/>
+      <c r="Y38" s="141"/>
+      <c r="Z38" s="141"/>
+      <c r="AA38" s="141"/>
+      <c r="AB38" s="141"/>
+      <c r="AC38" s="142"/>
+      <c r="AD38" s="146"/>
+      <c r="AE38" s="144"/>
+      <c r="AF38" s="144"/>
+      <c r="AG38" s="144"/>
+      <c r="AH38" s="144"/>
+      <c r="AI38" s="144"/>
+      <c r="AJ38" s="122"/>
+      <c r="AK38" s="122"/>
+      <c r="AL38" s="122"/>
+      <c r="AM38" s="122"/>
+      <c r="AN38" s="122"/>
+      <c r="AO38" s="122"/>
+      <c r="AP38" s="122"/>
+      <c r="AQ38" s="122"/>
+      <c r="AR38" s="122"/>
+      <c r="AS38" s="122"/>
+      <c r="AT38" s="122"/>
+      <c r="AU38" s="122"/>
+      <c r="AV38" s="122"/>
+      <c r="AW38" s="122"/>
+      <c r="AX38" s="122"/>
+      <c r="AY38" s="122"/>
+      <c r="AZ38" s="122"/>
+      <c r="BA38" s="122"/>
+      <c r="BB38" s="122"/>
+      <c r="BC38" s="122"/>
+      <c r="BD38" s="122"/>
+      <c r="BE38" s="122"/>
       <c r="BF38" s="8"/>
       <c r="BG38" s="8"/>
       <c r="BH38" s="8"/>
@@ -20345,67 +20345,67 @@
         <f ca="1">MAX(B$35:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C39" s="148" t="s">
+      <c r="C39" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="142" t="s">
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="142"/>
+      <c r="L39" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="M39" s="141"/>
-      <c r="N39" s="141"/>
-      <c r="O39" s="141"/>
-      <c r="P39" s="141"/>
-      <c r="Q39" s="143"/>
-      <c r="R39" s="142" t="s">
+      <c r="M39" s="144"/>
+      <c r="N39" s="144"/>
+      <c r="O39" s="144"/>
+      <c r="P39" s="144"/>
+      <c r="Q39" s="145"/>
+      <c r="R39" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="S39" s="141"/>
-      <c r="T39" s="141"/>
-      <c r="U39" s="141"/>
-      <c r="V39" s="141"/>
-      <c r="W39" s="143"/>
-      <c r="X39" s="148"/>
-      <c r="Y39" s="149"/>
-      <c r="Z39" s="149"/>
-      <c r="AA39" s="149"/>
-      <c r="AB39" s="149"/>
-      <c r="AC39" s="150"/>
-      <c r="AD39" s="140"/>
-      <c r="AE39" s="141"/>
-      <c r="AF39" s="141"/>
-      <c r="AG39" s="141"/>
-      <c r="AH39" s="141"/>
-      <c r="AI39" s="141"/>
-      <c r="AJ39" s="95"/>
-      <c r="AK39" s="95"/>
-      <c r="AL39" s="95"/>
-      <c r="AM39" s="95"/>
-      <c r="AN39" s="95"/>
-      <c r="AO39" s="95"/>
-      <c r="AP39" s="95"/>
-      <c r="AQ39" s="95"/>
-      <c r="AR39" s="95"/>
-      <c r="AS39" s="95"/>
-      <c r="AT39" s="95"/>
-      <c r="AU39" s="95"/>
-      <c r="AV39" s="95"/>
-      <c r="AW39" s="95"/>
-      <c r="AX39" s="95"/>
-      <c r="AY39" s="95"/>
-      <c r="AZ39" s="95"/>
-      <c r="BA39" s="95"/>
-      <c r="BB39" s="95"/>
-      <c r="BC39" s="95"/>
-      <c r="BD39" s="95"/>
-      <c r="BE39" s="95"/>
+      <c r="S39" s="144"/>
+      <c r="T39" s="144"/>
+      <c r="U39" s="144"/>
+      <c r="V39" s="144"/>
+      <c r="W39" s="145"/>
+      <c r="X39" s="140"/>
+      <c r="Y39" s="141"/>
+      <c r="Z39" s="141"/>
+      <c r="AA39" s="141"/>
+      <c r="AB39" s="141"/>
+      <c r="AC39" s="142"/>
+      <c r="AD39" s="146"/>
+      <c r="AE39" s="144"/>
+      <c r="AF39" s="144"/>
+      <c r="AG39" s="144"/>
+      <c r="AH39" s="144"/>
+      <c r="AI39" s="144"/>
+      <c r="AJ39" s="122"/>
+      <c r="AK39" s="122"/>
+      <c r="AL39" s="122"/>
+      <c r="AM39" s="122"/>
+      <c r="AN39" s="122"/>
+      <c r="AO39" s="122"/>
+      <c r="AP39" s="122"/>
+      <c r="AQ39" s="122"/>
+      <c r="AR39" s="122"/>
+      <c r="AS39" s="122"/>
+      <c r="AT39" s="122"/>
+      <c r="AU39" s="122"/>
+      <c r="AV39" s="122"/>
+      <c r="AW39" s="122"/>
+      <c r="AX39" s="122"/>
+      <c r="AY39" s="122"/>
+      <c r="AZ39" s="122"/>
+      <c r="BA39" s="122"/>
+      <c r="BB39" s="122"/>
+      <c r="BC39" s="122"/>
+      <c r="BD39" s="122"/>
+      <c r="BE39" s="122"/>
       <c r="BF39" s="8"/>
       <c r="BG39" s="8"/>
       <c r="BH39" s="8"/>
@@ -20424,67 +20424,67 @@
         <f ca="1">MAX(B$35:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C40" s="148" t="s">
+      <c r="C40" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="142" t="s">
+      <c r="D40" s="141"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="141"/>
+      <c r="J40" s="141"/>
+      <c r="K40" s="142"/>
+      <c r="L40" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="M40" s="141"/>
-      <c r="N40" s="141"/>
-      <c r="O40" s="141"/>
-      <c r="P40" s="141"/>
-      <c r="Q40" s="143"/>
-      <c r="R40" s="142" t="s">
+      <c r="M40" s="144"/>
+      <c r="N40" s="144"/>
+      <c r="O40" s="144"/>
+      <c r="P40" s="144"/>
+      <c r="Q40" s="145"/>
+      <c r="R40" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="S40" s="141"/>
-      <c r="T40" s="141"/>
-      <c r="U40" s="141"/>
-      <c r="V40" s="141"/>
-      <c r="W40" s="143"/>
-      <c r="X40" s="148"/>
-      <c r="Y40" s="149"/>
-      <c r="Z40" s="149"/>
-      <c r="AA40" s="149"/>
-      <c r="AB40" s="149"/>
-      <c r="AC40" s="150"/>
-      <c r="AD40" s="140"/>
-      <c r="AE40" s="141"/>
-      <c r="AF40" s="141"/>
-      <c r="AG40" s="141"/>
-      <c r="AH40" s="141"/>
-      <c r="AI40" s="141"/>
-      <c r="AJ40" s="95"/>
-      <c r="AK40" s="95"/>
-      <c r="AL40" s="95"/>
-      <c r="AM40" s="95"/>
-      <c r="AN40" s="95"/>
-      <c r="AO40" s="95"/>
-      <c r="AP40" s="95"/>
-      <c r="AQ40" s="95"/>
-      <c r="AR40" s="95"/>
-      <c r="AS40" s="95"/>
-      <c r="AT40" s="95"/>
-      <c r="AU40" s="95"/>
-      <c r="AV40" s="95"/>
-      <c r="AW40" s="95"/>
-      <c r="AX40" s="95"/>
-      <c r="AY40" s="95"/>
-      <c r="AZ40" s="95"/>
-      <c r="BA40" s="95"/>
-      <c r="BB40" s="95"/>
-      <c r="BC40" s="95"/>
-      <c r="BD40" s="95"/>
-      <c r="BE40" s="95"/>
+      <c r="S40" s="144"/>
+      <c r="T40" s="144"/>
+      <c r="U40" s="144"/>
+      <c r="V40" s="144"/>
+      <c r="W40" s="145"/>
+      <c r="X40" s="140"/>
+      <c r="Y40" s="141"/>
+      <c r="Z40" s="141"/>
+      <c r="AA40" s="141"/>
+      <c r="AB40" s="141"/>
+      <c r="AC40" s="142"/>
+      <c r="AD40" s="146"/>
+      <c r="AE40" s="144"/>
+      <c r="AF40" s="144"/>
+      <c r="AG40" s="144"/>
+      <c r="AH40" s="144"/>
+      <c r="AI40" s="144"/>
+      <c r="AJ40" s="122"/>
+      <c r="AK40" s="122"/>
+      <c r="AL40" s="122"/>
+      <c r="AM40" s="122"/>
+      <c r="AN40" s="122"/>
+      <c r="AO40" s="122"/>
+      <c r="AP40" s="122"/>
+      <c r="AQ40" s="122"/>
+      <c r="AR40" s="122"/>
+      <c r="AS40" s="122"/>
+      <c r="AT40" s="122"/>
+      <c r="AU40" s="122"/>
+      <c r="AV40" s="122"/>
+      <c r="AW40" s="122"/>
+      <c r="AX40" s="122"/>
+      <c r="AY40" s="122"/>
+      <c r="AZ40" s="122"/>
+      <c r="BA40" s="122"/>
+      <c r="BB40" s="122"/>
+      <c r="BC40" s="122"/>
+      <c r="BD40" s="122"/>
+      <c r="BE40" s="122"/>
       <c r="BF40" s="8"/>
       <c r="BG40" s="8"/>
       <c r="BH40" s="8"/>
@@ -20503,67 +20503,67 @@
         <f ca="1">MAX(B$35:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>6</v>
       </c>
-      <c r="C41" s="148" t="s">
+      <c r="C41" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="142" t="s">
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="141"/>
+      <c r="K41" s="142"/>
+      <c r="L41" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="M41" s="141"/>
-      <c r="N41" s="141"/>
-      <c r="O41" s="141"/>
-      <c r="P41" s="141"/>
-      <c r="Q41" s="143"/>
-      <c r="R41" s="142" t="s">
+      <c r="M41" s="144"/>
+      <c r="N41" s="144"/>
+      <c r="O41" s="144"/>
+      <c r="P41" s="144"/>
+      <c r="Q41" s="145"/>
+      <c r="R41" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="S41" s="141"/>
-      <c r="T41" s="141"/>
-      <c r="U41" s="141"/>
-      <c r="V41" s="141"/>
-      <c r="W41" s="143"/>
-      <c r="X41" s="148"/>
-      <c r="Y41" s="149"/>
-      <c r="Z41" s="149"/>
-      <c r="AA41" s="149"/>
-      <c r="AB41" s="149"/>
-      <c r="AC41" s="150"/>
-      <c r="AD41" s="140"/>
-      <c r="AE41" s="141"/>
-      <c r="AF41" s="141"/>
-      <c r="AG41" s="141"/>
-      <c r="AH41" s="141"/>
-      <c r="AI41" s="141"/>
-      <c r="AJ41" s="95"/>
-      <c r="AK41" s="95"/>
-      <c r="AL41" s="95"/>
-      <c r="AM41" s="95"/>
-      <c r="AN41" s="95"/>
-      <c r="AO41" s="95"/>
-      <c r="AP41" s="95"/>
-      <c r="AQ41" s="95"/>
-      <c r="AR41" s="95"/>
-      <c r="AS41" s="95"/>
-      <c r="AT41" s="95"/>
-      <c r="AU41" s="95"/>
-      <c r="AV41" s="95"/>
-      <c r="AW41" s="95"/>
-      <c r="AX41" s="95"/>
-      <c r="AY41" s="95"/>
-      <c r="AZ41" s="95"/>
-      <c r="BA41" s="95"/>
-      <c r="BB41" s="95"/>
-      <c r="BC41" s="95"/>
-      <c r="BD41" s="95"/>
-      <c r="BE41" s="95"/>
+      <c r="S41" s="144"/>
+      <c r="T41" s="144"/>
+      <c r="U41" s="144"/>
+      <c r="V41" s="144"/>
+      <c r="W41" s="145"/>
+      <c r="X41" s="140"/>
+      <c r="Y41" s="141"/>
+      <c r="Z41" s="141"/>
+      <c r="AA41" s="141"/>
+      <c r="AB41" s="141"/>
+      <c r="AC41" s="142"/>
+      <c r="AD41" s="146"/>
+      <c r="AE41" s="144"/>
+      <c r="AF41" s="144"/>
+      <c r="AG41" s="144"/>
+      <c r="AH41" s="144"/>
+      <c r="AI41" s="144"/>
+      <c r="AJ41" s="122"/>
+      <c r="AK41" s="122"/>
+      <c r="AL41" s="122"/>
+      <c r="AM41" s="122"/>
+      <c r="AN41" s="122"/>
+      <c r="AO41" s="122"/>
+      <c r="AP41" s="122"/>
+      <c r="AQ41" s="122"/>
+      <c r="AR41" s="122"/>
+      <c r="AS41" s="122"/>
+      <c r="AT41" s="122"/>
+      <c r="AU41" s="122"/>
+      <c r="AV41" s="122"/>
+      <c r="AW41" s="122"/>
+      <c r="AX41" s="122"/>
+      <c r="AY41" s="122"/>
+      <c r="AZ41" s="122"/>
+      <c r="BA41" s="122"/>
+      <c r="BB41" s="122"/>
+      <c r="BC41" s="122"/>
+      <c r="BD41" s="122"/>
+      <c r="BE41" s="122"/>
       <c r="BF41" s="8"/>
       <c r="BG41" s="8"/>
       <c r="BH41" s="8"/>
@@ -20582,67 +20582,67 @@
         <f ca="1">MAX(B$35:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>7</v>
       </c>
-      <c r="C42" s="148" t="s">
+      <c r="C42" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="142" t="s">
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="142"/>
+      <c r="L42" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="141"/>
-      <c r="N42" s="141"/>
-      <c r="O42" s="141"/>
-      <c r="P42" s="141"/>
-      <c r="Q42" s="143"/>
-      <c r="R42" s="142"/>
-      <c r="S42" s="141"/>
-      <c r="T42" s="141"/>
-      <c r="U42" s="141"/>
-      <c r="V42" s="141"/>
-      <c r="W42" s="143"/>
-      <c r="X42" s="148"/>
-      <c r="Y42" s="149"/>
-      <c r="Z42" s="149"/>
-      <c r="AA42" s="149"/>
-      <c r="AB42" s="149"/>
-      <c r="AC42" s="150"/>
-      <c r="AD42" s="140"/>
-      <c r="AE42" s="141"/>
-      <c r="AF42" s="141"/>
-      <c r="AG42" s="141"/>
-      <c r="AH42" s="141"/>
-      <c r="AI42" s="141"/>
-      <c r="AJ42" s="83" t="s">
+      <c r="M42" s="144"/>
+      <c r="N42" s="144"/>
+      <c r="O42" s="144"/>
+      <c r="P42" s="144"/>
+      <c r="Q42" s="145"/>
+      <c r="R42" s="143"/>
+      <c r="S42" s="144"/>
+      <c r="T42" s="144"/>
+      <c r="U42" s="144"/>
+      <c r="V42" s="144"/>
+      <c r="W42" s="145"/>
+      <c r="X42" s="140"/>
+      <c r="Y42" s="141"/>
+      <c r="Z42" s="141"/>
+      <c r="AA42" s="141"/>
+      <c r="AB42" s="141"/>
+      <c r="AC42" s="142"/>
+      <c r="AD42" s="146"/>
+      <c r="AE42" s="144"/>
+      <c r="AF42" s="144"/>
+      <c r="AG42" s="144"/>
+      <c r="AH42" s="144"/>
+      <c r="AI42" s="144"/>
+      <c r="AJ42" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="AK42" s="95"/>
-      <c r="AL42" s="95"/>
-      <c r="AM42" s="95"/>
-      <c r="AN42" s="95"/>
-      <c r="AO42" s="95"/>
-      <c r="AP42" s="95"/>
-      <c r="AQ42" s="95"/>
-      <c r="AR42" s="95"/>
-      <c r="AS42" s="95"/>
-      <c r="AT42" s="95"/>
-      <c r="AU42" s="95"/>
-      <c r="AV42" s="95"/>
-      <c r="AW42" s="95"/>
-      <c r="AX42" s="95"/>
-      <c r="AY42" s="95"/>
-      <c r="AZ42" s="95"/>
-      <c r="BA42" s="95"/>
-      <c r="BB42" s="95"/>
-      <c r="BC42" s="95"/>
-      <c r="BD42" s="95"/>
-      <c r="BE42" s="95"/>
+      <c r="AK42" s="122"/>
+      <c r="AL42" s="122"/>
+      <c r="AM42" s="122"/>
+      <c r="AN42" s="122"/>
+      <c r="AO42" s="122"/>
+      <c r="AP42" s="122"/>
+      <c r="AQ42" s="122"/>
+      <c r="AR42" s="122"/>
+      <c r="AS42" s="122"/>
+      <c r="AT42" s="122"/>
+      <c r="AU42" s="122"/>
+      <c r="AV42" s="122"/>
+      <c r="AW42" s="122"/>
+      <c r="AX42" s="122"/>
+      <c r="AY42" s="122"/>
+      <c r="AZ42" s="122"/>
+      <c r="BA42" s="122"/>
+      <c r="BB42" s="122"/>
+      <c r="BC42" s="122"/>
+      <c r="BD42" s="122"/>
+      <c r="BE42" s="122"/>
       <c r="BF42" s="8"/>
       <c r="BG42" s="8"/>
       <c r="BH42" s="8"/>
@@ -20661,67 +20661,67 @@
         <f ca="1">MAX(B$35:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>8</v>
       </c>
-      <c r="C43" s="148" t="s">
+      <c r="C43" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="142" t="s">
+      <c r="D43" s="141"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="142"/>
+      <c r="L43" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="M43" s="141"/>
-      <c r="N43" s="141"/>
-      <c r="O43" s="141"/>
-      <c r="P43" s="141"/>
-      <c r="Q43" s="143"/>
-      <c r="R43" s="151" t="s">
+      <c r="M43" s="144"/>
+      <c r="N43" s="144"/>
+      <c r="O43" s="144"/>
+      <c r="P43" s="144"/>
+      <c r="Q43" s="145"/>
+      <c r="R43" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="S43" s="152"/>
-      <c r="T43" s="152"/>
-      <c r="U43" s="152"/>
-      <c r="V43" s="152"/>
-      <c r="W43" s="153"/>
-      <c r="X43" s="148"/>
-      <c r="Y43" s="149"/>
-      <c r="Z43" s="149"/>
-      <c r="AA43" s="149"/>
-      <c r="AB43" s="149"/>
-      <c r="AC43" s="150"/>
-      <c r="AD43" s="140"/>
-      <c r="AE43" s="141"/>
-      <c r="AF43" s="141"/>
-      <c r="AG43" s="141"/>
-      <c r="AH43" s="141"/>
-      <c r="AI43" s="141"/>
-      <c r="AJ43" s="95"/>
-      <c r="AK43" s="95"/>
-      <c r="AL43" s="95"/>
-      <c r="AM43" s="95"/>
-      <c r="AN43" s="95"/>
-      <c r="AO43" s="95"/>
-      <c r="AP43" s="95"/>
-      <c r="AQ43" s="95"/>
-      <c r="AR43" s="95"/>
-      <c r="AS43" s="95"/>
-      <c r="AT43" s="95"/>
-      <c r="AU43" s="95"/>
-      <c r="AV43" s="95"/>
-      <c r="AW43" s="95"/>
-      <c r="AX43" s="95"/>
-      <c r="AY43" s="95"/>
-      <c r="AZ43" s="95"/>
-      <c r="BA43" s="95"/>
-      <c r="BB43" s="95"/>
-      <c r="BC43" s="95"/>
-      <c r="BD43" s="95"/>
-      <c r="BE43" s="95"/>
+      <c r="S43" s="148"/>
+      <c r="T43" s="148"/>
+      <c r="U43" s="148"/>
+      <c r="V43" s="148"/>
+      <c r="W43" s="149"/>
+      <c r="X43" s="140"/>
+      <c r="Y43" s="141"/>
+      <c r="Z43" s="141"/>
+      <c r="AA43" s="141"/>
+      <c r="AB43" s="141"/>
+      <c r="AC43" s="142"/>
+      <c r="AD43" s="146"/>
+      <c r="AE43" s="144"/>
+      <c r="AF43" s="144"/>
+      <c r="AG43" s="144"/>
+      <c r="AH43" s="144"/>
+      <c r="AI43" s="144"/>
+      <c r="AJ43" s="122"/>
+      <c r="AK43" s="122"/>
+      <c r="AL43" s="122"/>
+      <c r="AM43" s="122"/>
+      <c r="AN43" s="122"/>
+      <c r="AO43" s="122"/>
+      <c r="AP43" s="122"/>
+      <c r="AQ43" s="122"/>
+      <c r="AR43" s="122"/>
+      <c r="AS43" s="122"/>
+      <c r="AT43" s="122"/>
+      <c r="AU43" s="122"/>
+      <c r="AV43" s="122"/>
+      <c r="AW43" s="122"/>
+      <c r="AX43" s="122"/>
+      <c r="AY43" s="122"/>
+      <c r="AZ43" s="122"/>
+      <c r="BA43" s="122"/>
+      <c r="BB43" s="122"/>
+      <c r="BC43" s="122"/>
+      <c r="BD43" s="122"/>
+      <c r="BE43" s="122"/>
       <c r="BF43" s="8"/>
       <c r="BG43" s="8"/>
       <c r="BH43" s="8"/>
@@ -20740,67 +20740,67 @@
         <f ca="1">MAX(B$35:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>9</v>
       </c>
-      <c r="C44" s="148" t="s">
+      <c r="C44" s="140" t="s">
         <v>172</v>
       </c>
-      <c r="D44" s="149"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="149"/>
-      <c r="H44" s="149"/>
-      <c r="I44" s="149"/>
-      <c r="J44" s="149"/>
-      <c r="K44" s="150"/>
-      <c r="L44" s="142" t="s">
+      <c r="D44" s="141"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="141"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="141"/>
+      <c r="K44" s="142"/>
+      <c r="L44" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="M44" s="141"/>
-      <c r="N44" s="141"/>
-      <c r="O44" s="141"/>
-      <c r="P44" s="141"/>
-      <c r="Q44" s="143"/>
-      <c r="R44" s="142" t="s">
+      <c r="M44" s="144"/>
+      <c r="N44" s="144"/>
+      <c r="O44" s="144"/>
+      <c r="P44" s="144"/>
+      <c r="Q44" s="145"/>
+      <c r="R44" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="S44" s="141"/>
-      <c r="T44" s="141"/>
-      <c r="U44" s="141"/>
-      <c r="V44" s="141"/>
-      <c r="W44" s="143"/>
-      <c r="X44" s="148"/>
-      <c r="Y44" s="149"/>
-      <c r="Z44" s="149"/>
-      <c r="AA44" s="149"/>
-      <c r="AB44" s="149"/>
-      <c r="AC44" s="150"/>
-      <c r="AD44" s="140"/>
-      <c r="AE44" s="141"/>
-      <c r="AF44" s="141"/>
-      <c r="AG44" s="141"/>
-      <c r="AH44" s="141"/>
-      <c r="AI44" s="141"/>
-      <c r="AJ44" s="95"/>
-      <c r="AK44" s="95"/>
-      <c r="AL44" s="95"/>
-      <c r="AM44" s="95"/>
-      <c r="AN44" s="95"/>
-      <c r="AO44" s="95"/>
-      <c r="AP44" s="95"/>
-      <c r="AQ44" s="95"/>
-      <c r="AR44" s="95"/>
-      <c r="AS44" s="95"/>
-      <c r="AT44" s="95"/>
-      <c r="AU44" s="95"/>
-      <c r="AV44" s="95"/>
-      <c r="AW44" s="95"/>
-      <c r="AX44" s="95"/>
-      <c r="AY44" s="95"/>
-      <c r="AZ44" s="95"/>
-      <c r="BA44" s="95"/>
-      <c r="BB44" s="95"/>
-      <c r="BC44" s="95"/>
-      <c r="BD44" s="95"/>
-      <c r="BE44" s="95"/>
+      <c r="S44" s="144"/>
+      <c r="T44" s="144"/>
+      <c r="U44" s="144"/>
+      <c r="V44" s="144"/>
+      <c r="W44" s="145"/>
+      <c r="X44" s="140"/>
+      <c r="Y44" s="141"/>
+      <c r="Z44" s="141"/>
+      <c r="AA44" s="141"/>
+      <c r="AB44" s="141"/>
+      <c r="AC44" s="142"/>
+      <c r="AD44" s="146"/>
+      <c r="AE44" s="144"/>
+      <c r="AF44" s="144"/>
+      <c r="AG44" s="144"/>
+      <c r="AH44" s="144"/>
+      <c r="AI44" s="144"/>
+      <c r="AJ44" s="122"/>
+      <c r="AK44" s="122"/>
+      <c r="AL44" s="122"/>
+      <c r="AM44" s="122"/>
+      <c r="AN44" s="122"/>
+      <c r="AO44" s="122"/>
+      <c r="AP44" s="122"/>
+      <c r="AQ44" s="122"/>
+      <c r="AR44" s="122"/>
+      <c r="AS44" s="122"/>
+      <c r="AT44" s="122"/>
+      <c r="AU44" s="122"/>
+      <c r="AV44" s="122"/>
+      <c r="AW44" s="122"/>
+      <c r="AX44" s="122"/>
+      <c r="AY44" s="122"/>
+      <c r="AZ44" s="122"/>
+      <c r="BA44" s="122"/>
+      <c r="BB44" s="122"/>
+      <c r="BC44" s="122"/>
+      <c r="BD44" s="122"/>
+      <c r="BE44" s="122"/>
       <c r="BF44" s="8"/>
       <c r="BG44" s="8"/>
       <c r="BH44" s="8"/>
@@ -20819,67 +20819,67 @@
         <f ca="1">MAX(B$35:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>10</v>
       </c>
-      <c r="C45" s="148" t="s">
+      <c r="C45" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="149"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="149"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="149"/>
-      <c r="J45" s="149"/>
-      <c r="K45" s="150"/>
-      <c r="L45" s="142" t="s">
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="141"/>
+      <c r="K45" s="142"/>
+      <c r="L45" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="M45" s="141"/>
-      <c r="N45" s="141"/>
-      <c r="O45" s="141"/>
-      <c r="P45" s="141"/>
-      <c r="Q45" s="143"/>
-      <c r="R45" s="142"/>
-      <c r="S45" s="141"/>
-      <c r="T45" s="141"/>
-      <c r="U45" s="141"/>
-      <c r="V45" s="141"/>
-      <c r="W45" s="143"/>
-      <c r="X45" s="148"/>
-      <c r="Y45" s="149"/>
-      <c r="Z45" s="149"/>
-      <c r="AA45" s="149"/>
-      <c r="AB45" s="149"/>
-      <c r="AC45" s="150"/>
-      <c r="AD45" s="140"/>
-      <c r="AE45" s="141"/>
-      <c r="AF45" s="141"/>
-      <c r="AG45" s="141"/>
-      <c r="AH45" s="141"/>
-      <c r="AI45" s="141"/>
-      <c r="AJ45" s="83" t="s">
+      <c r="M45" s="144"/>
+      <c r="N45" s="144"/>
+      <c r="O45" s="144"/>
+      <c r="P45" s="144"/>
+      <c r="Q45" s="145"/>
+      <c r="R45" s="143"/>
+      <c r="S45" s="144"/>
+      <c r="T45" s="144"/>
+      <c r="U45" s="144"/>
+      <c r="V45" s="144"/>
+      <c r="W45" s="145"/>
+      <c r="X45" s="140"/>
+      <c r="Y45" s="141"/>
+      <c r="Z45" s="141"/>
+      <c r="AA45" s="141"/>
+      <c r="AB45" s="141"/>
+      <c r="AC45" s="142"/>
+      <c r="AD45" s="146"/>
+      <c r="AE45" s="144"/>
+      <c r="AF45" s="144"/>
+      <c r="AG45" s="144"/>
+      <c r="AH45" s="144"/>
+      <c r="AI45" s="144"/>
+      <c r="AJ45" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="AK45" s="95"/>
-      <c r="AL45" s="95"/>
-      <c r="AM45" s="95"/>
-      <c r="AN45" s="95"/>
-      <c r="AO45" s="95"/>
-      <c r="AP45" s="95"/>
-      <c r="AQ45" s="95"/>
-      <c r="AR45" s="95"/>
-      <c r="AS45" s="95"/>
-      <c r="AT45" s="95"/>
-      <c r="AU45" s="95"/>
-      <c r="AV45" s="95"/>
-      <c r="AW45" s="95"/>
-      <c r="AX45" s="95"/>
-      <c r="AY45" s="95"/>
-      <c r="AZ45" s="95"/>
-      <c r="BA45" s="95"/>
-      <c r="BB45" s="95"/>
-      <c r="BC45" s="95"/>
-      <c r="BD45" s="95"/>
-      <c r="BE45" s="95"/>
+      <c r="AK45" s="122"/>
+      <c r="AL45" s="122"/>
+      <c r="AM45" s="122"/>
+      <c r="AN45" s="122"/>
+      <c r="AO45" s="122"/>
+      <c r="AP45" s="122"/>
+      <c r="AQ45" s="122"/>
+      <c r="AR45" s="122"/>
+      <c r="AS45" s="122"/>
+      <c r="AT45" s="122"/>
+      <c r="AU45" s="122"/>
+      <c r="AV45" s="122"/>
+      <c r="AW45" s="122"/>
+      <c r="AX45" s="122"/>
+      <c r="AY45" s="122"/>
+      <c r="AZ45" s="122"/>
+      <c r="BA45" s="122"/>
+      <c r="BB45" s="122"/>
+      <c r="BC45" s="122"/>
+      <c r="BD45" s="122"/>
+      <c r="BE45" s="122"/>
       <c r="BF45" s="8"/>
       <c r="BG45" s="8"/>
       <c r="BH45" s="8"/>
@@ -21106,160 +21106,160 @@
     </row>
     <row r="49" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A49" s="19"/>
-      <c r="B49" s="123" t="s">
+      <c r="B49" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="124" t="s">
+      <c r="C49" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124" t="s">
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="K49" s="124"/>
-      <c r="L49" s="124"/>
-      <c r="M49" s="124"/>
-      <c r="N49" s="124"/>
-      <c r="O49" s="124"/>
-      <c r="P49" s="124"/>
-      <c r="Q49" s="124"/>
-      <c r="R49" s="124" t="s">
+      <c r="K49" s="104"/>
+      <c r="L49" s="104"/>
+      <c r="M49" s="104"/>
+      <c r="N49" s="104"/>
+      <c r="O49" s="104"/>
+      <c r="P49" s="104"/>
+      <c r="Q49" s="104"/>
+      <c r="R49" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="S49" s="124"/>
-      <c r="T49" s="124"/>
-      <c r="U49" s="124"/>
-      <c r="V49" s="124"/>
-      <c r="W49" s="124"/>
-      <c r="X49" s="124"/>
-      <c r="Y49" s="124"/>
-      <c r="Z49" s="124"/>
-      <c r="AA49" s="124"/>
-      <c r="AB49" s="124"/>
-      <c r="AC49" s="124"/>
-      <c r="AD49" s="124"/>
-      <c r="AE49" s="124"/>
-      <c r="AF49" s="124"/>
-      <c r="AG49" s="124"/>
-      <c r="AH49" s="124"/>
-      <c r="AI49" s="124" t="s">
+      <c r="S49" s="104"/>
+      <c r="T49" s="104"/>
+      <c r="U49" s="104"/>
+      <c r="V49" s="104"/>
+      <c r="W49" s="104"/>
+      <c r="X49" s="104"/>
+      <c r="Y49" s="104"/>
+      <c r="Z49" s="104"/>
+      <c r="AA49" s="104"/>
+      <c r="AB49" s="104"/>
+      <c r="AC49" s="104"/>
+      <c r="AD49" s="104"/>
+      <c r="AE49" s="104"/>
+      <c r="AF49" s="104"/>
+      <c r="AG49" s="104"/>
+      <c r="AH49" s="104"/>
+      <c r="AI49" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="AJ49" s="124"/>
-      <c r="AK49" s="124"/>
-      <c r="AL49" s="124"/>
-      <c r="AM49" s="124"/>
-      <c r="AN49" s="124"/>
-      <c r="AO49" s="124"/>
-      <c r="AP49" s="124"/>
-      <c r="AQ49" s="124" t="s">
+      <c r="AJ49" s="104"/>
+      <c r="AK49" s="104"/>
+      <c r="AL49" s="104"/>
+      <c r="AM49" s="104"/>
+      <c r="AN49" s="104"/>
+      <c r="AO49" s="104"/>
+      <c r="AP49" s="104"/>
+      <c r="AQ49" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="AR49" s="124"/>
-      <c r="AS49" s="124"/>
-      <c r="AT49" s="124"/>
-      <c r="AU49" s="124"/>
-      <c r="AV49" s="124"/>
-      <c r="AW49" s="124"/>
-      <c r="AX49" s="124"/>
-      <c r="AY49" s="124"/>
-      <c r="AZ49" s="124"/>
-      <c r="BA49" s="124"/>
-      <c r="BB49" s="124"/>
-      <c r="BC49" s="124"/>
-      <c r="BD49" s="124"/>
-      <c r="BE49" s="124"/>
-      <c r="BF49" s="124"/>
-      <c r="BG49" s="124"/>
-      <c r="BH49" s="124"/>
-      <c r="BI49" s="124"/>
-      <c r="BJ49" s="124"/>
-      <c r="BK49" s="124"/>
-      <c r="BL49" s="124"/>
-      <c r="BM49" s="124"/>
-      <c r="BN49" s="124"/>
-      <c r="BO49" s="124"/>
+      <c r="AR49" s="104"/>
+      <c r="AS49" s="104"/>
+      <c r="AT49" s="104"/>
+      <c r="AU49" s="104"/>
+      <c r="AV49" s="104"/>
+      <c r="AW49" s="104"/>
+      <c r="AX49" s="104"/>
+      <c r="AY49" s="104"/>
+      <c r="AZ49" s="104"/>
+      <c r="BA49" s="104"/>
+      <c r="BB49" s="104"/>
+      <c r="BC49" s="104"/>
+      <c r="BD49" s="104"/>
+      <c r="BE49" s="104"/>
+      <c r="BF49" s="104"/>
+      <c r="BG49" s="104"/>
+      <c r="BH49" s="104"/>
+      <c r="BI49" s="104"/>
+      <c r="BJ49" s="104"/>
+      <c r="BK49" s="104"/>
+      <c r="BL49" s="104"/>
+      <c r="BM49" s="104"/>
+      <c r="BN49" s="104"/>
+      <c r="BO49" s="104"/>
       <c r="BP49" s="4"/>
     </row>
     <row r="50" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A50" s="19"/>
-      <c r="B50" s="123"/>
-      <c r="C50" s="125"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="124"/>
-      <c r="L50" s="124"/>
-      <c r="M50" s="124"/>
-      <c r="N50" s="124"/>
-      <c r="O50" s="124"/>
-      <c r="P50" s="124"/>
-      <c r="Q50" s="124"/>
-      <c r="R50" s="124"/>
-      <c r="S50" s="124"/>
-      <c r="T50" s="124"/>
-      <c r="U50" s="124"/>
-      <c r="V50" s="124"/>
-      <c r="W50" s="124"/>
-      <c r="X50" s="124"/>
-      <c r="Y50" s="124"/>
-      <c r="Z50" s="124"/>
-      <c r="AA50" s="124"/>
-      <c r="AB50" s="124"/>
-      <c r="AC50" s="124"/>
-      <c r="AD50" s="124"/>
-      <c r="AE50" s="124"/>
-      <c r="AF50" s="124"/>
-      <c r="AG50" s="124"/>
-      <c r="AH50" s="124"/>
-      <c r="AI50" s="124"/>
-      <c r="AJ50" s="124"/>
-      <c r="AK50" s="124"/>
-      <c r="AL50" s="124"/>
-      <c r="AM50" s="124"/>
-      <c r="AN50" s="124"/>
-      <c r="AO50" s="124"/>
-      <c r="AP50" s="124"/>
-      <c r="AQ50" s="124" t="s">
+      <c r="B50" s="103"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="104"/>
+      <c r="K50" s="104"/>
+      <c r="L50" s="104"/>
+      <c r="M50" s="104"/>
+      <c r="N50" s="104"/>
+      <c r="O50" s="104"/>
+      <c r="P50" s="104"/>
+      <c r="Q50" s="104"/>
+      <c r="R50" s="104"/>
+      <c r="S50" s="104"/>
+      <c r="T50" s="104"/>
+      <c r="U50" s="104"/>
+      <c r="V50" s="104"/>
+      <c r="W50" s="104"/>
+      <c r="X50" s="104"/>
+      <c r="Y50" s="104"/>
+      <c r="Z50" s="104"/>
+      <c r="AA50" s="104"/>
+      <c r="AB50" s="104"/>
+      <c r="AC50" s="104"/>
+      <c r="AD50" s="104"/>
+      <c r="AE50" s="104"/>
+      <c r="AF50" s="104"/>
+      <c r="AG50" s="104"/>
+      <c r="AH50" s="104"/>
+      <c r="AI50" s="104"/>
+      <c r="AJ50" s="104"/>
+      <c r="AK50" s="104"/>
+      <c r="AL50" s="104"/>
+      <c r="AM50" s="104"/>
+      <c r="AN50" s="104"/>
+      <c r="AO50" s="104"/>
+      <c r="AP50" s="104"/>
+      <c r="AQ50" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="AR50" s="124"/>
-      <c r="AS50" s="124"/>
-      <c r="AT50" s="124"/>
-      <c r="AU50" s="124"/>
-      <c r="AV50" s="124"/>
-      <c r="AW50" s="124"/>
-      <c r="AX50" s="124" t="s">
+      <c r="AR50" s="104"/>
+      <c r="AS50" s="104"/>
+      <c r="AT50" s="104"/>
+      <c r="AU50" s="104"/>
+      <c r="AV50" s="104"/>
+      <c r="AW50" s="104"/>
+      <c r="AX50" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="AY50" s="124"/>
-      <c r="AZ50" s="124"/>
-      <c r="BA50" s="124"/>
-      <c r="BB50" s="124"/>
-      <c r="BC50" s="124" t="s">
+      <c r="AY50" s="104"/>
+      <c r="AZ50" s="104"/>
+      <c r="BA50" s="104"/>
+      <c r="BB50" s="104"/>
+      <c r="BC50" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="BD50" s="124"/>
-      <c r="BE50" s="124"/>
-      <c r="BF50" s="124"/>
-      <c r="BG50" s="124"/>
-      <c r="BH50" s="124"/>
-      <c r="BI50" s="124"/>
-      <c r="BJ50" s="124"/>
-      <c r="BK50" s="124"/>
-      <c r="BL50" s="124"/>
-      <c r="BM50" s="124"/>
-      <c r="BN50" s="124"/>
-      <c r="BO50" s="124"/>
+      <c r="BD50" s="104"/>
+      <c r="BE50" s="104"/>
+      <c r="BF50" s="104"/>
+      <c r="BG50" s="104"/>
+      <c r="BH50" s="104"/>
+      <c r="BI50" s="104"/>
+      <c r="BJ50" s="104"/>
+      <c r="BK50" s="104"/>
+      <c r="BL50" s="104"/>
+      <c r="BM50" s="104"/>
+      <c r="BN50" s="104"/>
+      <c r="BO50" s="104"/>
       <c r="BP50" s="4"/>
     </row>
     <row r="51" spans="1:68" s="59" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
@@ -21268,85 +21268,85 @@
         <f ca="1">MAX(B$49:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C51" s="99" t="s">
+      <c r="C51" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="101"/>
-      <c r="J51" s="119" t="s">
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="98"/>
+      <c r="J51" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="K51" s="83"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="83"/>
-      <c r="N51" s="83"/>
-      <c r="O51" s="83"/>
-      <c r="P51" s="83"/>
-      <c r="Q51" s="83"/>
-      <c r="R51" s="79" t="s">
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="75"/>
+      <c r="O51" s="75"/>
+      <c r="P51" s="75"/>
+      <c r="Q51" s="75"/>
+      <c r="R51" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="S51" s="79"/>
-      <c r="T51" s="79"/>
-      <c r="U51" s="79"/>
-      <c r="V51" s="79"/>
-      <c r="W51" s="79"/>
-      <c r="X51" s="79"/>
-      <c r="Y51" s="79"/>
-      <c r="Z51" s="79"/>
-      <c r="AA51" s="79"/>
-      <c r="AB51" s="79"/>
-      <c r="AC51" s="79"/>
-      <c r="AD51" s="79"/>
-      <c r="AE51" s="79"/>
-      <c r="AF51" s="79"/>
-      <c r="AG51" s="79"/>
-      <c r="AH51" s="79"/>
-      <c r="AI51" s="83" t="s">
+      <c r="S51" s="99"/>
+      <c r="T51" s="99"/>
+      <c r="U51" s="99"/>
+      <c r="V51" s="99"/>
+      <c r="W51" s="99"/>
+      <c r="X51" s="99"/>
+      <c r="Y51" s="99"/>
+      <c r="Z51" s="99"/>
+      <c r="AA51" s="99"/>
+      <c r="AB51" s="99"/>
+      <c r="AC51" s="99"/>
+      <c r="AD51" s="99"/>
+      <c r="AE51" s="99"/>
+      <c r="AF51" s="99"/>
+      <c r="AG51" s="99"/>
+      <c r="AH51" s="99"/>
+      <c r="AI51" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="AJ51" s="83"/>
-      <c r="AK51" s="83"/>
-      <c r="AL51" s="83"/>
-      <c r="AM51" s="83"/>
-      <c r="AN51" s="83"/>
-      <c r="AO51" s="83"/>
-      <c r="AP51" s="83"/>
-      <c r="AQ51" s="83" t="s">
+      <c r="AJ51" s="75"/>
+      <c r="AK51" s="75"/>
+      <c r="AL51" s="75"/>
+      <c r="AM51" s="75"/>
+      <c r="AN51" s="75"/>
+      <c r="AO51" s="75"/>
+      <c r="AP51" s="75"/>
+      <c r="AQ51" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="AR51" s="83"/>
-      <c r="AS51" s="83"/>
-      <c r="AT51" s="83"/>
-      <c r="AU51" s="83"/>
-      <c r="AV51" s="83"/>
-      <c r="AW51" s="83"/>
-      <c r="AX51" s="83" t="s">
+      <c r="AR51" s="75"/>
+      <c r="AS51" s="75"/>
+      <c r="AT51" s="75"/>
+      <c r="AU51" s="75"/>
+      <c r="AV51" s="75"/>
+      <c r="AW51" s="75"/>
+      <c r="AX51" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="AY51" s="83"/>
-      <c r="AZ51" s="83"/>
-      <c r="BA51" s="83"/>
-      <c r="BB51" s="83"/>
-      <c r="BC51" s="84" t="s">
+      <c r="AY51" s="75"/>
+      <c r="AZ51" s="75"/>
+      <c r="BA51" s="75"/>
+      <c r="BB51" s="75"/>
+      <c r="BC51" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="BD51" s="84"/>
-      <c r="BE51" s="84"/>
-      <c r="BF51" s="84"/>
-      <c r="BG51" s="84"/>
-      <c r="BH51" s="84"/>
-      <c r="BI51" s="84"/>
-      <c r="BJ51" s="84"/>
-      <c r="BK51" s="84"/>
-      <c r="BL51" s="84"/>
-      <c r="BM51" s="84"/>
-      <c r="BN51" s="84"/>
-      <c r="BO51" s="84"/>
+      <c r="BD51" s="76"/>
+      <c r="BE51" s="76"/>
+      <c r="BF51" s="76"/>
+      <c r="BG51" s="76"/>
+      <c r="BH51" s="76"/>
+      <c r="BI51" s="76"/>
+      <c r="BJ51" s="76"/>
+      <c r="BK51" s="76"/>
+      <c r="BL51" s="76"/>
+      <c r="BM51" s="76"/>
+      <c r="BN51" s="76"/>
+      <c r="BO51" s="76"/>
       <c r="BP51" s="4"/>
     </row>
     <row r="52" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
@@ -21355,83 +21355,83 @@
         <f ca="1">MAX(B$49:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C52" s="85"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="86"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="90" t="s">
+      <c r="C52" s="109"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="K52" s="95"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="95"/>
-      <c r="N52" s="95"/>
-      <c r="O52" s="95"/>
-      <c r="P52" s="95"/>
-      <c r="Q52" s="95"/>
-      <c r="R52" s="79" t="s">
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="122"/>
+      <c r="P52" s="122"/>
+      <c r="Q52" s="122"/>
+      <c r="R52" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="S52" s="79"/>
-      <c r="T52" s="79"/>
-      <c r="U52" s="79"/>
-      <c r="V52" s="79"/>
-      <c r="W52" s="79"/>
-      <c r="X52" s="79"/>
-      <c r="Y52" s="79"/>
-      <c r="Z52" s="79"/>
-      <c r="AA52" s="79"/>
-      <c r="AB52" s="79"/>
-      <c r="AC52" s="79"/>
-      <c r="AD52" s="79"/>
-      <c r="AE52" s="79"/>
-      <c r="AF52" s="79"/>
-      <c r="AG52" s="79"/>
-      <c r="AH52" s="79"/>
-      <c r="AI52" s="83" t="s">
+      <c r="S52" s="99"/>
+      <c r="T52" s="99"/>
+      <c r="U52" s="99"/>
+      <c r="V52" s="99"/>
+      <c r="W52" s="99"/>
+      <c r="X52" s="99"/>
+      <c r="Y52" s="99"/>
+      <c r="Z52" s="99"/>
+      <c r="AA52" s="99"/>
+      <c r="AB52" s="99"/>
+      <c r="AC52" s="99"/>
+      <c r="AD52" s="99"/>
+      <c r="AE52" s="99"/>
+      <c r="AF52" s="99"/>
+      <c r="AG52" s="99"/>
+      <c r="AH52" s="99"/>
+      <c r="AI52" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="AJ52" s="83"/>
-      <c r="AK52" s="83"/>
-      <c r="AL52" s="83"/>
-      <c r="AM52" s="83"/>
-      <c r="AN52" s="83"/>
-      <c r="AO52" s="83"/>
-      <c r="AP52" s="83"/>
-      <c r="AQ52" s="83" t="s">
+      <c r="AJ52" s="75"/>
+      <c r="AK52" s="75"/>
+      <c r="AL52" s="75"/>
+      <c r="AM52" s="75"/>
+      <c r="AN52" s="75"/>
+      <c r="AO52" s="75"/>
+      <c r="AP52" s="75"/>
+      <c r="AQ52" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="AR52" s="83"/>
-      <c r="AS52" s="83"/>
-      <c r="AT52" s="83"/>
-      <c r="AU52" s="83"/>
-      <c r="AV52" s="83"/>
-      <c r="AW52" s="83"/>
-      <c r="AX52" s="83" t="s">
+      <c r="AR52" s="75"/>
+      <c r="AS52" s="75"/>
+      <c r="AT52" s="75"/>
+      <c r="AU52" s="75"/>
+      <c r="AV52" s="75"/>
+      <c r="AW52" s="75"/>
+      <c r="AX52" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="AY52" s="83"/>
-      <c r="AZ52" s="83"/>
-      <c r="BA52" s="83"/>
-      <c r="BB52" s="83"/>
-      <c r="BC52" s="84" t="s">
+      <c r="AY52" s="75"/>
+      <c r="AZ52" s="75"/>
+      <c r="BA52" s="75"/>
+      <c r="BB52" s="75"/>
+      <c r="BC52" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="BD52" s="84"/>
-      <c r="BE52" s="84"/>
-      <c r="BF52" s="84"/>
-      <c r="BG52" s="84"/>
-      <c r="BH52" s="84"/>
-      <c r="BI52" s="84"/>
-      <c r="BJ52" s="84"/>
-      <c r="BK52" s="84"/>
-      <c r="BL52" s="84"/>
-      <c r="BM52" s="84"/>
-      <c r="BN52" s="84"/>
-      <c r="BO52" s="84"/>
+      <c r="BD52" s="76"/>
+      <c r="BE52" s="76"/>
+      <c r="BF52" s="76"/>
+      <c r="BG52" s="76"/>
+      <c r="BH52" s="76"/>
+      <c r="BI52" s="76"/>
+      <c r="BJ52" s="76"/>
+      <c r="BK52" s="76"/>
+      <c r="BL52" s="76"/>
+      <c r="BM52" s="76"/>
+      <c r="BN52" s="76"/>
+      <c r="BO52" s="76"/>
       <c r="BP52" s="4"/>
     </row>
     <row r="53" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
@@ -21440,83 +21440,83 @@
         <f ca="1">MAX(B$49:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C53" s="85"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="86" t="s">
+      <c r="C53" s="109"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="111"/>
+      <c r="J53" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="K53" s="86"/>
-      <c r="L53" s="86"/>
-      <c r="M53" s="86"/>
-      <c r="N53" s="86"/>
-      <c r="O53" s="86"/>
-      <c r="P53" s="86"/>
-      <c r="Q53" s="86"/>
-      <c r="R53" s="79" t="s">
+      <c r="K53" s="110"/>
+      <c r="L53" s="110"/>
+      <c r="M53" s="110"/>
+      <c r="N53" s="110"/>
+      <c r="O53" s="110"/>
+      <c r="P53" s="110"/>
+      <c r="Q53" s="110"/>
+      <c r="R53" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="S53" s="79"/>
-      <c r="T53" s="79"/>
-      <c r="U53" s="79"/>
-      <c r="V53" s="79"/>
-      <c r="W53" s="79"/>
-      <c r="X53" s="79"/>
-      <c r="Y53" s="79"/>
-      <c r="Z53" s="79"/>
-      <c r="AA53" s="79"/>
-      <c r="AB53" s="79"/>
-      <c r="AC53" s="79"/>
-      <c r="AD53" s="79"/>
-      <c r="AE53" s="79"/>
-      <c r="AF53" s="79"/>
-      <c r="AG53" s="79"/>
-      <c r="AH53" s="79"/>
-      <c r="AI53" s="77" t="s">
+      <c r="S53" s="99"/>
+      <c r="T53" s="99"/>
+      <c r="U53" s="99"/>
+      <c r="V53" s="99"/>
+      <c r="W53" s="99"/>
+      <c r="X53" s="99"/>
+      <c r="Y53" s="99"/>
+      <c r="Z53" s="99"/>
+      <c r="AA53" s="99"/>
+      <c r="AB53" s="99"/>
+      <c r="AC53" s="99"/>
+      <c r="AD53" s="99"/>
+      <c r="AE53" s="99"/>
+      <c r="AF53" s="99"/>
+      <c r="AG53" s="99"/>
+      <c r="AH53" s="99"/>
+      <c r="AI53" s="119" t="s">
         <v>121</v>
       </c>
-      <c r="AJ53" s="77"/>
-      <c r="AK53" s="77"/>
-      <c r="AL53" s="77"/>
-      <c r="AM53" s="77"/>
-      <c r="AN53" s="77"/>
-      <c r="AO53" s="77"/>
-      <c r="AP53" s="78"/>
-      <c r="AQ53" s="83" t="s">
+      <c r="AJ53" s="119"/>
+      <c r="AK53" s="119"/>
+      <c r="AL53" s="119"/>
+      <c r="AM53" s="119"/>
+      <c r="AN53" s="119"/>
+      <c r="AO53" s="119"/>
+      <c r="AP53" s="120"/>
+      <c r="AQ53" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="AR53" s="83"/>
-      <c r="AS53" s="83"/>
-      <c r="AT53" s="83"/>
-      <c r="AU53" s="83"/>
-      <c r="AV53" s="83"/>
-      <c r="AW53" s="83"/>
-      <c r="AX53" s="83" t="s">
+      <c r="AR53" s="75"/>
+      <c r="AS53" s="75"/>
+      <c r="AT53" s="75"/>
+      <c r="AU53" s="75"/>
+      <c r="AV53" s="75"/>
+      <c r="AW53" s="75"/>
+      <c r="AX53" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="AY53" s="83"/>
-      <c r="AZ53" s="83"/>
-      <c r="BA53" s="83"/>
-      <c r="BB53" s="83"/>
-      <c r="BC53" s="84" t="s">
+      <c r="AY53" s="75"/>
+      <c r="AZ53" s="75"/>
+      <c r="BA53" s="75"/>
+      <c r="BB53" s="75"/>
+      <c r="BC53" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="BD53" s="84"/>
-      <c r="BE53" s="84"/>
-      <c r="BF53" s="84"/>
-      <c r="BG53" s="84"/>
-      <c r="BH53" s="84"/>
-      <c r="BI53" s="84"/>
-      <c r="BJ53" s="84"/>
-      <c r="BK53" s="84"/>
-      <c r="BL53" s="84"/>
-      <c r="BM53" s="84"/>
-      <c r="BN53" s="84"/>
-      <c r="BO53" s="84"/>
+      <c r="BD53" s="76"/>
+      <c r="BE53" s="76"/>
+      <c r="BF53" s="76"/>
+      <c r="BG53" s="76"/>
+      <c r="BH53" s="76"/>
+      <c r="BI53" s="76"/>
+      <c r="BJ53" s="76"/>
+      <c r="BK53" s="76"/>
+      <c r="BL53" s="76"/>
+      <c r="BM53" s="76"/>
+      <c r="BN53" s="76"/>
+      <c r="BO53" s="76"/>
       <c r="BP53" s="4"/>
     </row>
     <row r="54" spans="1:68" s="59" customFormat="1" ht="16.5" outlineLevel="1">
@@ -21525,83 +21525,83 @@
         <f ca="1">MAX(B$49:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C54" s="91"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="93"/>
-      <c r="J54" s="138" t="s">
+      <c r="C54" s="125"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="117"/>
+      <c r="J54" s="154" t="s">
         <v>122</v>
       </c>
-      <c r="K54" s="138"/>
-      <c r="L54" s="138"/>
-      <c r="M54" s="138"/>
-      <c r="N54" s="138"/>
-      <c r="O54" s="138"/>
-      <c r="P54" s="138"/>
-      <c r="Q54" s="139"/>
-      <c r="R54" s="95" t="s">
+      <c r="K54" s="154"/>
+      <c r="L54" s="154"/>
+      <c r="M54" s="154"/>
+      <c r="N54" s="154"/>
+      <c r="O54" s="154"/>
+      <c r="P54" s="154"/>
+      <c r="Q54" s="155"/>
+      <c r="R54" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="S54" s="95"/>
-      <c r="T54" s="95"/>
-      <c r="U54" s="95"/>
-      <c r="V54" s="95"/>
-      <c r="W54" s="95"/>
-      <c r="X54" s="95"/>
-      <c r="Y54" s="95"/>
-      <c r="Z54" s="95"/>
-      <c r="AA54" s="95"/>
-      <c r="AB54" s="95"/>
-      <c r="AC54" s="95"/>
-      <c r="AD54" s="95"/>
-      <c r="AE54" s="95"/>
-      <c r="AF54" s="95"/>
-      <c r="AG54" s="95"/>
-      <c r="AH54" s="95"/>
-      <c r="AI54" s="83" t="s">
+      <c r="S54" s="122"/>
+      <c r="T54" s="122"/>
+      <c r="U54" s="122"/>
+      <c r="V54" s="122"/>
+      <c r="W54" s="122"/>
+      <c r="X54" s="122"/>
+      <c r="Y54" s="122"/>
+      <c r="Z54" s="122"/>
+      <c r="AA54" s="122"/>
+      <c r="AB54" s="122"/>
+      <c r="AC54" s="122"/>
+      <c r="AD54" s="122"/>
+      <c r="AE54" s="122"/>
+      <c r="AF54" s="122"/>
+      <c r="AG54" s="122"/>
+      <c r="AH54" s="122"/>
+      <c r="AI54" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="AJ54" s="83"/>
-      <c r="AK54" s="83"/>
-      <c r="AL54" s="83"/>
-      <c r="AM54" s="83"/>
-      <c r="AN54" s="83"/>
-      <c r="AO54" s="83"/>
-      <c r="AP54" s="83"/>
-      <c r="AQ54" s="83" t="s">
+      <c r="AJ54" s="75"/>
+      <c r="AK54" s="75"/>
+      <c r="AL54" s="75"/>
+      <c r="AM54" s="75"/>
+      <c r="AN54" s="75"/>
+      <c r="AO54" s="75"/>
+      <c r="AP54" s="75"/>
+      <c r="AQ54" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="AR54" s="83"/>
-      <c r="AS54" s="83"/>
-      <c r="AT54" s="83"/>
-      <c r="AU54" s="83"/>
-      <c r="AV54" s="83"/>
-      <c r="AW54" s="83"/>
-      <c r="AX54" s="83" t="s">
+      <c r="AR54" s="75"/>
+      <c r="AS54" s="75"/>
+      <c r="AT54" s="75"/>
+      <c r="AU54" s="75"/>
+      <c r="AV54" s="75"/>
+      <c r="AW54" s="75"/>
+      <c r="AX54" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="AY54" s="83"/>
-      <c r="AZ54" s="83"/>
-      <c r="BA54" s="83"/>
-      <c r="BB54" s="83"/>
-      <c r="BC54" s="84" t="s">
+      <c r="AY54" s="75"/>
+      <c r="AZ54" s="75"/>
+      <c r="BA54" s="75"/>
+      <c r="BB54" s="75"/>
+      <c r="BC54" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="BD54" s="84"/>
-      <c r="BE54" s="84"/>
-      <c r="BF54" s="84"/>
-      <c r="BG54" s="84"/>
-      <c r="BH54" s="84"/>
-      <c r="BI54" s="84"/>
-      <c r="BJ54" s="84"/>
-      <c r="BK54" s="84"/>
-      <c r="BL54" s="84"/>
-      <c r="BM54" s="84"/>
-      <c r="BN54" s="84"/>
-      <c r="BO54" s="84"/>
+      <c r="BD54" s="76"/>
+      <c r="BE54" s="76"/>
+      <c r="BF54" s="76"/>
+      <c r="BG54" s="76"/>
+      <c r="BH54" s="76"/>
+      <c r="BI54" s="76"/>
+      <c r="BJ54" s="76"/>
+      <c r="BK54" s="76"/>
+      <c r="BL54" s="76"/>
+      <c r="BM54" s="76"/>
+      <c r="BN54" s="76"/>
+      <c r="BO54" s="76"/>
       <c r="BP54" s="4"/>
     </row>
     <row r="55" spans="1:68" ht="16.5">
@@ -23682,18 +23682,62 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="AJ35:BE35"/>
-    <mergeCell ref="AJ36:BE36"/>
-    <mergeCell ref="AJ37:BE37"/>
-    <mergeCell ref="AJ38:BE38"/>
-    <mergeCell ref="AJ39:BE39"/>
-    <mergeCell ref="AJ40:BE40"/>
-    <mergeCell ref="AJ41:BE41"/>
-    <mergeCell ref="AJ43:BE43"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="X42:AC42"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="X43:AC43"/>
+    <mergeCell ref="C54:I54"/>
+    <mergeCell ref="J54:Q54"/>
+    <mergeCell ref="R54:AH54"/>
+    <mergeCell ref="AI54:AP54"/>
+    <mergeCell ref="AQ54:AW54"/>
+    <mergeCell ref="AX54:BB54"/>
+    <mergeCell ref="BC54:BO54"/>
+    <mergeCell ref="AX52:BB52"/>
+    <mergeCell ref="BC52:BO52"/>
+    <mergeCell ref="C53:I53"/>
+    <mergeCell ref="J53:Q53"/>
+    <mergeCell ref="R53:AH53"/>
+    <mergeCell ref="AI53:AP53"/>
+    <mergeCell ref="AQ53:AW53"/>
+    <mergeCell ref="AX53:BB53"/>
+    <mergeCell ref="BC53:BO53"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="R52:AH52"/>
+    <mergeCell ref="AI52:AP52"/>
+    <mergeCell ref="AQ52:AW52"/>
+    <mergeCell ref="AQ49:BO49"/>
+    <mergeCell ref="AQ50:AW50"/>
+    <mergeCell ref="AX50:BB50"/>
+    <mergeCell ref="BC50:BO50"/>
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="J51:Q51"/>
+    <mergeCell ref="R51:AH51"/>
+    <mergeCell ref="AI51:AP51"/>
+    <mergeCell ref="AQ51:AW51"/>
+    <mergeCell ref="AX51:BB51"/>
+    <mergeCell ref="BC51:BO51"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:I50"/>
+    <mergeCell ref="J49:Q50"/>
+    <mergeCell ref="R49:AH50"/>
+    <mergeCell ref="AI49:AP50"/>
+    <mergeCell ref="AD38:AI38"/>
+    <mergeCell ref="L39:Q39"/>
+    <mergeCell ref="R39:W39"/>
+    <mergeCell ref="AD39:AI39"/>
+    <mergeCell ref="L44:Q44"/>
+    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="AD44:AI44"/>
+    <mergeCell ref="L45:Q45"/>
+    <mergeCell ref="R45:W45"/>
+    <mergeCell ref="AD45:AI45"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="AJ45:BE45"/>
+    <mergeCell ref="AJ44:BE44"/>
+    <mergeCell ref="AJ42:BE42"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="X45:AC45"/>
     <mergeCell ref="C44:K44"/>
     <mergeCell ref="X44:AC44"/>
     <mergeCell ref="L42:Q42"/>
@@ -23718,6 +23762,18 @@
     <mergeCell ref="AD37:AI37"/>
     <mergeCell ref="AD43:AI43"/>
     <mergeCell ref="L40:Q40"/>
+    <mergeCell ref="AJ35:BE35"/>
+    <mergeCell ref="AJ36:BE36"/>
+    <mergeCell ref="AJ37:BE37"/>
+    <mergeCell ref="AJ38:BE38"/>
+    <mergeCell ref="AJ39:BE39"/>
+    <mergeCell ref="AJ40:BE40"/>
+    <mergeCell ref="AJ41:BE41"/>
+    <mergeCell ref="AJ43:BE43"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="X42:AC42"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="X43:AC43"/>
     <mergeCell ref="R40:W40"/>
     <mergeCell ref="AD40:AI40"/>
     <mergeCell ref="L41:Q41"/>
@@ -23729,62 +23785,6 @@
     <mergeCell ref="X39:AC39"/>
     <mergeCell ref="X40:AC40"/>
     <mergeCell ref="X41:AC41"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:I50"/>
-    <mergeCell ref="J49:Q50"/>
-    <mergeCell ref="R49:AH50"/>
-    <mergeCell ref="AI49:AP50"/>
-    <mergeCell ref="AD38:AI38"/>
-    <mergeCell ref="L39:Q39"/>
-    <mergeCell ref="R39:W39"/>
-    <mergeCell ref="AD39:AI39"/>
-    <mergeCell ref="L44:Q44"/>
-    <mergeCell ref="R44:W44"/>
-    <mergeCell ref="AD44:AI44"/>
-    <mergeCell ref="L45:Q45"/>
-    <mergeCell ref="R45:W45"/>
-    <mergeCell ref="AD45:AI45"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="AJ45:BE45"/>
-    <mergeCell ref="AJ44:BE44"/>
-    <mergeCell ref="AJ42:BE42"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="X45:AC45"/>
-    <mergeCell ref="AQ49:BO49"/>
-    <mergeCell ref="AQ50:AW50"/>
-    <mergeCell ref="AX50:BB50"/>
-    <mergeCell ref="BC50:BO50"/>
-    <mergeCell ref="C51:I51"/>
-    <mergeCell ref="J51:Q51"/>
-    <mergeCell ref="R51:AH51"/>
-    <mergeCell ref="AI51:AP51"/>
-    <mergeCell ref="AQ51:AW51"/>
-    <mergeCell ref="AX51:BB51"/>
-    <mergeCell ref="BC51:BO51"/>
-    <mergeCell ref="AX52:BB52"/>
-    <mergeCell ref="BC52:BO52"/>
-    <mergeCell ref="C53:I53"/>
-    <mergeCell ref="J53:Q53"/>
-    <mergeCell ref="R53:AH53"/>
-    <mergeCell ref="AI53:AP53"/>
-    <mergeCell ref="AQ53:AW53"/>
-    <mergeCell ref="AX53:BB53"/>
-    <mergeCell ref="BC53:BO53"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="J52:Q52"/>
-    <mergeCell ref="R52:AH52"/>
-    <mergeCell ref="AI52:AP52"/>
-    <mergeCell ref="AQ52:AW52"/>
-    <mergeCell ref="C54:I54"/>
-    <mergeCell ref="J54:Q54"/>
-    <mergeCell ref="R54:AH54"/>
-    <mergeCell ref="AI54:AP54"/>
-    <mergeCell ref="AQ54:AW54"/>
-    <mergeCell ref="AX54:BB54"/>
-    <mergeCell ref="BC54:BO54"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
